--- a/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="577">
   <si>
     <t>Package Name</t>
   </si>
@@ -1692,43 +1692,7 @@
     <t>Package_No</t>
   </si>
   <si>
-    <t>KISH/PW-08</t>
-  </si>
-  <si>
     <t>KISH/PW-27</t>
-  </si>
-  <si>
-    <t>KISH/PW-28</t>
-  </si>
-  <si>
-    <t>KISH/PW-29</t>
-  </si>
-  <si>
-    <t>KISH/PW-30</t>
-  </si>
-  <si>
-    <t>KISH/PW-31</t>
-  </si>
-  <si>
-    <t>KISH/PW-32</t>
-  </si>
-  <si>
-    <t>KISH/PW-33</t>
-  </si>
-  <si>
-    <t>KISH/PW-34</t>
-  </si>
-  <si>
-    <t>KISH/PW-35</t>
-  </si>
-  <si>
-    <t>KISH/PW-36</t>
-  </si>
-  <si>
-    <t>KISH/PW-37</t>
-  </si>
-  <si>
-    <t>KISH/PW-38</t>
   </si>
   <si>
     <t>Payment_30_06_2020</t>
@@ -1844,9 +1808,6 @@
   </si>
   <si>
     <t>Ikrampur CW-6M</t>
-  </si>
-  <si>
-    <t>SUNM/PW-07</t>
   </si>
 </sst>
 </file>
@@ -2874,7 +2835,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3015,7 +2975,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3156,7 +3115,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3297,7 +3255,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3438,7 +3395,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3579,7 +3535,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8783,10 +8738,10 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9048,25 +9003,25 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="D10" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="71" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -10732,7 +10687,7 @@
       <c r="P40" s="85"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="69">
         <v>45</v>
       </c>
@@ -10774,7 +10729,7 @@
       <c r="P41" s="82"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="69">
         <v>30</v>
       </c>
@@ -10818,7 +10773,7 @@
       </c>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="69">
         <v>33</v>
       </c>
@@ -10862,7 +10817,7 @@
       </c>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="69">
         <v>36</v>
       </c>
@@ -10906,7 +10861,7 @@
       </c>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="69">
         <v>39</v>
       </c>
@@ -10950,7 +10905,7 @@
       </c>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="69">
         <v>43</v>
       </c>
@@ -10994,7 +10949,7 @@
       </c>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="69">
         <v>46</v>
       </c>
@@ -11036,7 +10991,7 @@
       <c r="P47" s="84"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="69">
         <v>47</v>
       </c>
@@ -11078,7 +11033,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
       <c r="A49" s="192" t="s">
         <v>118</v>
       </c>
@@ -11113,7 +11068,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="87"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -11131,7 +11086,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -11423,12 +11378,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12005,35 +11960,35 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="170" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B1" s="170" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="170" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B2" s="170"/>
       <c r="C2" s="19"/>
@@ -12044,7 +11999,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="170" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B3" s="170"/>
       <c r="C3" s="19"/>
@@ -12055,7 +12010,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="170" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B4" s="170"/>
       <c r="C4" s="19"/>
@@ -12066,7 +12021,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="170" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B5" s="170"/>
       <c r="C5" s="19"/>
@@ -12077,7 +12032,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="170" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="19"/>
@@ -12088,7 +12043,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="170" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B7" s="170"/>
       <c r="C7" s="19"/>
@@ -12099,7 +12054,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="170" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B8" s="170"/>
       <c r="C8" s="19"/>
@@ -12110,7 +12065,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="170" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B9" s="170"/>
       <c r="C9" s="19"/>
@@ -12121,7 +12076,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="170" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B10" s="170"/>
       <c r="C10" s="19"/>
@@ -12132,7 +12087,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="170" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B11" s="170"/>
       <c r="C11" s="19"/>
@@ -12143,7 +12098,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="170" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B12" s="170"/>
       <c r="C12" s="19"/>
@@ -12154,7 +12109,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="170" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B13" s="170"/>
       <c r="C13" s="19"/>
@@ -12170,80 +12125,78 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="170" t="s">
-        <v>536</v>
-      </c>
-      <c r="B1" s="170" t="s">
         <v>537</v>
       </c>
+      <c r="B1" s="170">
+        <v>1</v>
+      </c>
       <c r="C1" s="170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="170">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="170">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="170">
-        <v>15</v>
-      </c>
-      <c r="R1" s="170">
         <v>16</v>
       </c>
+      <c r="R1" s="170" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="170">
-        <v>1</v>
-      </c>
-      <c r="B2" s="170" t="s">
+      <c r="A2" s="170" t="s">
         <v>533</v>
       </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -12262,12 +12215,10 @@
       <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="170">
-        <v>2</v>
-      </c>
-      <c r="B3" s="170" t="s">
+      <c r="A3" s="170" t="s">
         <v>506</v>
       </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -12286,12 +12237,10 @@
       <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="170">
-        <v>3</v>
-      </c>
-      <c r="B4" s="170" t="s">
+      <c r="A4" s="170" t="s">
         <v>497</v>
       </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -12310,12 +12259,10 @@
       <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="170">
-        <v>4</v>
-      </c>
-      <c r="B5" s="170" t="s">
+      <c r="A5" s="170" t="s">
         <v>491</v>
       </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -12334,12 +12281,10 @@
       <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="170">
-        <v>5</v>
-      </c>
-      <c r="B6" s="170" t="s">
+      <c r="A6" s="170" t="s">
         <v>488</v>
       </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -12358,12 +12303,10 @@
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="170">
-        <v>6</v>
-      </c>
-      <c r="B7" s="170" t="s">
+      <c r="A7" s="170" t="s">
         <v>479</v>
       </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -12382,12 +12325,10 @@
       <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="170">
-        <v>7</v>
-      </c>
-      <c r="B8" s="170" t="s">
+      <c r="A8" s="170" t="s">
         <v>468</v>
       </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -12406,12 +12347,10 @@
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="170">
-        <v>8</v>
-      </c>
-      <c r="B9" s="170" t="s">
-        <v>538</v>
-      </c>
+      <c r="A9" s="170" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -12430,12 +12369,10 @@
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="170">
-        <v>9</v>
-      </c>
-      <c r="B10" s="170" t="s">
-        <v>449</v>
-      </c>
+      <c r="A10" s="170" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -12454,12 +12391,10 @@
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="170">
-        <v>10</v>
-      </c>
-      <c r="B11" s="170" t="s">
-        <v>439</v>
-      </c>
+      <c r="A11" s="170" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -12478,12 +12413,10 @@
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="170">
-        <v>11</v>
-      </c>
-      <c r="B12" s="170" t="s">
-        <v>436</v>
-      </c>
+      <c r="A12" s="170" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -12502,12 +12435,10 @@
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="170">
-        <v>12</v>
-      </c>
-      <c r="B13" s="170" t="s">
-        <v>429</v>
-      </c>
+      <c r="A13" s="170" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -12526,12 +12457,10 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="170">
-        <v>13</v>
-      </c>
-      <c r="B14" s="170" t="s">
-        <v>458</v>
-      </c>
+      <c r="A14" s="170" t="s">
+        <v>455</v>
+      </c>
+      <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -12550,12 +12479,10 @@
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="170">
-        <v>14</v>
-      </c>
-      <c r="B15" s="170" t="s">
-        <v>455</v>
-      </c>
+      <c r="A15" s="170" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -12574,12 +12501,10 @@
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="170">
-        <v>15</v>
-      </c>
-      <c r="B16" s="170" t="s">
-        <v>450</v>
-      </c>
+      <c r="A16" s="170" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -12598,12 +12523,10 @@
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="170">
-        <v>16</v>
-      </c>
-      <c r="B17" s="170" t="s">
-        <v>433</v>
-      </c>
+      <c r="A17" s="170" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -12622,12 +12545,10 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="170">
-        <v>17</v>
-      </c>
-      <c r="B18" s="170" t="s">
-        <v>414</v>
-      </c>
+      <c r="A18" s="170" t="s">
+        <v>510</v>
+      </c>
+      <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -12646,12 +12567,10 @@
       <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="170">
-        <v>18</v>
-      </c>
-      <c r="B19" s="170" t="s">
-        <v>510</v>
-      </c>
+      <c r="A19" s="170" t="s">
+        <v>420</v>
+      </c>
+      <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -12670,12 +12589,10 @@
       <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="170">
-        <v>19</v>
-      </c>
-      <c r="B20" s="170" t="s">
-        <v>420</v>
-      </c>
+      <c r="A20" s="170" t="s">
+        <v>393</v>
+      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -12694,12 +12611,10 @@
       <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="170">
-        <v>20</v>
-      </c>
-      <c r="B21" s="170" t="s">
-        <v>393</v>
-      </c>
+      <c r="A21" s="170" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -12718,12 +12633,10 @@
       <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="170">
-        <v>21</v>
-      </c>
-      <c r="B22" s="170" t="s">
-        <v>525</v>
-      </c>
+      <c r="A22" s="170" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -12742,12 +12655,10 @@
       <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="170">
-        <v>22</v>
-      </c>
-      <c r="B23" s="170" t="s">
-        <v>407</v>
-      </c>
+      <c r="A23" s="170" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -12766,12 +12677,10 @@
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="170">
-        <v>23</v>
-      </c>
-      <c r="B24" s="170" t="s">
-        <v>361</v>
-      </c>
+      <c r="A24" s="170" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -12790,12 +12699,10 @@
       <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="170">
-        <v>24</v>
-      </c>
-      <c r="B25" s="170" t="s">
-        <v>367</v>
-      </c>
+      <c r="A25" s="170" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -12814,12 +12721,10 @@
       <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="170">
-        <v>25</v>
-      </c>
-      <c r="B26" s="170" t="s">
-        <v>380</v>
-      </c>
+      <c r="A26" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -12838,12 +12743,10 @@
       <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="170">
-        <v>26</v>
-      </c>
-      <c r="B27" s="170" t="s">
-        <v>373</v>
-      </c>
+      <c r="A27" s="170" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -12862,12 +12765,10 @@
       <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="170">
-        <v>27</v>
-      </c>
-      <c r="B28" s="170" t="s">
-        <v>539</v>
-      </c>
+      <c r="A28" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -12886,12 +12787,10 @@
       <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="170">
-        <v>28</v>
-      </c>
-      <c r="B29" s="170" t="s">
-        <v>540</v>
-      </c>
+      <c r="A29" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -12910,12 +12809,10 @@
       <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="170">
-        <v>29</v>
-      </c>
-      <c r="B30" s="170" t="s">
-        <v>541</v>
-      </c>
+      <c r="A30" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -12934,12 +12831,10 @@
       <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="170">
-        <v>30</v>
-      </c>
-      <c r="B31" s="170" t="s">
-        <v>542</v>
-      </c>
+      <c r="A31" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -12958,12 +12853,10 @@
       <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="170">
-        <v>31</v>
-      </c>
-      <c r="B32" s="170" t="s">
-        <v>543</v>
-      </c>
+      <c r="A32" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -12982,12 +12875,10 @@
       <c r="R32" s="19"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="170">
-        <v>32</v>
-      </c>
-      <c r="B33" s="170" t="s">
-        <v>544</v>
-      </c>
+      <c r="A33" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -13006,12 +12897,10 @@
       <c r="R33" s="19"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="170">
-        <v>33</v>
-      </c>
-      <c r="B34" s="170" t="s">
-        <v>545</v>
-      </c>
+      <c r="A34" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -13030,12 +12919,10 @@
       <c r="R34" s="19"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="170">
-        <v>34</v>
-      </c>
-      <c r="B35" s="170" t="s">
-        <v>546</v>
-      </c>
+      <c r="A35" s="170" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -13054,12 +12941,10 @@
       <c r="R35" s="19"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="170">
-        <v>35</v>
-      </c>
-      <c r="B36" s="170" t="s">
-        <v>547</v>
-      </c>
+      <c r="A36" s="170" t="s">
+        <v>319</v>
+      </c>
+      <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -13078,12 +12963,10 @@
       <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="170">
-        <v>36</v>
-      </c>
-      <c r="B37" s="170" t="s">
-        <v>548</v>
-      </c>
+      <c r="A37" s="170" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -13102,12 +12985,10 @@
       <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="170">
-        <v>37</v>
-      </c>
-      <c r="B38" s="170" t="s">
-        <v>549</v>
-      </c>
+      <c r="A38" s="170" t="s">
+        <v>315</v>
+      </c>
+      <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -13126,12 +13007,10 @@
       <c r="R38" s="19"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="170">
-        <v>38</v>
-      </c>
-      <c r="B39" s="170" t="s">
-        <v>550</v>
-      </c>
+      <c r="A39" s="170" t="s">
+        <v>313</v>
+      </c>
+      <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -13150,12 +13029,10 @@
       <c r="R39" s="19"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="170">
-        <v>39</v>
-      </c>
-      <c r="B40" s="170" t="s">
-        <v>122</v>
-      </c>
+      <c r="A40" s="170" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -13174,12 +13051,10 @@
       <c r="R40" s="19"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="170">
-        <v>40</v>
-      </c>
-      <c r="B41" s="170" t="s">
-        <v>133</v>
-      </c>
+      <c r="A41" s="170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -13198,12 +13073,10 @@
       <c r="R41" s="19"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="170">
-        <v>41</v>
-      </c>
-      <c r="B42" s="170" t="s">
-        <v>184</v>
-      </c>
+      <c r="A42" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -13222,12 +13095,10 @@
       <c r="R42" s="19"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="170">
-        <v>42</v>
-      </c>
-      <c r="B43" s="170" t="s">
-        <v>144</v>
-      </c>
+      <c r="A43" s="170" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -13246,12 +13117,10 @@
       <c r="R43" s="19"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="170">
-        <v>43</v>
-      </c>
-      <c r="B44" s="170" t="s">
-        <v>155</v>
-      </c>
+      <c r="A44" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -13270,12 +13139,10 @@
       <c r="R44" s="19"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="170">
-        <v>44</v>
-      </c>
-      <c r="B45" s="170" t="s">
-        <v>174</v>
-      </c>
+      <c r="A45" s="170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -13294,12 +13161,10 @@
       <c r="R45" s="19"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="170">
-        <v>45</v>
-      </c>
-      <c r="B46" s="170" t="s">
-        <v>13</v>
-      </c>
+      <c r="A46" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -13318,12 +13183,10 @@
       <c r="R46" s="19"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="170">
-        <v>46</v>
-      </c>
-      <c r="B47" s="170" t="s">
-        <v>22</v>
-      </c>
+      <c r="A47" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -13341,150 +13204,6 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="170">
-        <v>47</v>
-      </c>
-      <c r="B48" s="170" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="170">
-        <v>48</v>
-      </c>
-      <c r="B49" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="170">
-        <v>49</v>
-      </c>
-      <c r="B50" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="170">
-        <v>50</v>
-      </c>
-      <c r="B51" s="170" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="170">
-        <v>51</v>
-      </c>
-      <c r="B52" s="170" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-    </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="170">
-        <v>52</v>
-      </c>
-      <c r="B53" s="170" t="s">
-        <v>577</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13492,17 +13211,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -13513,7 +13232,7 @@
         <v>537</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13595,573 +13314,430 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="170">
-        <v>8</v>
-      </c>
-      <c r="B9" s="188" t="s">
-        <v>538</v>
-      </c>
-      <c r="C9" s="170">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="179">
+        <v>712.33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="180" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" s="179">
-        <v>712.33</v>
+        <v>439</v>
+      </c>
+      <c r="C10" s="51">
+        <v>409.68</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="180" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C11" s="51">
-        <v>409.68</v>
+        <v>522.86</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="170">
-        <v>11</v>
-      </c>
-      <c r="B12" s="180" t="s">
-        <v>436</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="188" t="s">
+        <v>429</v>
       </c>
       <c r="C12" s="51">
-        <v>522.86</v>
+        <v>705.59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="170">
-        <v>12</v>
-      </c>
-      <c r="B13" s="188" t="s">
-        <v>429</v>
-      </c>
-      <c r="C13" s="51">
-        <v>705.59</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="180" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="181">
+        <v>647.20000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="180" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" s="181">
-        <v>647.20000000000005</v>
+        <v>455</v>
+      </c>
+      <c r="C14" s="51">
+        <v>806.89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="170">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="180" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C15" s="51">
-        <v>806.89</v>
+        <v>333.94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="170">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="180" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C16" s="51">
-        <v>333.94</v>
+        <v>721.62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="170">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="180" t="s">
-        <v>433</v>
-      </c>
-      <c r="C17" s="51">
-        <v>721.62</v>
+        <v>414</v>
+      </c>
+      <c r="C17" s="179">
+        <v>1451.95</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="170">
-        <v>17</v>
-      </c>
-      <c r="B18" s="180" t="s">
-        <v>414</v>
-      </c>
-      <c r="C18" s="179">
-        <v>1451.95</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="188" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="51">
+        <v>711.02</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="170">
-        <v>18</v>
-      </c>
-      <c r="B19" s="188" t="s">
-        <v>510</v>
-      </c>
-      <c r="C19" s="51">
-        <v>711.02</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="180" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="179">
+        <v>331.35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="170">
-        <v>19</v>
-      </c>
-      <c r="B20" s="180" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="179">
-        <v>331.35</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="188" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="51">
+        <v>501.12</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="170">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="188" t="s">
-        <v>393</v>
+        <v>525</v>
       </c>
       <c r="C21" s="51">
-        <v>501.12</v>
+        <v>268.24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="170">
-        <v>21</v>
-      </c>
-      <c r="B22" s="188" t="s">
-        <v>525</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="180" t="s">
+        <v>407</v>
       </c>
       <c r="C22" s="51">
-        <v>268.24</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="170">
-        <v>22</v>
-      </c>
-      <c r="B23" s="180" t="s">
-        <v>407</v>
-      </c>
-      <c r="C23" s="51">
-        <v>281.05</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="188" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="182">
+        <v>720.33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="170">
-        <v>23</v>
-      </c>
-      <c r="B24" s="188" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="182">
-        <v>720.33</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="180" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="179">
+        <v>890.42</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C25" s="179">
-        <v>890.42</v>
+        <v>380</v>
+      </c>
+      <c r="C25" s="51">
+        <v>749.37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="170">
-        <v>25</v>
-      </c>
-      <c r="B26" s="180" t="s">
-        <v>380</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="188" t="s">
+        <v>373</v>
       </c>
       <c r="C26" s="51">
-        <v>749.37</v>
+        <v>501.12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="170">
-        <v>26</v>
-      </c>
-      <c r="B27" s="188" t="s">
-        <v>373</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="180" t="s">
+        <v>538</v>
       </c>
       <c r="C27" s="51">
-        <v>501.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="170">
-        <v>27</v>
-      </c>
-      <c r="B28" s="180" t="s">
-        <v>539</v>
+        <v>39</v>
+      </c>
+      <c r="B28" s="170" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="51">
-        <v>0</v>
+        <v>817.97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="170">
-        <v>28</v>
-      </c>
-      <c r="B29" s="188" t="s">
-        <v>540</v>
-      </c>
-      <c r="C29" s="170">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="51">
+        <v>475.85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="170">
-        <v>29</v>
-      </c>
-      <c r="B30" s="188" t="s">
-        <v>541</v>
-      </c>
-      <c r="C30" s="170">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="51">
+        <v>712.73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="170">
-        <v>30</v>
-      </c>
-      <c r="B31" s="188" t="s">
-        <v>542</v>
-      </c>
-      <c r="C31" s="170">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="51">
+        <v>844.17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="170">
-        <v>31</v>
-      </c>
-      <c r="B32" s="188" t="s">
-        <v>543</v>
-      </c>
-      <c r="C32" s="170">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="51">
+        <v>635.34</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="170">
-        <v>32</v>
-      </c>
-      <c r="B33" s="188" t="s">
-        <v>544</v>
-      </c>
-      <c r="C33" s="170">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="51">
+        <v>375.82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="170">
-        <v>33</v>
-      </c>
-      <c r="B34" s="188" t="s">
-        <v>545</v>
-      </c>
-      <c r="C34" s="170">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="170" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="51">
+        <v>567.71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="170">
-        <v>34</v>
-      </c>
-      <c r="B35" s="188" t="s">
-        <v>546</v>
-      </c>
-      <c r="C35" s="170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>565</v>
+      </c>
+      <c r="C35" s="51">
+        <v>134.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="71" customFormat="1">
       <c r="A36" s="170">
-        <v>35</v>
-      </c>
-      <c r="B36" s="188" t="s">
-        <v>547</v>
-      </c>
-      <c r="C36" s="170">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="51">
+        <v>913.55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="170">
-        <v>36</v>
-      </c>
-      <c r="B37" s="188" t="s">
-        <v>548</v>
-      </c>
-      <c r="C37" s="170">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="51">
+        <v>926.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="170">
-        <v>37</v>
-      </c>
-      <c r="B38" s="188" t="s">
-        <v>549</v>
-      </c>
-      <c r="C38" s="170">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C38" s="51">
+        <v>511.73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="170">
-        <v>38</v>
-      </c>
-      <c r="B39" s="188" t="s">
-        <v>550</v>
-      </c>
-      <c r="C39" s="170">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="51">
+        <v>1521.41</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="170">
-        <v>39</v>
-      </c>
-      <c r="B40" s="170" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>311</v>
       </c>
       <c r="C40" s="51">
-        <v>817.97</v>
+        <v>1061.82</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="170">
-        <v>40</v>
-      </c>
-      <c r="B41" s="170" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>308</v>
       </c>
       <c r="C41" s="51">
-        <v>475.85</v>
+        <v>1268.067</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="170">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B42" s="170" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="C42" s="51">
-        <v>712.73</v>
+        <v>938.27</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="170">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B43" s="170" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="C43" s="51">
-        <v>844.17</v>
+        <v>1079.52</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="170">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B44" s="170" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C44" s="51">
-        <v>635.34</v>
+        <v>655.94</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="170">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B45" s="170" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C45" s="51">
-        <v>375.82</v>
+        <v>307.8</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="170">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B46" s="170" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C46" s="51">
-        <v>567.71</v>
+        <v>1094.31</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="170">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B47" s="170" t="s">
-        <v>577</v>
+        <v>174</v>
       </c>
       <c r="C47" s="51">
-        <v>134.16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="71" customFormat="1">
-      <c r="A48" s="170">
-        <v>47</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="C48" s="51">
-        <v>913.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="170">
-        <v>48</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>317</v>
-      </c>
-      <c r="C49" s="51">
-        <v>926.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="170">
-        <v>49</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="C50" s="51">
-        <v>511.73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="170">
-        <v>50</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="C51" s="51">
-        <v>1521.41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="170">
-        <v>51</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C52" s="51">
-        <v>1061.82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="170">
-        <v>52</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="C53" s="51">
-        <v>1268.067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="170">
-        <v>53</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>589</v>
-      </c>
-      <c r="C54" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="170">
-        <v>54</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="19">
-        <v>938.27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="170">
-        <v>55</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="19">
-        <v>1079.52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="170">
-        <v>57</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="19">
-        <v>655.94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="170">
-        <v>58</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="19">
-        <v>307.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="170">
-        <v>59</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="19">
-        <v>1094.31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="170">
-        <v>60</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="19">
         <v>667.67</v>
       </c>
     </row>
@@ -14182,19 +13758,19 @@
       <selection activeCell="C19" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>225</v>
@@ -14203,10 +13779,10 @@
         <v>226</v>
       </c>
       <c r="D1" s="170" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E1" s="183" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
@@ -14226,7 +13802,7 @@
         <v>291.81</v>
       </c>
       <c r="E2" s="170" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="184"/>
@@ -14246,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="170" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="184"/>
@@ -14266,7 +13842,7 @@
         <v>6503.97</v>
       </c>
       <c r="E4" s="170" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H4" s="93"/>
       <c r="I4" s="184"/>
@@ -14286,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="170" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H5" s="93"/>
       <c r="I5" s="184"/>
@@ -14306,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="170" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H6" s="93"/>
       <c r="I6" s="184"/>
@@ -14326,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="170" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H7" s="93"/>
       <c r="I7" s="184"/>
@@ -14346,7 +13922,7 @@
         <v>2546.54</v>
       </c>
       <c r="E8" s="170" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H8" s="93"/>
       <c r="I8" s="184"/>
@@ -14366,7 +13942,7 @@
         <v>51.09</v>
       </c>
       <c r="E9" s="170" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="184"/>
@@ -14384,7 +13960,7 @@
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="170" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="184"/>
@@ -14402,7 +13978,7 @@
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="170" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="184"/>
@@ -14422,7 +13998,7 @@
         <v>5833.04</v>
       </c>
       <c r="E12" s="170" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="184"/>
@@ -14440,7 +14016,7 @@
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="170" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="93"/>
@@ -14458,7 +14034,7 @@
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="170" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="93"/>
@@ -14476,7 +14052,7 @@
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="170" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14491,7 +14067,7 @@
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="170" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -14508,20 +14084,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -14564,7 +14140,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.65" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.7" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>120</v>
       </c>
@@ -14780,7 +14356,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>131</v>
       </c>
@@ -16273,27 +15849,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O289"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A286" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H148" sqref="H148"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A284" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A289" sqref="A289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -16585,7 +16161,7 @@
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>505</v>
       </c>
@@ -17363,7 +16939,7 @@
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
     </row>
-    <row r="28" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="28" spans="1:15" s="163" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>487</v>
       </c>
@@ -17402,7 +16978,7 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
+    <row r="29" spans="1:15" s="163" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>487</v>
       </c>
@@ -17987,7 +17563,7 @@
       <c r="N43" s="47"/>
       <c r="O43" s="47"/>
     </row>
-    <row r="44" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="44" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>469</v>
       </c>
@@ -18291,7 +17867,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1">
+    <row r="52" spans="1:13" ht="61.2" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>441</v>
       </c>
@@ -18328,7 +17904,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1">
+    <row r="53" spans="1:13" ht="58.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
@@ -18363,7 +17939,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>440</v>
       </c>
@@ -19138,7 +18714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.65" customHeight="1">
+    <row r="75" spans="1:13" ht="62.7" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>413</v>
       </c>
@@ -19249,7 +18825,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.15" customHeight="1">
+    <row r="78" spans="1:13" ht="49.2" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
@@ -19286,7 +18862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18.75">
+    <row r="79" spans="1:13" ht="18">
       <c r="A79" s="8" t="s">
         <v>413</v>
       </c>
@@ -19360,7 +18936,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18.75">
+    <row r="81" spans="1:13" ht="18">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
@@ -19393,7 +18969,7 @@
       </c>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="1:13" ht="41.65" customHeight="1">
+    <row r="82" spans="1:13" ht="41.7" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>413</v>
       </c>
@@ -19465,7 +19041,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="36">
       <c r="A84" s="8" t="s">
         <v>508</v>
       </c>
@@ -19500,7 +19076,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.15" customHeight="1">
+    <row r="85" spans="1:13" ht="43.2" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>508</v>
       </c>
@@ -19535,7 +19111,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1">
+    <row r="86" spans="1:13" ht="43.2" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>508</v>
       </c>
@@ -19570,7 +19146,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1">
+    <row r="87" spans="1:13" ht="43.2" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>508</v>
       </c>
@@ -19601,7 +19177,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>508</v>
       </c>
@@ -19636,7 +19212,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>508</v>
       </c>
@@ -19671,7 +19247,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>508</v>
       </c>
@@ -19706,7 +19282,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>508</v>
       </c>
@@ -19776,7 +19352,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.65" customHeight="1">
+    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>419</v>
       </c>
@@ -19813,7 +19389,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.65" customHeight="1">
+    <row r="94" spans="1:13" ht="59.7" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>419</v>
       </c>
@@ -19850,7 +19426,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1">
+    <row r="95" spans="1:13" ht="59.7" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>384</v>
       </c>
@@ -19887,7 +19463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1">
+    <row r="96" spans="1:13" ht="59.7" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>384</v>
       </c>
@@ -19924,7 +19500,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>384</v>
       </c>
@@ -19961,7 +19537,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>384</v>
       </c>
@@ -19998,7 +19574,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>384</v>
       </c>
@@ -20035,7 +19611,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>384</v>
       </c>
@@ -20072,7 +19648,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="37.5">
+    <row r="101" spans="1:13" ht="36">
       <c r="A101" s="8" t="s">
         <v>384</v>
       </c>
@@ -20109,7 +19685,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5">
+    <row r="102" spans="1:13" ht="36">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
@@ -20146,7 +19722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5">
+    <row r="103" spans="1:13" ht="36">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
@@ -20183,7 +19759,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>524</v>
       </c>
@@ -20222,7 +19798,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>524</v>
       </c>
@@ -20261,7 +19837,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="56.25">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>524</v>
       </c>
@@ -20300,7 +19876,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>524</v>
       </c>
@@ -20376,7 +19952,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="37.5">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>408</v>
       </c>
@@ -20413,7 +19989,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18.75">
+    <row r="110" spans="1:13" ht="18">
       <c r="A110" s="8" t="s">
         <v>408</v>
       </c>
@@ -20450,7 +20026,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18.75">
+    <row r="111" spans="1:13" ht="18">
       <c r="A111" s="8" t="s">
         <v>408</v>
       </c>
@@ -20487,7 +20063,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18.75">
+    <row r="112" spans="1:13" ht="18">
       <c r="A112" s="8" t="s">
         <v>408</v>
       </c>
@@ -20524,7 +20100,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18.75">
+    <row r="113" spans="1:13" ht="18">
       <c r="A113" s="8" t="s">
         <v>408</v>
       </c>
@@ -20561,7 +20137,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18.75">
+    <row r="114" spans="1:13" ht="18">
       <c r="A114" s="8" t="s">
         <v>408</v>
       </c>
@@ -20598,7 +20174,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="18.75">
+    <row r="115" spans="1:13" ht="18">
       <c r="A115" s="8" t="s">
         <v>408</v>
       </c>
@@ -20672,7 +20248,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18.75">
+    <row r="117" spans="1:13" ht="18">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
@@ -20709,7 +20285,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="18">
       <c r="A118" s="8" t="s">
         <v>408</v>
       </c>
@@ -20746,7 +20322,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="18.75">
+    <row r="119" spans="1:13" ht="18">
       <c r="A119" s="8" t="s">
         <v>408</v>
       </c>
@@ -20783,7 +20359,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="18.75">
+    <row r="120" spans="1:13" ht="18">
       <c r="A120" s="8" t="s">
         <v>408</v>
       </c>
@@ -20857,7 +20433,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>355</v>
       </c>
@@ -20896,7 +20472,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="18">
       <c r="A123" s="8" t="s">
         <v>355</v>
       </c>
@@ -20935,7 +20511,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5">
+    <row r="124" spans="1:13" ht="36">
       <c r="A124" s="8" t="s">
         <v>355</v>
       </c>
@@ -20974,7 +20550,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>355</v>
       </c>
@@ -21013,7 +20589,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>355</v>
       </c>
@@ -21052,7 +20628,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
@@ -21091,7 +20667,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18.75">
+    <row r="128" spans="1:13" ht="18">
       <c r="A128" s="8" t="s">
         <v>355</v>
       </c>
@@ -21130,7 +20706,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5">
+    <row r="129" spans="1:14" ht="36">
       <c r="A129" s="8" t="s">
         <v>366</v>
       </c>
@@ -21169,7 +20745,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5">
+    <row r="130" spans="1:14" ht="18">
       <c r="A130" s="8" t="s">
         <v>379</v>
       </c>
@@ -21208,7 +20784,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5">
+    <row r="131" spans="1:14" ht="36">
       <c r="A131" s="8" t="s">
         <v>379</v>
       </c>
@@ -21247,7 +20823,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5">
+    <row r="132" spans="1:14" ht="36">
       <c r="A132" s="8" t="s">
         <v>379</v>
       </c>
@@ -21286,7 +20862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5">
+    <row r="133" spans="1:14" ht="18">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
@@ -21325,7 +20901,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5">
+    <row r="134" spans="1:14" ht="18">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
@@ -21364,7 +20940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5">
+    <row r="135" spans="1:14" ht="18">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
@@ -21403,7 +20979,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5">
+    <row r="136" spans="1:14" ht="18">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
@@ -21442,7 +21018,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5">
+    <row r="137" spans="1:14" ht="18">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
@@ -21481,7 +21057,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5">
+    <row r="138" spans="1:14" ht="36">
       <c r="A138" s="8" t="s">
         <v>374</v>
       </c>
@@ -21520,7 +21096,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5">
+    <row r="139" spans="1:14" ht="36">
       <c r="A139" s="8" t="s">
         <v>374</v>
       </c>
@@ -21559,7 +21135,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5">
+    <row r="140" spans="1:14" ht="36">
       <c r="A140" s="8" t="s">
         <v>374</v>
       </c>
@@ -21598,7 +21174,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5">
+    <row r="141" spans="1:14" ht="36">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
@@ -21637,7 +21213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5">
+    <row r="142" spans="1:14" ht="36">
       <c r="A142" s="75" t="s">
         <v>374</v>
       </c>
@@ -21678,10 +21254,10 @@
     </row>
     <row r="143" spans="1:14" ht="39.6" customHeight="1">
       <c r="A143" s="75" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B143" s="75" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>57</v>
@@ -21699,7 +21275,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I143" s="75" t="s">
         <v>54</v>
@@ -21716,12 +21292,12 @@
       </c>
       <c r="N143" s="19"/>
     </row>
-    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="144" spans="1:14" ht="35.4" customHeight="1">
       <c r="A144" s="75" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B144" s="75" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>57</v>
@@ -21739,7 +21315,7 @@
         <v>1</v>
       </c>
       <c r="H144" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I144" s="75" t="s">
         <v>54</v>
@@ -21756,12 +21332,12 @@
       </c>
       <c r="N144" s="19"/>
     </row>
-    <row r="145" spans="1:14" ht="22.9" customHeight="1">
+    <row r="145" spans="1:14" ht="22.95" customHeight="1">
       <c r="A145" s="75" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>57</v>
@@ -21779,7 +21355,7 @@
         <v>1</v>
       </c>
       <c r="H145" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I145" s="75" t="s">
         <v>54</v>
@@ -21796,12 +21372,12 @@
       </c>
       <c r="N145" s="19"/>
     </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1">
+    <row r="146" spans="1:14" ht="22.95" customHeight="1">
       <c r="A146" s="75" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C146" s="8" t="s">
         <v>57</v>
@@ -21819,7 +21395,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I146" s="75" t="s">
         <v>54</v>
@@ -21836,12 +21412,12 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1">
+    <row r="147" spans="1:14" ht="22.95" customHeight="1">
       <c r="A147" s="8" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>57</v>
@@ -21859,7 +21435,7 @@
         <v>1</v>
       </c>
       <c r="H147" s="49" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>54</v>
@@ -23321,10 +22897,10 @@
     </row>
     <row r="185" spans="1:13" ht="70.5" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>37</v>
@@ -23342,7 +22918,7 @@
         <v>1</v>
       </c>
       <c r="H185" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I185" s="8" t="s">
         <v>54</v>
@@ -23360,10 +22936,10 @@
     </row>
     <row r="186" spans="1:13" ht="70.5" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>37</v>
@@ -23381,7 +22957,7 @@
         <v>1</v>
       </c>
       <c r="H186" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I186" s="8" t="s">
         <v>54</v>
@@ -23399,10 +22975,10 @@
     </row>
     <row r="187" spans="1:13" ht="70.5" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>37</v>
@@ -23420,7 +22996,7 @@
         <v>1</v>
       </c>
       <c r="H187" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>54</v>
@@ -23438,10 +23014,10 @@
     </row>
     <row r="188" spans="1:13" ht="70.5" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>37</v>
@@ -23459,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="H188" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>54</v>
@@ -23477,10 +23053,10 @@
     </row>
     <row r="189" spans="1:13" ht="70.5" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>37</v>
@@ -23498,7 +23074,7 @@
         <v>1</v>
       </c>
       <c r="H189" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>54</v>
@@ -23516,10 +23092,10 @@
     </row>
     <row r="190" spans="1:13" ht="70.5" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>37</v>
@@ -23537,7 +23113,7 @@
         <v>1</v>
       </c>
       <c r="H190" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I190" s="8" t="s">
         <v>54</v>
@@ -23555,10 +23131,10 @@
     </row>
     <row r="191" spans="1:13" ht="70.5" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>37</v>
@@ -23576,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="H191" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I191" s="8" t="s">
         <v>54</v>
@@ -23594,10 +23170,10 @@
     </row>
     <row r="192" spans="1:13" ht="70.5" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>37</v>
@@ -23615,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="H192" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>54</v>
@@ -23633,10 +23209,10 @@
     </row>
     <row r="193" spans="1:13" ht="70.5" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>37</v>
@@ -23654,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="H193" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I193" s="8" t="s">
         <v>54</v>
@@ -23672,10 +23248,10 @@
     </row>
     <row r="194" spans="1:13" ht="70.5" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>37</v>
@@ -23693,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="H194" s="49" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I194" s="8" t="s">
         <v>54</v>
@@ -23731,7 +23307,7 @@
       <c r="G195" s="8">
         <v>1</v>
       </c>
-      <c r="H195" s="8" t="s">
+      <c r="H195" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I195" s="8" t="s">
@@ -23770,7 +23346,7 @@
       <c r="G196" s="8">
         <v>1</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="H196" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I196" s="8" t="s">
@@ -23809,7 +23385,7 @@
       <c r="G197" s="8">
         <v>1</v>
       </c>
-      <c r="H197" s="8" t="s">
+      <c r="H197" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I197" s="8" t="s">
@@ -23848,7 +23424,7 @@
       <c r="G198" s="8">
         <v>1</v>
       </c>
-      <c r="H198" s="8" t="s">
+      <c r="H198" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I198" s="8" t="s">
@@ -23887,7 +23463,7 @@
       <c r="G199" s="8">
         <v>1</v>
       </c>
-      <c r="H199" s="8" t="s">
+      <c r="H199" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I199" s="8" t="s">
@@ -23926,7 +23502,7 @@
       <c r="G200" s="8">
         <v>1</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="H200" s="49" t="s">
         <v>122</v>
       </c>
       <c r="I200" s="8" t="s">
@@ -23965,7 +23541,7 @@
       <c r="G201" s="8">
         <v>1</v>
       </c>
-      <c r="H201" s="8" t="s">
+      <c r="H201" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I201" s="8" t="s">
@@ -24004,7 +23580,7 @@
       <c r="G202" s="8">
         <v>1</v>
       </c>
-      <c r="H202" s="8" t="s">
+      <c r="H202" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I202" s="8" t="s">
@@ -24043,7 +23619,7 @@
       <c r="G203" s="8">
         <v>1</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="H203" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I203" s="8" t="s">
@@ -24082,7 +23658,7 @@
       <c r="G204" s="8">
         <v>1</v>
       </c>
-      <c r="H204" s="8" t="s">
+      <c r="H204" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I204" s="8" t="s">
@@ -24121,7 +23697,7 @@
       <c r="G205" s="8">
         <v>0</v>
       </c>
-      <c r="H205" s="8" t="s">
+      <c r="H205" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I205" s="8" t="s">
@@ -24160,7 +23736,7 @@
       <c r="G206" s="8">
         <v>1</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="H206" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I206" s="8" t="s">
@@ -24199,7 +23775,7 @@
       <c r="G207" s="8">
         <v>1</v>
       </c>
-      <c r="H207" s="8" t="s">
+      <c r="H207" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I207" s="8" t="s">
@@ -24221,7 +23797,7 @@
         <v>131</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>129</v>
@@ -24238,7 +23814,7 @@
       <c r="G208" s="8">
         <v>1</v>
       </c>
-      <c r="H208" s="8" t="s">
+      <c r="H208" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I208" s="8" t="s">
@@ -24260,7 +23836,7 @@
         <v>131</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>129</v>
@@ -24277,7 +23853,7 @@
       <c r="G209" s="8">
         <v>1</v>
       </c>
-      <c r="H209" s="8" t="s">
+      <c r="H209" s="49" t="s">
         <v>133</v>
       </c>
       <c r="I209" s="8"/>
@@ -24314,7 +23890,7 @@
       <c r="G210" s="8">
         <v>1</v>
       </c>
-      <c r="H210" s="8" t="s">
+      <c r="H210" s="49" t="s">
         <v>184</v>
       </c>
       <c r="I210" s="8" t="s">
@@ -24353,7 +23929,7 @@
       <c r="G211" s="8">
         <v>1</v>
       </c>
-      <c r="H211" s="8" t="s">
+      <c r="H211" s="49" t="s">
         <v>184</v>
       </c>
       <c r="I211" s="8" t="s">
@@ -24392,7 +23968,7 @@
       <c r="G212" s="8">
         <v>0.75</v>
       </c>
-      <c r="H212" s="8" t="s">
+      <c r="H212" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I212" s="8" t="s">
@@ -24431,7 +24007,7 @@
       <c r="G213" s="8">
         <v>0.75</v>
       </c>
-      <c r="H213" s="8" t="s">
+      <c r="H213" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I213" s="8" t="s">
@@ -24470,7 +24046,7 @@
       <c r="G214" s="8">
         <v>1</v>
       </c>
-      <c r="H214" s="8" t="s">
+      <c r="H214" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I214" s="8" t="s">
@@ -24509,7 +24085,7 @@
       <c r="G215" s="8">
         <v>0.7</v>
       </c>
-      <c r="H215" s="8" t="s">
+      <c r="H215" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I215" s="8" t="s">
@@ -24548,7 +24124,7 @@
       <c r="G216" s="8">
         <v>1</v>
       </c>
-      <c r="H216" s="8" t="s">
+      <c r="H216" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I216" s="8" t="s">
@@ -24587,7 +24163,7 @@
       <c r="G217" s="8">
         <v>0.7</v>
       </c>
-      <c r="H217" s="8" t="s">
+      <c r="H217" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I217" s="8" t="s">
@@ -24626,7 +24202,7 @@
       <c r="G218" s="8">
         <v>1</v>
       </c>
-      <c r="H218" s="8" t="s">
+      <c r="H218" s="49" t="s">
         <v>144</v>
       </c>
       <c r="I218" s="8" t="s">
@@ -24665,7 +24241,7 @@
       <c r="G219" s="8">
         <v>1</v>
       </c>
-      <c r="H219" s="8" t="s">
+      <c r="H219" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I219" s="8" t="s">
@@ -24704,7 +24280,7 @@
       <c r="G220" s="8">
         <v>1</v>
       </c>
-      <c r="H220" s="8" t="s">
+      <c r="H220" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I220" s="8" t="s">
@@ -24743,7 +24319,7 @@
       <c r="G221" s="8">
         <v>1</v>
       </c>
-      <c r="H221" s="8" t="s">
+      <c r="H221" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I221" s="8" t="s">
@@ -24782,7 +24358,7 @@
       <c r="G222" s="8">
         <v>1</v>
       </c>
-      <c r="H222" s="8" t="s">
+      <c r="H222" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I222" s="8" t="s">
@@ -24821,7 +24397,7 @@
       <c r="G223" s="8">
         <v>1</v>
       </c>
-      <c r="H223" s="8" t="s">
+      <c r="H223" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I223" s="8" t="s">
@@ -24860,7 +24436,7 @@
       <c r="G224" s="8">
         <v>1</v>
       </c>
-      <c r="H224" s="8" t="s">
+      <c r="H224" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I224" s="8" t="s">
@@ -24899,7 +24475,7 @@
       <c r="G225" s="8">
         <v>1</v>
       </c>
-      <c r="H225" s="8" t="s">
+      <c r="H225" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I225" s="8" t="s">
@@ -24938,7 +24514,7 @@
       <c r="G226" s="8">
         <v>1</v>
       </c>
-      <c r="H226" s="8" t="s">
+      <c r="H226" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I226" s="8" t="s">
@@ -24977,7 +24553,7 @@
       <c r="G227" s="8">
         <v>1</v>
       </c>
-      <c r="H227" s="8" t="s">
+      <c r="H227" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I227" s="8" t="s">
@@ -25016,7 +24592,7 @@
       <c r="G228" s="8">
         <v>1</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="H228" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I228" s="8" t="s">
@@ -25055,7 +24631,7 @@
       <c r="G229" s="8">
         <v>1</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="H229" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I229" s="8" t="s">
@@ -25094,7 +24670,7 @@
       <c r="G230" s="8">
         <v>1</v>
       </c>
-      <c r="H230" s="8" t="s">
+      <c r="H230" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I230" s="8" t="s">
@@ -25133,7 +24709,7 @@
       <c r="G231" s="8">
         <v>0.4</v>
       </c>
-      <c r="H231" s="8" t="s">
+      <c r="H231" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I231" s="8" t="s">
@@ -25172,7 +24748,7 @@
       <c r="G232" s="8">
         <v>1</v>
       </c>
-      <c r="H232" s="8" t="s">
+      <c r="H232" s="49" t="s">
         <v>155</v>
       </c>
       <c r="I232" s="8" t="s">
@@ -25211,7 +24787,7 @@
       <c r="G233" s="8">
         <v>1</v>
       </c>
-      <c r="H233" s="8" t="s">
+      <c r="H233" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I233" s="8" t="s">
@@ -25250,7 +24826,7 @@
       <c r="G234" s="8">
         <v>1</v>
       </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I234" s="8" t="s">
@@ -25289,7 +24865,7 @@
       <c r="G235" s="8">
         <v>1</v>
       </c>
-      <c r="H235" s="8" t="s">
+      <c r="H235" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I235" s="8" t="s">
@@ -25328,7 +24904,7 @@
       <c r="G236" s="8">
         <v>0</v>
       </c>
-      <c r="H236" s="8" t="s">
+      <c r="H236" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I236" s="8" t="s">
@@ -25367,7 +24943,7 @@
       <c r="G237" s="8">
         <v>1</v>
       </c>
-      <c r="H237" s="8" t="s">
+      <c r="H237" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I237" s="8" t="s">
@@ -25406,7 +24982,7 @@
       <c r="G238" s="8">
         <v>0</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I238" s="8" t="s">
@@ -25445,7 +25021,7 @@
       <c r="G239" s="8">
         <v>1</v>
       </c>
-      <c r="H239" s="8" t="s">
+      <c r="H239" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I239" s="8" t="s">
@@ -25484,7 +25060,7 @@
       <c r="G240" s="8">
         <v>1</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I240" s="8" t="s">
@@ -25523,7 +25099,7 @@
       <c r="G241" s="8">
         <v>1</v>
       </c>
-      <c r="H241" s="8" t="s">
+      <c r="H241" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I241" s="8" t="s">
@@ -25562,7 +25138,7 @@
       <c r="G242" s="8">
         <v>1</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" s="49" t="s">
         <v>174</v>
       </c>
       <c r="I242" s="8" t="s">
@@ -25601,7 +25177,7 @@
       <c r="G243" s="8">
         <v>1</v>
       </c>
-      <c r="H243" s="8" t="s">
+      <c r="H243" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I243" s="8" t="s">
@@ -25640,7 +25216,7 @@
       <c r="G244" s="8">
         <v>1</v>
       </c>
-      <c r="H244" s="8" t="s">
+      <c r="H244" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I244" s="8" t="s">
@@ -25679,7 +25255,7 @@
       <c r="G245" s="8">
         <v>1</v>
       </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I245" s="8" t="s">
@@ -25718,7 +25294,7 @@
       <c r="G246" s="8">
         <v>1</v>
       </c>
-      <c r="H246" s="8" t="s">
+      <c r="H246" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I246" s="8" t="s">
@@ -25757,7 +25333,7 @@
       <c r="G247" s="8">
         <v>1</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I247" s="8" t="s">
@@ -25796,7 +25372,7 @@
       <c r="G248" s="8">
         <v>1</v>
       </c>
-      <c r="H248" s="8" t="s">
+      <c r="H248" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I248" s="8" t="s">
@@ -25835,7 +25411,7 @@
       <c r="G249" s="8">
         <v>1</v>
       </c>
-      <c r="H249" s="8" t="s">
+      <c r="H249" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I249" s="8" t="s">
@@ -25874,7 +25450,7 @@
       <c r="G250" s="8">
         <v>1</v>
       </c>
-      <c r="H250" s="8" t="s">
+      <c r="H250" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I250" s="8" t="s">
@@ -25913,7 +25489,7 @@
       <c r="G251" s="8">
         <v>1</v>
       </c>
-      <c r="H251" s="8" t="s">
+      <c r="H251" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I251" s="8" t="s">
@@ -25952,7 +25528,7 @@
       <c r="G252" s="8">
         <v>1</v>
       </c>
-      <c r="H252" s="8" t="s">
+      <c r="H252" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I252" s="8" t="s">
@@ -25991,7 +25567,7 @@
       <c r="G253" s="8">
         <v>1</v>
       </c>
-      <c r="H253" s="8" t="s">
+      <c r="H253" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I253" s="8" t="s">
@@ -26030,7 +25606,7 @@
       <c r="G254" s="8">
         <v>1</v>
       </c>
-      <c r="H254" s="8" t="s">
+      <c r="H254" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I254" s="8" t="s">
@@ -26069,7 +25645,7 @@
       <c r="G255" s="8">
         <v>1</v>
       </c>
-      <c r="H255" s="8" t="s">
+      <c r="H255" s="49" t="s">
         <v>319</v>
       </c>
       <c r="I255" s="8" t="s">
@@ -26106,7 +25682,7 @@
       <c r="G256" s="8">
         <v>1</v>
       </c>
-      <c r="H256" s="8" t="s">
+      <c r="H256" s="49" t="s">
         <v>317</v>
       </c>
       <c r="I256" s="8" t="s">
@@ -26145,7 +25721,7 @@
       <c r="G257" s="8">
         <v>1</v>
       </c>
-      <c r="H257" s="8" t="s">
+      <c r="H257" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I257" s="8" t="s">
@@ -26184,7 +25760,7 @@
       <c r="G258" s="8">
         <v>1</v>
       </c>
-      <c r="H258" s="8" t="s">
+      <c r="H258" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I258" s="8" t="s">
@@ -26223,7 +25799,7 @@
       <c r="G259" s="8">
         <v>0.67</v>
       </c>
-      <c r="H259" s="8" t="s">
+      <c r="H259" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I259" s="8" t="s">
@@ -26262,7 +25838,7 @@
       <c r="G260" s="8">
         <v>0.67</v>
       </c>
-      <c r="H260" s="8" t="s">
+      <c r="H260" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I260" s="8" t="s">
@@ -26301,7 +25877,7 @@
       <c r="G261" s="8">
         <v>0.67</v>
       </c>
-      <c r="H261" s="8" t="s">
+      <c r="H261" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I261" s="8" t="s">
@@ -26340,7 +25916,7 @@
       <c r="G262" s="8">
         <v>0.67</v>
       </c>
-      <c r="H262" s="8" t="s">
+      <c r="H262" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I262" s="8" t="s">
@@ -26379,7 +25955,7 @@
       <c r="G263" s="8">
         <v>0.67</v>
       </c>
-      <c r="H263" s="8" t="s">
+      <c r="H263" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I263" s="8" t="s">
@@ -26418,7 +25994,7 @@
       <c r="G264" s="8">
         <v>0.67</v>
       </c>
-      <c r="H264" s="8" t="s">
+      <c r="H264" s="49" t="s">
         <v>315</v>
       </c>
       <c r="I264" s="8" t="s">
@@ -26457,7 +26033,7 @@
       <c r="G265" s="8">
         <v>1</v>
       </c>
-      <c r="H265" s="8" t="s">
+      <c r="H265" s="49" t="s">
         <v>313</v>
       </c>
       <c r="I265" s="8" t="s">
@@ -26496,7 +26072,7 @@
       <c r="G266" s="8">
         <v>1</v>
       </c>
-      <c r="H266" s="8" t="s">
+      <c r="H266" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I266" s="8" t="s">
@@ -26535,7 +26111,7 @@
       <c r="G267" s="8">
         <v>1</v>
       </c>
-      <c r="H267" s="8" t="s">
+      <c r="H267" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I267" s="8" t="s">
@@ -26574,7 +26150,7 @@
       <c r="G268" s="8">
         <v>1</v>
       </c>
-      <c r="H268" s="8" t="s">
+      <c r="H268" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I268" s="8" t="s">
@@ -26613,7 +26189,7 @@
       <c r="G269" s="8">
         <v>1</v>
       </c>
-      <c r="H269" s="8" t="s">
+      <c r="H269" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I269" s="8" t="s">
@@ -26652,7 +26228,7 @@
       <c r="G270" s="8">
         <v>1</v>
       </c>
-      <c r="H270" s="8" t="s">
+      <c r="H270" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I270" s="8" t="s">
@@ -26691,7 +26267,7 @@
       <c r="G271" s="8">
         <v>1</v>
       </c>
-      <c r="H271" s="8" t="s">
+      <c r="H271" s="49" t="s">
         <v>311</v>
       </c>
       <c r="I271" s="8" t="s">
@@ -26730,7 +26306,7 @@
       <c r="G272" s="8">
         <v>1</v>
       </c>
-      <c r="H272" s="8" t="s">
+      <c r="H272" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I272" s="8" t="s">
@@ -26769,7 +26345,7 @@
       <c r="G273" s="8">
         <v>1</v>
       </c>
-      <c r="H273" s="8" t="s">
+      <c r="H273" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I273" s="8" t="s">
@@ -26808,7 +26384,7 @@
       <c r="G274" s="8">
         <v>1</v>
       </c>
-      <c r="H274" s="8" t="s">
+      <c r="H274" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I274" s="8" t="s">
@@ -26847,7 +26423,7 @@
       <c r="G275" s="8">
         <v>1</v>
       </c>
-      <c r="H275" s="8" t="s">
+      <c r="H275" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I275" s="8" t="s">
@@ -26886,7 +26462,7 @@
       <c r="G276" s="8">
         <v>1</v>
       </c>
-      <c r="H276" s="8" t="s">
+      <c r="H276" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I276" s="8" t="s">
@@ -26925,7 +26501,7 @@
       <c r="G277" s="8">
         <v>1</v>
       </c>
-      <c r="H277" s="8" t="s">
+      <c r="H277" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I277" s="8" t="s">
@@ -26964,7 +26540,7 @@
       <c r="G278" s="8">
         <v>1</v>
       </c>
-      <c r="H278" s="8" t="s">
+      <c r="H278" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I278" s="8" t="s">
@@ -27003,7 +26579,7 @@
       <c r="G279" s="8">
         <v>1</v>
       </c>
-      <c r="H279" s="8" t="s">
+      <c r="H279" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I279" s="8" t="s">
@@ -27042,7 +26618,7 @@
       <c r="G280" s="8">
         <v>1</v>
       </c>
-      <c r="H280" s="8" t="s">
+      <c r="H280" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I280" s="8" t="s">
@@ -27081,7 +26657,7 @@
       <c r="G281" s="8">
         <v>1</v>
       </c>
-      <c r="H281" s="8" t="s">
+      <c r="H281" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I281" s="8" t="s">
@@ -27120,7 +26696,7 @@
       <c r="G282" s="8">
         <v>1</v>
       </c>
-      <c r="H282" s="8" t="s">
+      <c r="H282" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I282" s="8" t="s">
@@ -27159,7 +26735,7 @@
       <c r="G283" s="8">
         <v>1</v>
       </c>
-      <c r="H283" s="8" t="s">
+      <c r="H283" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I283" s="8" t="s">
@@ -27198,7 +26774,7 @@
       <c r="G284" s="8">
         <v>1</v>
       </c>
-      <c r="H284" s="8" t="s">
+      <c r="H284" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I284" s="8" t="s">
@@ -27237,7 +26813,7 @@
       <c r="G285" s="8">
         <v>1</v>
       </c>
-      <c r="H285" s="8" t="s">
+      <c r="H285" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I285" s="8" t="s">
@@ -27276,7 +26852,7 @@
       <c r="G286" s="8">
         <v>1</v>
       </c>
-      <c r="H286" s="8" t="s">
+      <c r="H286" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I286" s="8" t="s">
@@ -27315,7 +26891,7 @@
       <c r="G287" s="8">
         <v>1</v>
       </c>
-      <c r="H287" s="8" t="s">
+      <c r="H287" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I287" s="8" t="s">
@@ -27332,7 +26908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="78.75" customHeight="1">
+    <row r="288" spans="1:13" ht="55.2" customHeight="1">
       <c r="A288" s="8" t="s">
         <v>224</v>
       </c>
@@ -27354,7 +26930,7 @@
       <c r="G288" s="8">
         <v>1</v>
       </c>
-      <c r="H288" s="8" t="s">
+      <c r="H288" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I288" s="8" t="s">
@@ -27371,7 +26947,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="78.75" customHeight="1">
+    <row r="289" spans="1:13" ht="48" customHeight="1">
       <c r="A289" s="8" t="s">
         <v>224</v>
       </c>
@@ -27393,7 +26969,7 @@
       <c r="G289" s="8">
         <v>1</v>
       </c>
-      <c r="H289" s="8" t="s">
+      <c r="H289" s="49" t="s">
         <v>308</v>
       </c>
       <c r="I289" s="8" t="s">
@@ -27435,20 +27011,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -29342,21 +28918,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -31033,20 +30609,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -32787,23 +32363,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="145" customWidth="1"/>
     <col min="7" max="7" width="16" style="145" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="148" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="145" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="148" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="145" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="148" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="148" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="145" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -34813,7 +34389,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="150"/>
       <c r="E49" s="134" t="s">
         <v>40</v>
@@ -34915,7 +34491,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="134" t="s">
         <v>74</v>
       </c>
@@ -34948,7 +34524,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="134" t="s">
         <v>97</v>
       </c>
@@ -35005,21 +34581,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -35525,7 +35101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="111">
         <v>11</v>
       </c>
@@ -35662,7 +35238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="111">
         <v>14</v>
       </c>
@@ -36081,7 +35657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="111">
         <v>21</v>
       </c>
@@ -36856,7 +36432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -36948,7 +36524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="111">
         <v>42</v>
       </c>
@@ -36993,7 +36569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="111">
         <v>43</v>
       </c>
@@ -37040,7 +36616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="111">
         <v>44</v>
       </c>
@@ -37085,7 +36661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="111">
         <v>45</v>
       </c>
@@ -37130,7 +36706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="111">
         <v>46</v>
       </c>
@@ -37175,7 +36751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="128">
         <v>47</v>
       </c>
@@ -37220,7 +36796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="48"/>
@@ -37252,7 +36828,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="135"/>
@@ -37269,7 +36845,7 @@
       <c r="N50" s="93"/>
       <c r="O50" s="137"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="135"/>
@@ -37286,7 +36862,7 @@
       <c r="N51" s="93"/>
       <c r="O51" s="137"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="135"/>
@@ -37303,8 +36879,8 @@
       <c r="N52" s="93"/>
       <c r="O52" s="137"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
         <v>336</v>
@@ -37326,7 +36902,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="92" t="s">
         <v>122</v>
       </c>
@@ -37356,7 +36932,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="92" t="s">
         <v>133</v>
       </c>
@@ -37386,7 +36962,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="92" t="s">
         <v>184</v>
       </c>
@@ -37416,7 +36992,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="92" t="s">
         <v>144</v>
       </c>
@@ -37446,7 +37022,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="92" t="s">
         <v>155</v>
       </c>
@@ -37476,7 +37052,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="92" t="s">
         <v>174</v>
       </c>
@@ -37506,7 +37082,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="95">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -37533,7 +37109,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="94"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -37542,8 +37118,8 @@
       <c r="J62" s="93"/>
       <c r="K62" s="93"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>

--- a/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Packages" sheetId="15" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">Netrokona!$A$1:$O$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Structure_Type!$A$1:$C$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Sunamgonj!$A$1:$N$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Sunamgonj!$A$1:$N$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Sunamgonj_Categorical_Projectio!$A$1:$Q$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Habiganj_Categorical_Projection!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">Hobiganj!$1:$1</definedName>
@@ -2757,6 +2757,19 @@
     <xf numFmtId="0" fontId="23" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2769,22 +2782,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2955,6 +2955,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3095,6 +3096,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3235,6 +3237,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3375,6 +3378,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3515,6 +3519,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3655,6 +3660,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8851,15 +8857,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9583,21 +9589,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -10103,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="28" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="104">
         <v>11</v>
       </c>
@@ -10240,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="104">
         <v>14</v>
       </c>
@@ -10659,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="28" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="28" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="104">
         <v>21</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="104">
         <v>40</v>
       </c>
@@ -11526,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="104">
         <v>42</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="104">
         <v>43</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="104">
         <v>44</v>
       </c>
@@ -11663,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="104">
         <v>45</v>
       </c>
@@ -11708,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="104">
         <v>46</v>
       </c>
@@ -11753,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="121">
         <v>47</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="42"/>
@@ -11830,7 +11836,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="58"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="C50" s="128"/>
@@ -11847,7 +11853,7 @@
       <c r="N50" s="86"/>
       <c r="O50" s="130"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="C51" s="128"/>
@@ -11864,7 +11870,7 @@
       <c r="N51" s="86"/>
       <c r="O51" s="130"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="C52" s="128"/>
@@ -11881,8 +11887,8 @@
       <c r="N52" s="86"/>
       <c r="O52" s="130"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="16"/>
       <c r="F54" s="131" t="s">
         <v>331</v>
@@ -11904,7 +11910,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="85" t="s">
         <v>117</v>
       </c>
@@ -11934,7 +11940,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="85" t="s">
         <v>128</v>
       </c>
@@ -11964,7 +11970,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="85" t="s">
         <v>179</v>
       </c>
@@ -11994,7 +12000,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="85" t="s">
         <v>139</v>
       </c>
@@ -12024,7 +12030,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="85" t="s">
         <v>150</v>
       </c>
@@ -12054,7 +12060,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="85" t="s">
         <v>169</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="88">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -12111,7 +12117,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="87"/>
       <c r="F62" s="86"/>
       <c r="G62" s="86"/>
@@ -12120,8 +12126,8 @@
       <c r="J62" s="86"/>
       <c r="K62" s="86"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -12146,22 +12152,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="64" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="64" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13827,7 +13833,7 @@
       <c r="P40" s="78"/>
       <c r="Q40" s="28"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="62">
         <v>45</v>
       </c>
@@ -13869,7 +13875,7 @@
       <c r="P41" s="75"/>
       <c r="Q41" s="25"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="62">
         <v>30</v>
       </c>
@@ -13913,7 +13919,7 @@
       </c>
       <c r="Q42" s="25"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="62">
         <v>33</v>
       </c>
@@ -13957,7 +13963,7 @@
       </c>
       <c r="Q43" s="25"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="62">
         <v>36</v>
       </c>
@@ -14001,7 +14007,7 @@
       </c>
       <c r="Q44" s="25"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="62">
         <v>39</v>
       </c>
@@ -14045,7 +14051,7 @@
       </c>
       <c r="Q45" s="25"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="62">
         <v>43</v>
       </c>
@@ -14089,7 +14095,7 @@
       </c>
       <c r="Q46" s="25"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="62">
         <v>46</v>
       </c>
@@ -14131,7 +14137,7 @@
       <c r="P47" s="77"/>
       <c r="Q47" s="25"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="62">
         <v>47</v>
       </c>
@@ -14173,14 +14179,14 @@
       <c r="P48" s="79"/>
       <c r="Q48" s="25"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="196" t="s">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+      <c r="A49" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="196"/>
-      <c r="C49" s="196"/>
-      <c r="D49" s="196"/>
-      <c r="E49" s="196"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="201"/>
+      <c r="D49" s="201"/>
+      <c r="E49" s="201"/>
       <c r="F49" s="38">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -14208,7 +14214,7 @@
       <c r="O49" s="16"/>
       <c r="P49" s="80"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="85"/>
       <c r="B50" s="85"/>
       <c r="C50" s="85"/>
@@ -14226,7 +14232,7 @@
       <c r="O50" s="16"/>
       <c r="P50" s="80"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="85"/>
       <c r="B51" s="85"/>
       <c r="C51" s="85"/>
@@ -14518,12 +14524,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15100,13 +15106,13 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15302,21 +15308,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="16"/>
       <c r="B1" s="10" t="s">
         <v>314</v>
@@ -15379,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.15" customHeight="1">
+    <row r="4" spans="1:10" ht="13.2" customHeight="1">
       <c r="A4" s="163" t="s">
         <v>549</v>
       </c>
@@ -15595,10 +15601,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15866,14 +15872,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -16192,20 +16198,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -16248,7 +16254,7 @@
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.65" customHeight="1">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="53.7" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
@@ -16464,7 +16470,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
     </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="43" t="s">
         <v>126</v>
       </c>
@@ -17961,23 +17967,23 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
     <col min="2" max="2" width="53" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="26" style="19" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -18269,7 +18275,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>500</v>
       </c>
@@ -19047,7 +19053,7 @@
       <c r="N27" s="41"/>
       <c r="O27" s="41"/>
     </row>
-    <row r="28" spans="1:15" s="156" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="28" spans="1:15" s="156" customFormat="1" ht="32.4" customHeight="1">
       <c r="A28" s="16" t="s">
         <v>482</v>
       </c>
@@ -19086,7 +19092,7 @@
       <c r="N28" s="41"/>
       <c r="O28" s="41"/>
     </row>
-    <row r="29" spans="1:15" s="156" customFormat="1" ht="34.15" customHeight="1">
+    <row r="29" spans="1:15" s="156" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A29" s="16" t="s">
         <v>482</v>
       </c>
@@ -19671,7 +19677,7 @@
       <c r="N43" s="41"/>
       <c r="O43" s="41"/>
     </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.15" customHeight="1">
+    <row r="44" spans="1:15" s="13" customFormat="1" ht="43.2" customHeight="1">
       <c r="A44" s="8" t="s">
         <v>464</v>
       </c>
@@ -19975,7 +19981,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="61.15" customHeight="1">
+    <row r="52" spans="1:13" ht="61.2" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>436</v>
       </c>
@@ -20012,7 +20018,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="58.15" customHeight="1">
+    <row r="53" spans="1:13" ht="58.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>436</v>
       </c>
@@ -20047,7 +20053,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>435</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="62.65" customHeight="1">
+    <row r="75" spans="1:13" ht="62.7" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>408</v>
       </c>
@@ -20933,7 +20939,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="49.15" customHeight="1">
+    <row r="78" spans="1:13" ht="49.2" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>408</v>
       </c>
@@ -20970,7 +20976,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="37.5">
+    <row r="79" spans="1:13" ht="36">
       <c r="A79" s="8" t="s">
         <v>408</v>
       </c>
@@ -21044,7 +21050,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="37.5">
+    <row r="81" spans="1:13" ht="36">
       <c r="A81" s="8" t="s">
         <v>408</v>
       </c>
@@ -21077,7 +21083,7 @@
       </c>
       <c r="M81" s="10"/>
     </row>
-    <row r="82" spans="1:13" ht="41.65" customHeight="1">
+    <row r="82" spans="1:13" ht="41.7" customHeight="1">
       <c r="A82" s="8" t="s">
         <v>408</v>
       </c>
@@ -21149,7 +21155,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="36">
       <c r="A84" s="8" t="s">
         <v>503</v>
       </c>
@@ -21184,7 +21190,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="43.15" customHeight="1">
+    <row r="85" spans="1:13" ht="43.2" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>503</v>
       </c>
@@ -21219,7 +21225,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.15" customHeight="1">
+    <row r="86" spans="1:13" ht="43.2" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>503</v>
       </c>
@@ -21254,7 +21260,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="43.15" customHeight="1">
+    <row r="87" spans="1:13" ht="43.2" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>503</v>
       </c>
@@ -21285,7 +21291,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>503</v>
       </c>
@@ -21320,7 +21326,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>503</v>
       </c>
@@ -21355,7 +21361,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>503</v>
       </c>
@@ -21390,7 +21396,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>503</v>
       </c>
@@ -21460,7 +21466,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="35.65" customHeight="1">
+    <row r="93" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>414</v>
       </c>
@@ -21497,7 +21503,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="59.65" customHeight="1">
+    <row r="94" spans="1:13" ht="59.7" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>414</v>
       </c>
@@ -21534,7 +21540,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="59.65" customHeight="1">
+    <row r="95" spans="1:13" ht="59.7" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>379</v>
       </c>
@@ -21571,7 +21577,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="59.65" customHeight="1">
+    <row r="96" spans="1:13" ht="59.7" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>379</v>
       </c>
@@ -21608,7 +21614,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>379</v>
       </c>
@@ -21645,7 +21651,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>379</v>
       </c>
@@ -21682,7 +21688,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>379</v>
       </c>
@@ -21719,7 +21725,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>379</v>
       </c>
@@ -21756,7 +21762,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="37.5">
+    <row r="101" spans="1:13" ht="36">
       <c r="A101" s="8" t="s">
         <v>379</v>
       </c>
@@ -21793,7 +21799,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="37.5">
+    <row r="102" spans="1:13" ht="36">
       <c r="A102" s="8" t="s">
         <v>379</v>
       </c>
@@ -21830,7 +21836,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="37.5">
+    <row r="103" spans="1:13" ht="36">
       <c r="A103" s="8" t="s">
         <v>379</v>
       </c>
@@ -21867,7 +21873,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>519</v>
       </c>
@@ -21906,7 +21912,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>519</v>
       </c>
@@ -21945,7 +21951,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="56.25">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>519</v>
       </c>
@@ -21984,7 +21990,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>519</v>
       </c>
@@ -22060,7 +22066,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="37.5">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>403</v>
       </c>
@@ -22097,7 +22103,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5">
+    <row r="110" spans="1:13" ht="36">
       <c r="A110" s="8" t="s">
         <v>403</v>
       </c>
@@ -22134,7 +22140,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="37.5">
+    <row r="111" spans="1:13" ht="36">
       <c r="A111" s="8" t="s">
         <v>403</v>
       </c>
@@ -22171,7 +22177,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5">
+    <row r="112" spans="1:13" ht="36">
       <c r="A112" s="8" t="s">
         <v>403</v>
       </c>
@@ -22208,7 +22214,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5">
+    <row r="113" spans="1:13" ht="36">
       <c r="A113" s="8" t="s">
         <v>403</v>
       </c>
@@ -22245,7 +22251,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5">
+    <row r="114" spans="1:13" ht="36">
       <c r="A114" s="8" t="s">
         <v>403</v>
       </c>
@@ -22282,7 +22288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5">
+    <row r="115" spans="1:13" ht="36">
       <c r="A115" s="8" t="s">
         <v>403</v>
       </c>
@@ -22356,7 +22362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5">
+    <row r="117" spans="1:13" ht="36">
       <c r="A117" s="8" t="s">
         <v>403</v>
       </c>
@@ -22393,7 +22399,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="36">
       <c r="A118" s="8" t="s">
         <v>403</v>
       </c>
@@ -22430,7 +22436,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="37.5">
+    <row r="119" spans="1:13" ht="36">
       <c r="A119" s="8" t="s">
         <v>403</v>
       </c>
@@ -22467,7 +22473,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5">
+    <row r="120" spans="1:13" ht="36">
       <c r="A120" s="8" t="s">
         <v>403</v>
       </c>
@@ -22541,7 +22547,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>350</v>
       </c>
@@ -22580,7 +22586,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="36">
       <c r="A123" s="8" t="s">
         <v>350</v>
       </c>
@@ -22619,7 +22625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="37.5">
+    <row r="124" spans="1:13" ht="36">
       <c r="A124" s="8" t="s">
         <v>350</v>
       </c>
@@ -22658,7 +22664,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>350</v>
       </c>
@@ -22697,7 +22703,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>350</v>
       </c>
@@ -22736,7 +22742,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>350</v>
       </c>
@@ -22775,7 +22781,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5">
+    <row r="128" spans="1:13" ht="36">
       <c r="A128" s="8" t="s">
         <v>350</v>
       </c>
@@ -22814,7 +22820,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="37.5">
+    <row r="129" spans="1:14" ht="36">
       <c r="A129" s="8" t="s">
         <v>361</v>
       </c>
@@ -22853,7 +22859,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="37.5">
+    <row r="130" spans="1:14" ht="36">
       <c r="A130" s="8" t="s">
         <v>374</v>
       </c>
@@ -22892,7 +22898,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="37.5">
+    <row r="131" spans="1:14" ht="36">
       <c r="A131" s="8" t="s">
         <v>374</v>
       </c>
@@ -22931,7 +22937,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="37.5">
+    <row r="132" spans="1:14" ht="36">
       <c r="A132" s="8" t="s">
         <v>374</v>
       </c>
@@ -22970,7 +22976,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="37.5">
+    <row r="133" spans="1:14" ht="36">
       <c r="A133" s="8" t="s">
         <v>374</v>
       </c>
@@ -23009,7 +23015,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="37.5">
+    <row r="134" spans="1:14" ht="36">
       <c r="A134" s="8" t="s">
         <v>374</v>
       </c>
@@ -23048,7 +23054,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="37.5">
+    <row r="135" spans="1:14" ht="36">
       <c r="A135" s="8" t="s">
         <v>374</v>
       </c>
@@ -23087,7 +23093,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="37.5">
+    <row r="136" spans="1:14" ht="36">
       <c r="A136" s="8" t="s">
         <v>374</v>
       </c>
@@ -23126,7 +23132,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="37.5">
+    <row r="137" spans="1:14" ht="36">
       <c r="A137" s="8" t="s">
         <v>374</v>
       </c>
@@ -23165,7 +23171,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="37.5">
+    <row r="138" spans="1:14" ht="36">
       <c r="A138" s="8" t="s">
         <v>369</v>
       </c>
@@ -23204,7 +23210,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="37.5">
+    <row r="139" spans="1:14" ht="36">
       <c r="A139" s="8" t="s">
         <v>369</v>
       </c>
@@ -23243,7 +23249,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="37.5">
+    <row r="140" spans="1:14" ht="36">
       <c r="A140" s="8" t="s">
         <v>369</v>
       </c>
@@ -23282,7 +23288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="37.5">
+    <row r="141" spans="1:14" ht="36">
       <c r="A141" s="8" t="s">
         <v>369</v>
       </c>
@@ -23321,7 +23327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="37.5">
+    <row r="142" spans="1:14" ht="36">
       <c r="A142" s="68" t="s">
         <v>369</v>
       </c>
@@ -23400,7 +23406,7 @@
       </c>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="144" spans="1:14" ht="35.4" customHeight="1">
       <c r="A144" s="68" t="s">
         <v>565</v>
       </c>
@@ -23440,7 +23446,7 @@
       </c>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="1:14" ht="22.9" customHeight="1">
+    <row r="145" spans="1:14" ht="22.95" customHeight="1">
       <c r="A145" s="68" t="s">
         <v>565</v>
       </c>
@@ -23480,7 +23486,7 @@
       </c>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="1:14" ht="22.9" customHeight="1">
+    <row r="146" spans="1:14" ht="22.95" customHeight="1">
       <c r="A146" s="68" t="s">
         <v>565</v>
       </c>
@@ -23520,7 +23526,7 @@
       </c>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="1:14" ht="22.9" customHeight="1">
+    <row r="147" spans="1:14" ht="22.95" customHeight="1">
       <c r="A147" s="8" t="s">
         <v>565</v>
       </c>
@@ -23560,7 +23566,7 @@
       </c>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="1:14" ht="14.45" customHeight="1">
+    <row r="148" spans="1:14" ht="14.4" customHeight="1">
       <c r="B148" s="179"/>
     </row>
   </sheetData>
@@ -23587,20 +23593,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -25445,13 +25451,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -25494,25 +25500,25 @@
       <selection activeCell="A2" sqref="A2:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="17" style="19" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.450000000000003" customHeight="1">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="35.4" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27481,27 +27487,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:M61"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="12" style="21" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="48.75" customHeight="1">
@@ -29440,7 +29446,7 @@
       <c r="E49" s="18">
         <v>347.64</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="18">
         <v>0.17</v>
       </c>
       <c r="G49" s="18">
@@ -29470,32 +29476,32 @@
       <c r="B50" s="189" t="s">
         <v>592</v>
       </c>
-      <c r="C50" s="197" t="s">
+      <c r="C50" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="198">
+      <c r="D50" s="194">
         <v>0.24</v>
       </c>
-      <c r="E50" s="199">
+      <c r="E50" s="202">
         <v>335.53</v>
       </c>
-      <c r="F50" s="200">
+      <c r="F50" s="195">
         <v>0</v>
       </c>
-      <c r="G50" s="200">
+      <c r="G50" s="195">
         <v>0</v>
       </c>
-      <c r="H50" s="200" t="s">
+      <c r="H50" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I50" s="200" t="s">
+      <c r="I50" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J50" s="201">
+      <c r="J50" s="196">
         <v>11</v>
       </c>
-      <c r="K50" s="202"/>
-      <c r="L50" s="200" t="s">
+      <c r="K50" s="197"/>
+      <c r="L50" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M50" s="61" t="s">
@@ -29509,32 +29515,32 @@
       <c r="B51" s="189" t="s">
         <v>593</v>
       </c>
-      <c r="C51" s="197" t="s">
+      <c r="C51" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="198">
+      <c r="D51" s="194">
         <v>0.05</v>
       </c>
-      <c r="E51" s="199">
+      <c r="E51" s="202">
         <v>69.489999999999995</v>
       </c>
-      <c r="F51" s="200">
+      <c r="F51" s="195">
         <v>0</v>
       </c>
-      <c r="G51" s="200">
+      <c r="G51" s="195">
         <v>0</v>
       </c>
-      <c r="H51" s="200" t="s">
+      <c r="H51" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I51" s="200" t="s">
+      <c r="I51" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="201">
+      <c r="J51" s="196">
         <v>11</v>
       </c>
-      <c r="K51" s="202"/>
-      <c r="L51" s="200" t="s">
+      <c r="K51" s="197"/>
+      <c r="L51" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M51" s="61" t="s">
@@ -29548,397 +29554,400 @@
       <c r="B52" s="189" t="s">
         <v>594</v>
       </c>
-      <c r="C52" s="197" t="s">
+      <c r="C52" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="198">
+      <c r="D52" s="194">
         <v>0.04</v>
       </c>
-      <c r="E52" s="199">
+      <c r="E52" s="202">
         <v>39.06</v>
       </c>
-      <c r="F52" s="200">
+      <c r="F52" s="195">
         <v>0</v>
       </c>
-      <c r="G52" s="200">
+      <c r="G52" s="195">
         <v>0</v>
       </c>
-      <c r="H52" s="200" t="s">
+      <c r="H52" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I52" s="200" t="s">
+      <c r="I52" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="201">
+      <c r="J52" s="196">
         <v>11</v>
       </c>
-      <c r="K52" s="202"/>
-      <c r="L52" s="200" t="s">
+      <c r="K52" s="197"/>
+      <c r="L52" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M52" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="37.5">
+    <row r="53" spans="1:13" ht="36">
       <c r="A53" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B53" s="189" t="s">
         <v>595</v>
       </c>
-      <c r="C53" s="197" t="s">
+      <c r="C53" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="198">
+      <c r="D53" s="194">
         <v>0.04</v>
       </c>
-      <c r="E53" s="199">
+      <c r="E53" s="202">
         <v>39.06</v>
       </c>
-      <c r="F53" s="200">
+      <c r="F53" s="195">
         <v>0</v>
       </c>
-      <c r="G53" s="200">
+      <c r="G53" s="195">
         <v>0</v>
       </c>
-      <c r="H53" s="200" t="s">
+      <c r="H53" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I53" s="200" t="s">
+      <c r="I53" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="201">
+      <c r="J53" s="196">
         <v>11</v>
       </c>
-      <c r="K53" s="202"/>
-      <c r="L53" s="200" t="s">
+      <c r="K53" s="197"/>
+      <c r="L53" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M53" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="37.5">
+    <row r="54" spans="1:13" ht="36">
       <c r="A54" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B54" s="190" t="s">
         <v>596</v>
       </c>
-      <c r="C54" s="197" t="s">
+      <c r="C54" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="198">
+      <c r="D54" s="194">
         <v>0.69499999999999995</v>
       </c>
-      <c r="E54" s="199">
+      <c r="E54" s="202">
         <v>50.48</v>
       </c>
-      <c r="F54" s="200">
+      <c r="F54" s="195">
         <v>0</v>
       </c>
-      <c r="G54" s="200">
+      <c r="G54" s="195">
         <v>0</v>
       </c>
-      <c r="H54" s="200" t="s">
+      <c r="H54" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I54" s="200" t="s">
+      <c r="I54" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J54" s="201">
+      <c r="J54" s="196">
         <v>11</v>
       </c>
-      <c r="K54" s="202"/>
-      <c r="L54" s="200" t="s">
+      <c r="K54" s="197"/>
+      <c r="L54" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M54" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="37.5">
+    <row r="55" spans="1:13" ht="36">
       <c r="A55" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B55" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C55" s="197" t="s">
+      <c r="C55" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="198">
+      <c r="D55" s="194">
         <v>1.1950000000000001</v>
       </c>
-      <c r="E55" s="199">
+      <c r="E55" s="202">
         <v>84.63</v>
       </c>
-      <c r="F55" s="200">
+      <c r="F55" s="195">
         <v>0</v>
       </c>
-      <c r="G55" s="200">
+      <c r="G55" s="195">
         <v>0</v>
       </c>
-      <c r="H55" s="200" t="s">
+      <c r="H55" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I55" s="200" t="s">
+      <c r="I55" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="201">
+      <c r="J55" s="196">
         <v>11</v>
       </c>
-      <c r="K55" s="202"/>
-      <c r="L55" s="200" t="s">
+      <c r="K55" s="197"/>
+      <c r="L55" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M55" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="37.5">
+    <row r="56" spans="1:13" ht="36">
       <c r="A56" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B56" s="190" t="s">
         <v>597</v>
       </c>
-      <c r="C56" s="197" t="s">
+      <c r="C56" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="198">
+      <c r="D56" s="194">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E56" s="199">
+      <c r="E56" s="202">
         <v>83.54</v>
       </c>
-      <c r="F56" s="200">
+      <c r="F56" s="195">
         <v>0</v>
       </c>
-      <c r="G56" s="200">
+      <c r="G56" s="195">
         <v>0</v>
       </c>
-      <c r="H56" s="200" t="s">
+      <c r="H56" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I56" s="200" t="s">
+      <c r="I56" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J56" s="201">
+      <c r="J56" s="196">
         <v>11</v>
       </c>
-      <c r="K56" s="202"/>
-      <c r="L56" s="200" t="s">
+      <c r="K56" s="197"/>
+      <c r="L56" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M56" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="37.5">
+    <row r="57" spans="1:13" ht="36">
       <c r="A57" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B57" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C57" s="197" t="s">
+      <c r="C57" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="198">
+      <c r="D57" s="194">
         <v>0.85</v>
       </c>
-      <c r="E57" s="199">
+      <c r="E57" s="202">
         <v>10.64</v>
       </c>
-      <c r="F57" s="200">
+      <c r="F57" s="195">
         <v>0</v>
       </c>
-      <c r="G57" s="200">
+      <c r="G57" s="195">
         <v>0</v>
       </c>
-      <c r="H57" s="200" t="s">
+      <c r="H57" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I57" s="200" t="s">
+      <c r="I57" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J57" s="201">
+      <c r="J57" s="196">
         <v>11</v>
       </c>
-      <c r="K57" s="202"/>
-      <c r="L57" s="200" t="s">
+      <c r="K57" s="197"/>
+      <c r="L57" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M57" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="37.5">
+    <row r="58" spans="1:13" ht="36">
       <c r="A58" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B58" s="191" t="s">
         <v>598</v>
       </c>
-      <c r="C58" s="197" t="s">
+      <c r="C58" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="198">
+      <c r="D58" s="194">
         <v>3.85</v>
       </c>
-      <c r="E58" s="199">
+      <c r="E58" s="202">
         <v>47.95</v>
       </c>
-      <c r="F58" s="200">
+      <c r="F58" s="195">
         <v>0</v>
       </c>
-      <c r="G58" s="200">
+      <c r="G58" s="195">
         <v>0</v>
       </c>
-      <c r="H58" s="200" t="s">
+      <c r="H58" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I58" s="200" t="s">
+      <c r="I58" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J58" s="201">
+      <c r="J58" s="196">
         <v>11</v>
       </c>
-      <c r="K58" s="202"/>
-      <c r="L58" s="200" t="s">
+      <c r="K58" s="197"/>
+      <c r="L58" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M58" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="37.5">
+    <row r="59" spans="1:13" ht="36">
       <c r="A59" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B59" s="192" t="s">
         <v>599</v>
       </c>
-      <c r="C59" s="197" t="s">
+      <c r="C59" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="198">
+      <c r="D59" s="194">
         <v>0.03</v>
       </c>
-      <c r="E59" s="199">
+      <c r="E59" s="202">
         <v>246.39</v>
       </c>
-      <c r="F59" s="200">
+      <c r="F59" s="195">
         <v>0</v>
       </c>
-      <c r="G59" s="200">
-        <v>1</v>
-      </c>
-      <c r="H59" s="200" t="s">
+      <c r="G59" s="195">
+        <v>1</v>
+      </c>
+      <c r="H59" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I59" s="200" t="s">
+      <c r="I59" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J59" s="201">
+      <c r="J59" s="196">
         <v>11</v>
       </c>
-      <c r="K59" s="202"/>
-      <c r="L59" s="200" t="s">
+      <c r="K59" s="197"/>
+      <c r="L59" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M59" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="37.5">
+    <row r="60" spans="1:13" ht="36">
       <c r="A60" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B60" s="192" t="s">
         <v>600</v>
       </c>
-      <c r="C60" s="197" t="s">
+      <c r="C60" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="198">
+      <c r="D60" s="194">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E60" s="199">
+      <c r="E60" s="202">
         <v>152.31</v>
       </c>
-      <c r="F60" s="200">
+      <c r="F60" s="195">
         <v>0</v>
       </c>
-      <c r="G60" s="200">
-        <v>1</v>
-      </c>
-      <c r="H60" s="200" t="s">
+      <c r="G60" s="195">
+        <v>1</v>
+      </c>
+      <c r="H60" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I60" s="200" t="s">
+      <c r="I60" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J60" s="201">
+      <c r="J60" s="196">
         <v>11</v>
       </c>
-      <c r="K60" s="202"/>
-      <c r="L60" s="200" t="s">
+      <c r="K60" s="197"/>
+      <c r="L60" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M60" s="61" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="37.5">
+    <row r="61" spans="1:13" ht="36">
       <c r="A61" s="8" t="s">
         <v>591</v>
       </c>
       <c r="B61" s="192" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="197" t="s">
+      <c r="C61" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="198">
+      <c r="D61" s="194">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E61" s="199">
+      <c r="E61" s="202">
         <v>138.18</v>
       </c>
-      <c r="F61" s="200">
+      <c r="F61" s="195">
         <v>0</v>
       </c>
-      <c r="G61" s="200">
-        <v>1</v>
-      </c>
-      <c r="H61" s="200" t="s">
+      <c r="G61" s="195">
+        <v>1</v>
+      </c>
+      <c r="H61" s="195" t="s">
         <v>581</v>
       </c>
-      <c r="I61" s="200" t="s">
+      <c r="I61" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="201">
+      <c r="J61" s="196">
         <v>11</v>
       </c>
-      <c r="K61" s="202"/>
-      <c r="L61" s="200" t="s">
+      <c r="K61" s="197"/>
+      <c r="L61" s="195" t="s">
         <v>75</v>
       </c>
       <c r="M61" s="61" t="s">
         <v>304</v>
       </c>
     </row>
+    <row r="63" spans="1:13">
+      <c r="B63" s="20"/>
+    </row>
     <row r="64" spans="1:13">
       <c r="B64" s="20"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="20"/>
+      <c r="B65" s="94"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="94"/>
+      <c r="B66" s="20"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="20"/>
@@ -29962,10 +29971,7 @@
       <c r="B73" s="20"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="64"/>
+      <c r="B74" s="64"/>
     </row>
   </sheetData>
   <sortState ref="A2:L48">
@@ -29974,7 +29980,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="19" fitToHeight="10" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="63" max="13" man="1"/>
+    <brk id="61" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -29987,23 +29993,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="138" customWidth="1"/>
     <col min="7" max="7" width="16" style="138" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="141" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="138" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="141" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="138" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="141" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="138" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="141" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="138" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -31830,12 +31836,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="201" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
-      <c r="D43" s="196"/>
+      <c r="B43" s="201"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
       <c r="E43" s="16"/>
       <c r="F43" s="135">
         <f>SUM(F2:F42)</f>
@@ -32013,7 +32019,7 @@
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="143"/>
       <c r="E49" s="127" t="s">
         <v>40</v>
@@ -32115,7 +32121,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="127" t="s">
         <v>74</v>
       </c>
@@ -32148,7 +32154,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="127" t="s">
         <v>92</v>
       </c>

--- a/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -2869,7 +2869,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3010,7 +3009,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3151,7 +3149,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3292,7 +3289,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3433,7 +3429,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3574,7 +3569,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15059,7 +15053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
@@ -17556,8 +17550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21330,7 +21324,7 @@
         <v>472.96222940669998</v>
       </c>
       <c r="F96" s="164">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="G96" s="164">
         <v>1</v>
@@ -21369,7 +21363,7 @@
         <v>374.96375491014004</v>
       </c>
       <c r="F97" s="164">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="G97" s="164">
         <v>1</v>
@@ -23125,10 +23119,10 @@
         <v>22.7160982732</v>
       </c>
       <c r="F141" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>373</v>
@@ -23166,10 +23160,10 @@
         <v>71.526410010000006</v>
       </c>
       <c r="F142" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>373</v>
@@ -23207,10 +23201,10 @@
         <v>12.72235877</v>
       </c>
       <c r="F143" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>373</v>
@@ -23248,10 +23242,10 @@
         <v>16.387823999999998</v>
       </c>
       <c r="F144" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>373</v>
@@ -23289,10 +23283,10 @@
         <v>367.318307</v>
       </c>
       <c r="F145" s="182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" s="75" t="s">
         <v>373</v>
@@ -23571,7 +23565,10 @@
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="27" fitToHeight="10" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="26" fitToHeight="10" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="98" max="14" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">Habiganj_Categorical_Projection!$A$1:$P$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HaorCode!$A$1:$B$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Hobiganj!$A$1:$N$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Kishoregnj!$A$1:$O$151</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Kishoregnj!$A$1:$O$306</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Netrokona!$A$1:$S$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Structure_Type!$A$1:$C$16</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="609">
   <si>
     <t>Package Name</t>
   </si>
@@ -1824,6 +1824,85 @@
   </si>
   <si>
     <t>SUNM/PW-07</t>
+  </si>
+  <si>
+    <t>Reahblitation of Existing 3-vent Regulator</t>
+  </si>
+  <si>
+    <t>Construction of 6.00m Islampur causeway</t>
+  </si>
+  <si>
+    <t>Construction of  Dairar Khal Causeway 6-m width Causeway</t>
+  </si>
+  <si>
+    <t>Ikrampur CW-6M</t>
+  </si>
+  <si>
+    <t>BWDB/Netra/HFMLIP/PW-08
+Dharmapasha Rui Beel</t>
+  </si>
+  <si>
+    <t>Agunia Regulator</t>
+  </si>
+  <si>
+    <t>Dharam Regulator</t>
+  </si>
+  <si>
+    <t>Box-1</t>
+  </si>
+  <si>
+    <t>Box-2</t>
+  </si>
+  <si>
+    <t>Box-3</t>
+  </si>
+  <si>
+    <t>Box-4</t>
+  </si>
+  <si>
+    <t>Box-5</t>
+  </si>
+  <si>
+    <t>Inlet-1</t>
+  </si>
+  <si>
+    <t>Inlet-2</t>
+  </si>
+  <si>
+    <t>Inlet-3</t>
+  </si>
+  <si>
+    <t>BWDB/Sunam/HFMLIP/PW-07 Dharmapasha Rui Beel (Division-1)</t>
+  </si>
+  <si>
+    <t>TA_From 695 to 935=240</t>
+  </si>
+  <si>
+    <t>TA_From 965 to 1015=50</t>
+  </si>
+  <si>
+    <t>TA_From 4500 to 4570=40</t>
+  </si>
+  <si>
+    <t>TA_From 35020 to 35100=40</t>
+  </si>
+  <si>
+    <t>TB_From 0 to 695=695</t>
+  </si>
+  <si>
+    <t>TB_From 1015 to 2180=1165</t>
+  </si>
+  <si>
+    <t>RS_4600_ibtw_7800=850</t>
+  </si>
+  <si>
+    <t>FF_30M_at_950</t>
+  </si>
+  <si>
+    <t>FF_15M_at_4520</t>
+  </si>
+  <si>
+    <t>FF_15M_at_35050</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1913,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,8 +2069,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2050,6 +2136,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2155,7 +2265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2687,6 +2797,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -13631,13 +13774,13 @@
       <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:16" ht="43.2" customHeight="1">
-      <c r="A49" s="200" t="s">
+      <c r="A49" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="200"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="200"/>
+      <c r="B49" s="211"/>
+      <c r="C49" s="211"/>
+      <c r="D49" s="211"/>
+      <c r="E49" s="211"/>
       <c r="F49" s="44">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -15053,8 +15196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17548,10 +17691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:O306"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141:G145"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A296" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17647,9 +17790,7 @@
       <c r="J2" s="21">
         <v>8</v>
       </c>
-      <c r="K2" s="21">
-        <v>0</v>
-      </c>
+      <c r="K2" s="21"/>
       <c r="L2" s="167" t="s">
         <v>286</v>
       </c>
@@ -17689,9 +17830,7 @@
       <c r="J3" s="21">
         <v>8</v>
       </c>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
+      <c r="K3" s="21"/>
       <c r="L3" s="167" t="s">
         <v>284</v>
       </c>
@@ -17731,9 +17870,7 @@
       <c r="J4" s="21">
         <v>8</v>
       </c>
-      <c r="K4" s="21">
-        <v>2</v>
-      </c>
+      <c r="K4" s="21"/>
       <c r="L4" s="167" t="s">
         <v>288</v>
       </c>
@@ -17773,9 +17910,7 @@
       <c r="J5" s="21">
         <v>8</v>
       </c>
-      <c r="K5" s="21">
-        <v>3</v>
-      </c>
+      <c r="K5" s="21"/>
       <c r="L5" s="167" t="s">
         <v>288</v>
       </c>
@@ -17815,9 +17950,7 @@
       <c r="J6" s="21">
         <v>8</v>
       </c>
-      <c r="K6" s="21">
-        <v>4</v>
-      </c>
+      <c r="K6" s="21"/>
       <c r="L6" s="21" t="s">
         <v>288</v>
       </c>
@@ -17857,9 +17990,7 @@
       <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="21">
-        <v>5</v>
-      </c>
+      <c r="K7" s="21"/>
       <c r="L7" s="167" t="s">
         <v>284</v>
       </c>
@@ -17897,9 +18028,7 @@
       <c r="J8" s="186">
         <v>3</v>
       </c>
-      <c r="K8" s="21">
-        <v>6</v>
-      </c>
+      <c r="K8" s="21"/>
       <c r="L8" s="169" t="s">
         <v>259</v>
       </c>
@@ -17937,9 +18066,7 @@
       <c r="J9" s="159">
         <v>7</v>
       </c>
-      <c r="K9" s="21">
-        <v>7</v>
-      </c>
+      <c r="K9" s="21"/>
       <c r="L9" s="8" t="s">
         <v>261</v>
       </c>
@@ -17977,9 +18104,7 @@
       <c r="J10" s="159">
         <v>7</v>
       </c>
-      <c r="K10" s="21">
-        <v>8</v>
-      </c>
+      <c r="K10" s="21"/>
       <c r="L10" s="8" t="s">
         <v>263</v>
       </c>
@@ -18017,9 +18142,7 @@
       <c r="J11" s="159">
         <v>7</v>
       </c>
-      <c r="K11" s="21">
-        <v>9</v>
-      </c>
+      <c r="K11" s="21"/>
       <c r="L11" s="8" t="s">
         <v>265</v>
       </c>
@@ -18057,9 +18180,7 @@
       <c r="J12" s="159">
         <v>7</v>
       </c>
-      <c r="K12" s="21">
-        <v>10</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="8" t="s">
         <v>267</v>
       </c>
@@ -18097,9 +18218,7 @@
       <c r="J13" s="159">
         <v>7</v>
       </c>
-      <c r="K13" s="21">
-        <v>11</v>
-      </c>
+      <c r="K13" s="21"/>
       <c r="L13" s="8" t="s">
         <v>269</v>
       </c>
@@ -18137,9 +18256,7 @@
       <c r="J14" s="159">
         <v>11</v>
       </c>
-      <c r="K14" s="21">
-        <v>12</v>
-      </c>
+      <c r="K14" s="21"/>
       <c r="L14" s="8" t="s">
         <v>271</v>
       </c>
@@ -18177,9 +18294,7 @@
       <c r="J15" s="186">
         <v>3</v>
       </c>
-      <c r="K15" s="21">
-        <v>13</v>
-      </c>
+      <c r="K15" s="21"/>
       <c r="L15" s="169" t="s">
         <v>261</v>
       </c>
@@ -18217,9 +18332,7 @@
       <c r="J16" s="186">
         <v>11</v>
       </c>
-      <c r="K16" s="21">
-        <v>14</v>
-      </c>
+      <c r="K16" s="21"/>
       <c r="L16" s="169" t="s">
         <v>261</v>
       </c>
@@ -18255,9 +18368,7 @@
       <c r="J17" s="186">
         <v>11</v>
       </c>
-      <c r="K17" s="21">
-        <v>15</v>
-      </c>
+      <c r="K17" s="21"/>
       <c r="L17" s="169" t="s">
         <v>261</v>
       </c>
@@ -18295,9 +18406,7 @@
       <c r="J18" s="193">
         <v>3</v>
       </c>
-      <c r="K18" s="21">
-        <v>16</v>
-      </c>
+      <c r="K18" s="21"/>
       <c r="L18" s="189" t="s">
         <v>261</v>
       </c>
@@ -18335,9 +18444,7 @@
       <c r="J19" s="193">
         <v>3</v>
       </c>
-      <c r="K19" s="21">
-        <v>17</v>
-      </c>
+      <c r="K19" s="21"/>
       <c r="L19" s="189" t="s">
         <v>261</v>
       </c>
@@ -18375,9 +18482,7 @@
       <c r="J20" s="193">
         <v>3</v>
       </c>
-      <c r="K20" s="21">
-        <v>18</v>
-      </c>
+      <c r="K20" s="21"/>
       <c r="L20" s="189" t="s">
         <v>261</v>
       </c>
@@ -18415,9 +18520,7 @@
       <c r="J21" s="193">
         <v>11</v>
       </c>
-      <c r="K21" s="21">
-        <v>19</v>
-      </c>
+      <c r="K21" s="21"/>
       <c r="L21" s="189" t="s">
         <v>261</v>
       </c>
@@ -18455,9 +18558,7 @@
       <c r="J22" s="193">
         <v>11</v>
       </c>
-      <c r="K22" s="21">
-        <v>20</v>
-      </c>
+      <c r="K22" s="21"/>
       <c r="L22" s="189" t="s">
         <v>261</v>
       </c>
@@ -18495,9 +18596,7 @@
       <c r="J23" s="159">
         <v>3</v>
       </c>
-      <c r="K23" s="21">
-        <v>21</v>
-      </c>
+      <c r="K23" s="21"/>
       <c r="L23" s="8" t="s">
         <v>261</v>
       </c>
@@ -18535,9 +18634,7 @@
       <c r="J24" s="159">
         <v>11</v>
       </c>
-      <c r="K24" s="21">
-        <v>22</v>
-      </c>
+      <c r="K24" s="21"/>
       <c r="L24" s="8" t="s">
         <v>261</v>
       </c>
@@ -18575,9 +18672,7 @@
       <c r="J25" s="159">
         <v>11</v>
       </c>
-      <c r="K25" s="21">
-        <v>23</v>
-      </c>
+      <c r="K25" s="21"/>
       <c r="L25" s="8" t="s">
         <v>261</v>
       </c>
@@ -18615,9 +18710,7 @@
       <c r="J26" s="159">
         <v>11</v>
       </c>
-      <c r="K26" s="21">
-        <v>24</v>
-      </c>
+      <c r="K26" s="21"/>
       <c r="L26" s="8" t="s">
         <v>261</v>
       </c>
@@ -18655,9 +18748,7 @@
       <c r="J27" s="159">
         <v>11</v>
       </c>
-      <c r="K27" s="21">
-        <v>25</v>
-      </c>
+      <c r="K27" s="21"/>
       <c r="L27" s="8" t="s">
         <v>261</v>
       </c>
@@ -18695,9 +18786,7 @@
       <c r="J28" s="159">
         <v>11</v>
       </c>
-      <c r="K28" s="21">
-        <v>26</v>
-      </c>
+      <c r="K28" s="21"/>
       <c r="L28" s="8" t="s">
         <v>261</v>
       </c>
@@ -18735,9 +18824,7 @@
       <c r="J29" s="159">
         <v>11</v>
       </c>
-      <c r="K29" s="21">
-        <v>27</v>
-      </c>
+      <c r="K29" s="21"/>
       <c r="L29" s="8" t="s">
         <v>261</v>
       </c>
@@ -18775,9 +18862,7 @@
       <c r="J30" s="159">
         <v>11</v>
       </c>
-      <c r="K30" s="21">
-        <v>28</v>
-      </c>
+      <c r="K30" s="21"/>
       <c r="L30" s="8" t="s">
         <v>261</v>
       </c>
@@ -18815,9 +18900,7 @@
       <c r="J31" s="159">
         <v>3</v>
       </c>
-      <c r="K31" s="21">
-        <v>29</v>
-      </c>
+      <c r="K31" s="21"/>
       <c r="L31" s="8" t="s">
         <v>261</v>
       </c>
@@ -18855,9 +18938,7 @@
       <c r="J32" s="186">
         <v>7</v>
       </c>
-      <c r="K32" s="21">
-        <v>30</v>
-      </c>
+      <c r="K32" s="21"/>
       <c r="L32" s="169" t="s">
         <v>261</v>
       </c>
@@ -18895,9 +18976,7 @@
       <c r="J33" s="186">
         <v>7</v>
       </c>
-      <c r="K33" s="21">
-        <v>31</v>
-      </c>
+      <c r="K33" s="21"/>
       <c r="L33" s="169" t="s">
         <v>261</v>
       </c>
@@ -18935,9 +19014,7 @@
       <c r="J34" s="186">
         <v>7</v>
       </c>
-      <c r="K34" s="21">
-        <v>32</v>
-      </c>
+      <c r="K34" s="21"/>
       <c r="L34" s="169" t="s">
         <v>261</v>
       </c>
@@ -18975,9 +19052,7 @@
       <c r="J35" s="186">
         <v>7</v>
       </c>
-      <c r="K35" s="21">
-        <v>33</v>
-      </c>
+      <c r="K35" s="21"/>
       <c r="L35" s="169" t="s">
         <v>261</v>
       </c>
@@ -19015,9 +19090,7 @@
       <c r="J36" s="186">
         <v>7</v>
       </c>
-      <c r="K36" s="21">
-        <v>34</v>
-      </c>
+      <c r="K36" s="21"/>
       <c r="L36" s="169" t="s">
         <v>261</v>
       </c>
@@ -19055,9 +19128,7 @@
       <c r="J37" s="186">
         <v>7</v>
       </c>
-      <c r="K37" s="21">
-        <v>35</v>
-      </c>
+      <c r="K37" s="21"/>
       <c r="L37" s="169" t="s">
         <v>261</v>
       </c>
@@ -19095,9 +19166,7 @@
       <c r="J38" s="159">
         <v>7</v>
       </c>
-      <c r="K38" s="21">
-        <v>36</v>
-      </c>
+      <c r="K38" s="21"/>
       <c r="L38" s="8" t="s">
         <v>263</v>
       </c>
@@ -19135,9 +19204,7 @@
       <c r="J39" s="159">
         <v>7</v>
       </c>
-      <c r="K39" s="21">
-        <v>37</v>
-      </c>
+      <c r="K39" s="21"/>
       <c r="L39" s="8" t="s">
         <v>263</v>
       </c>
@@ -19175,9 +19242,7 @@
       <c r="J40" s="159">
         <v>7</v>
       </c>
-      <c r="K40" s="21">
-        <v>38</v>
-      </c>
+      <c r="K40" s="21"/>
       <c r="L40" s="8" t="s">
         <v>263</v>
       </c>
@@ -19215,9 +19280,7 @@
       <c r="J41" s="159">
         <v>7</v>
       </c>
-      <c r="K41" s="21">
-        <v>39</v>
-      </c>
+      <c r="K41" s="21"/>
       <c r="L41" s="8" t="s">
         <v>263</v>
       </c>
@@ -19255,9 +19318,7 @@
       <c r="J42" s="159">
         <v>7</v>
       </c>
-      <c r="K42" s="21">
-        <v>40</v>
-      </c>
+      <c r="K42" s="21"/>
       <c r="L42" s="8" t="s">
         <v>263</v>
       </c>
@@ -19295,9 +19356,7 @@
       <c r="J43" s="159">
         <v>7</v>
       </c>
-      <c r="K43" s="21">
-        <v>41</v>
-      </c>
+      <c r="K43" s="21"/>
       <c r="L43" s="8" t="s">
         <v>263</v>
       </c>
@@ -19335,9 +19394,7 @@
       <c r="J44" s="159">
         <v>7</v>
       </c>
-      <c r="K44" s="21">
-        <v>42</v>
-      </c>
+      <c r="K44" s="21"/>
       <c r="L44" s="8" t="s">
         <v>263</v>
       </c>
@@ -19375,9 +19432,7 @@
       <c r="J45" s="159">
         <v>11</v>
       </c>
-      <c r="K45" s="21">
-        <v>43</v>
-      </c>
+      <c r="K45" s="21"/>
       <c r="L45" s="8" t="s">
         <v>263</v>
       </c>
@@ -19413,9 +19468,7 @@
       <c r="J46" s="159">
         <v>11</v>
       </c>
-      <c r="K46" s="21">
-        <v>44</v>
-      </c>
+      <c r="K46" s="21"/>
       <c r="L46" s="8" t="s">
         <v>263</v>
       </c>
@@ -19453,9 +19506,7 @@
       <c r="J47" s="186">
         <v>5</v>
       </c>
-      <c r="K47" s="21">
-        <v>45</v>
-      </c>
+      <c r="K47" s="21"/>
       <c r="L47" s="169" t="s">
         <v>263</v>
       </c>
@@ -19493,9 +19544,7 @@
       <c r="J48" s="186">
         <v>5</v>
       </c>
-      <c r="K48" s="21">
-        <v>46</v>
-      </c>
+      <c r="K48" s="21"/>
       <c r="L48" s="169" t="s">
         <v>263</v>
       </c>
@@ -19532,9 +19581,7 @@
       <c r="J49" s="186">
         <v>4</v>
       </c>
-      <c r="K49" s="21">
-        <v>47</v>
-      </c>
+      <c r="K49" s="21"/>
       <c r="L49" s="169" t="s">
         <v>263</v>
       </c>
@@ -19571,9 +19618,7 @@
       <c r="J50" s="186">
         <v>5</v>
       </c>
-      <c r="K50" s="21">
-        <v>48</v>
-      </c>
+      <c r="K50" s="21"/>
       <c r="L50" s="169" t="s">
         <v>263</v>
       </c>
@@ -19610,9 +19655,7 @@
       <c r="J51" s="159">
         <v>3</v>
       </c>
-      <c r="K51" s="21">
-        <v>49</v>
-      </c>
+      <c r="K51" s="21"/>
       <c r="L51" s="8" t="s">
         <v>265</v>
       </c>
@@ -19649,9 +19692,7 @@
       <c r="J52" s="159">
         <v>3</v>
       </c>
-      <c r="K52" s="21">
-        <v>50</v>
-      </c>
+      <c r="K52" s="21"/>
       <c r="L52" s="8" t="s">
         <v>265</v>
       </c>
@@ -19688,9 +19729,7 @@
       <c r="J53" s="159">
         <v>11</v>
       </c>
-      <c r="K53" s="21">
-        <v>51</v>
-      </c>
+      <c r="K53" s="21"/>
       <c r="L53" s="8" t="s">
         <v>265</v>
       </c>
@@ -19725,9 +19764,7 @@
       <c r="J54" s="159">
         <v>11</v>
       </c>
-      <c r="K54" s="21">
-        <v>52</v>
-      </c>
+      <c r="K54" s="21"/>
       <c r="L54" s="8" t="s">
         <v>265</v>
       </c>
@@ -19764,9 +19801,7 @@
       <c r="J55" s="159">
         <v>3</v>
       </c>
-      <c r="K55" s="21">
-        <v>53</v>
-      </c>
+      <c r="K55" s="21"/>
       <c r="L55" s="8" t="s">
         <v>265</v>
       </c>
@@ -19803,9 +19838,7 @@
       <c r="J56" s="159">
         <v>11</v>
       </c>
-      <c r="K56" s="21">
-        <v>54</v>
-      </c>
+      <c r="K56" s="21"/>
       <c r="L56" s="8" t="s">
         <v>265</v>
       </c>
@@ -19842,9 +19875,7 @@
       <c r="J57" s="159">
         <v>3</v>
       </c>
-      <c r="K57" s="21">
-        <v>55</v>
-      </c>
+      <c r="K57" s="21"/>
       <c r="L57" s="8" t="s">
         <v>265</v>
       </c>
@@ -19881,9 +19912,7 @@
       <c r="J58" s="159">
         <v>3</v>
       </c>
-      <c r="K58" s="21">
-        <v>56</v>
-      </c>
+      <c r="K58" s="21"/>
       <c r="L58" s="8" t="s">
         <v>265</v>
       </c>
@@ -19920,9 +19949,7 @@
       <c r="J59" s="159">
         <v>7</v>
       </c>
-      <c r="K59" s="21">
-        <v>57</v>
-      </c>
+      <c r="K59" s="21"/>
       <c r="L59" s="8" t="s">
         <v>265</v>
       </c>
@@ -19959,9 +19986,7 @@
       <c r="J60" s="159">
         <v>7</v>
       </c>
-      <c r="K60" s="21">
-        <v>58</v>
-      </c>
+      <c r="K60" s="21"/>
       <c r="L60" s="8" t="s">
         <v>265</v>
       </c>
@@ -19998,9 +20023,7 @@
       <c r="J61" s="159">
         <v>7</v>
       </c>
-      <c r="K61" s="21">
-        <v>59</v>
-      </c>
+      <c r="K61" s="21"/>
       <c r="L61" s="8" t="s">
         <v>265</v>
       </c>
@@ -20037,9 +20060,7 @@
       <c r="J62" s="159">
         <v>7</v>
       </c>
-      <c r="K62" s="21">
-        <v>60</v>
-      </c>
+      <c r="K62" s="21"/>
       <c r="L62" s="8" t="s">
         <v>265</v>
       </c>
@@ -20076,9 +20097,7 @@
       <c r="J63" s="159">
         <v>7</v>
       </c>
-      <c r="K63" s="21">
-        <v>61</v>
-      </c>
+      <c r="K63" s="21"/>
       <c r="L63" s="8" t="s">
         <v>265</v>
       </c>
@@ -20115,9 +20134,7 @@
       <c r="J64" s="186">
         <v>3</v>
       </c>
-      <c r="K64" s="21">
-        <v>62</v>
-      </c>
+      <c r="K64" s="21"/>
       <c r="L64" s="169" t="s">
         <v>267</v>
       </c>
@@ -20154,9 +20171,7 @@
       <c r="J65" s="186">
         <v>3</v>
       </c>
-      <c r="K65" s="21">
-        <v>63</v>
-      </c>
+      <c r="K65" s="21"/>
       <c r="L65" s="169" t="s">
         <v>267</v>
       </c>
@@ -20193,9 +20208,7 @@
       <c r="J66" s="186">
         <v>11</v>
       </c>
-      <c r="K66" s="21">
-        <v>64</v>
-      </c>
+      <c r="K66" s="21"/>
       <c r="L66" s="169" t="s">
         <v>267</v>
       </c>
@@ -20232,9 +20245,7 @@
       <c r="J67" s="186">
         <v>11</v>
       </c>
-      <c r="K67" s="21">
-        <v>65</v>
-      </c>
+      <c r="K67" s="21"/>
       <c r="L67" s="169" t="s">
         <v>267</v>
       </c>
@@ -20271,9 +20282,7 @@
       <c r="J68" s="54">
         <v>3</v>
       </c>
-      <c r="K68" s="21">
-        <v>66</v>
-      </c>
+      <c r="K68" s="21"/>
       <c r="L68" s="49" t="s">
         <v>267</v>
       </c>
@@ -20311,9 +20320,7 @@
       <c r="J69" s="54">
         <v>11</v>
       </c>
-      <c r="K69" s="21">
-        <v>67</v>
-      </c>
+      <c r="K69" s="21"/>
       <c r="L69" s="49" t="s">
         <v>267</v>
       </c>
@@ -20351,9 +20358,7 @@
       <c r="J70" s="54">
         <v>11</v>
       </c>
-      <c r="K70" s="21">
-        <v>68</v>
-      </c>
+      <c r="K70" s="21"/>
       <c r="L70" s="49" t="s">
         <v>267</v>
       </c>
@@ -20391,9 +20396,7 @@
       <c r="J71" s="159">
         <v>3</v>
       </c>
-      <c r="K71" s="21">
-        <v>69</v>
-      </c>
+      <c r="K71" s="21"/>
       <c r="L71" s="8" t="s">
         <v>267</v>
       </c>
@@ -20430,9 +20433,7 @@
       <c r="J72" s="159">
         <v>11</v>
       </c>
-      <c r="K72" s="21">
-        <v>70</v>
-      </c>
+      <c r="K72" s="21"/>
       <c r="L72" s="8" t="s">
         <v>267</v>
       </c>
@@ -20469,9 +20470,7 @@
       <c r="J73" s="159">
         <v>3</v>
       </c>
-      <c r="K73" s="21">
-        <v>71</v>
-      </c>
+      <c r="K73" s="21"/>
       <c r="L73" s="8" t="s">
         <v>267</v>
       </c>
@@ -20508,9 +20507,7 @@
       <c r="J74" s="161">
         <v>11</v>
       </c>
-      <c r="K74" s="21">
-        <v>72</v>
-      </c>
+      <c r="K74" s="21"/>
       <c r="L74" s="8" t="s">
         <v>267</v>
       </c>
@@ -20545,9 +20542,7 @@
       <c r="J75" s="159">
         <v>11</v>
       </c>
-      <c r="K75" s="21">
-        <v>73</v>
-      </c>
+      <c r="K75" s="21"/>
       <c r="L75" s="8" t="s">
         <v>267</v>
       </c>
@@ -20584,9 +20579,7 @@
       <c r="J76" s="159">
         <v>3</v>
       </c>
-      <c r="K76" s="21">
-        <v>74</v>
-      </c>
+      <c r="K76" s="21"/>
       <c r="L76" s="8" t="s">
         <v>267</v>
       </c>
@@ -20623,9 +20616,7 @@
       <c r="J77" s="159">
         <v>3</v>
       </c>
-      <c r="K77" s="21">
-        <v>75</v>
-      </c>
+      <c r="K77" s="21"/>
       <c r="L77" s="8" t="s">
         <v>267</v>
       </c>
@@ -20662,9 +20653,7 @@
       <c r="J78" s="159">
         <v>4</v>
       </c>
-      <c r="K78" s="21">
-        <v>76</v>
-      </c>
+      <c r="K78" s="21"/>
       <c r="L78" s="8" t="s">
         <v>267</v>
       </c>
@@ -20701,9 +20690,7 @@
       <c r="J79" s="159">
         <v>4</v>
       </c>
-      <c r="K79" s="21">
-        <v>77</v>
-      </c>
+      <c r="K79" s="21"/>
       <c r="L79" s="8" t="s">
         <v>267</v>
       </c>
@@ -20740,9 +20727,7 @@
       <c r="J80" s="159">
         <v>4</v>
       </c>
-      <c r="K80" s="21">
-        <v>78</v>
-      </c>
+      <c r="K80" s="21"/>
       <c r="L80" s="8" t="s">
         <v>267</v>
       </c>
@@ -20779,9 +20764,7 @@
       <c r="J81" s="159">
         <v>4</v>
       </c>
-      <c r="K81" s="21">
-        <v>79</v>
-      </c>
+      <c r="K81" s="21"/>
       <c r="L81" s="8" t="s">
         <v>267</v>
       </c>
@@ -20818,9 +20801,7 @@
       <c r="J82" s="159">
         <v>4</v>
       </c>
-      <c r="K82" s="21">
-        <v>80</v>
-      </c>
+      <c r="K82" s="21"/>
       <c r="L82" s="8" t="s">
         <v>267</v>
       </c>
@@ -20857,9 +20838,7 @@
       <c r="J83" s="159">
         <v>11</v>
       </c>
-      <c r="K83" s="21">
-        <v>81</v>
-      </c>
+      <c r="K83" s="21"/>
       <c r="L83" s="8" t="s">
         <v>267</v>
       </c>
@@ -20894,9 +20873,7 @@
       <c r="J84" s="159">
         <v>11</v>
       </c>
-      <c r="K84" s="21">
-        <v>82</v>
-      </c>
+      <c r="K84" s="21"/>
       <c r="L84" s="8" t="s">
         <v>267</v>
       </c>
@@ -20931,9 +20908,7 @@
       <c r="J85" s="159">
         <v>1</v>
       </c>
-      <c r="K85" s="21">
-        <v>83</v>
-      </c>
+      <c r="K85" s="21"/>
       <c r="L85" s="8" t="s">
         <v>267</v>
       </c>
@@ -20970,9 +20945,7 @@
       <c r="J86" s="8">
         <v>5</v>
       </c>
-      <c r="K86" s="21">
-        <v>84</v>
-      </c>
+      <c r="K86" s="21"/>
       <c r="L86" s="8"/>
       <c r="M86" s="11" t="s">
         <v>362</v>
@@ -21007,9 +20980,7 @@
       <c r="J87" s="8">
         <v>5</v>
       </c>
-      <c r="K87" s="21">
-        <v>85</v>
-      </c>
+      <c r="K87" s="21"/>
       <c r="L87" s="8"/>
       <c r="M87" s="11" t="s">
         <v>362</v>
@@ -21044,9 +21015,7 @@
       <c r="J88" s="8">
         <v>5</v>
       </c>
-      <c r="K88" s="21">
-        <v>86</v>
-      </c>
+      <c r="K88" s="21"/>
       <c r="L88" s="8"/>
       <c r="M88" s="11" t="s">
         <v>362</v>
@@ -21081,9 +21050,7 @@
       <c r="J89" s="8">
         <v>5</v>
       </c>
-      <c r="K89" s="21">
-        <v>87</v>
-      </c>
+      <c r="K89" s="21"/>
       <c r="L89" s="8"/>
       <c r="M89" s="11" t="s">
         <v>362</v>
@@ -21114,9 +21081,7 @@
       <c r="J90" s="8">
         <v>7</v>
       </c>
-      <c r="K90" s="21">
-        <v>88</v>
-      </c>
+      <c r="K90" s="21"/>
       <c r="L90" s="8"/>
       <c r="M90" s="11" t="s">
         <v>362</v>
@@ -21151,9 +21116,7 @@
       <c r="J91" s="8">
         <v>7</v>
       </c>
-      <c r="K91" s="21">
-        <v>89</v>
-      </c>
+      <c r="K91" s="21"/>
       <c r="L91" s="8"/>
       <c r="M91" s="11" t="s">
         <v>362</v>
@@ -21188,9 +21151,7 @@
       <c r="J92" s="8">
         <v>7</v>
       </c>
-      <c r="K92" s="21">
-        <v>90</v>
-      </c>
+      <c r="K92" s="21"/>
       <c r="L92" s="8"/>
       <c r="M92" s="11" t="s">
         <v>362</v>
@@ -21225,9 +21186,7 @@
       <c r="J93" s="8">
         <v>7</v>
       </c>
-      <c r="K93" s="21">
-        <v>91</v>
-      </c>
+      <c r="K93" s="21"/>
       <c r="L93" s="8"/>
       <c r="M93" s="11" t="s">
         <v>362</v>
@@ -21262,9 +21221,7 @@
       <c r="J94" s="8">
         <v>7</v>
       </c>
-      <c r="K94" s="21">
-        <v>92</v>
-      </c>
+      <c r="K94" s="21"/>
       <c r="L94" s="8"/>
       <c r="M94" s="11" t="s">
         <v>362</v>
@@ -21299,9 +21256,7 @@
       <c r="J95" s="8">
         <v>7</v>
       </c>
-      <c r="K95" s="21">
-        <v>93</v>
-      </c>
+      <c r="K95" s="21"/>
       <c r="L95" s="8"/>
       <c r="M95" s="11" t="s">
         <v>362</v>
@@ -21336,9 +21291,7 @@
       <c r="J96" s="159">
         <v>7</v>
       </c>
-      <c r="K96" s="21">
-        <v>94</v>
-      </c>
+      <c r="K96" s="21"/>
       <c r="L96" s="8" t="s">
         <v>267</v>
       </c>
@@ -21375,9 +21328,7 @@
       <c r="J97" s="159">
         <v>7</v>
       </c>
-      <c r="K97" s="21">
-        <v>95</v>
-      </c>
+      <c r="K97" s="21"/>
       <c r="L97" s="8" t="s">
         <v>267</v>
       </c>
@@ -21416,9 +21367,7 @@
       <c r="J98" s="159">
         <v>5</v>
       </c>
-      <c r="K98" s="21">
-        <v>96</v>
-      </c>
+      <c r="K98" s="21"/>
       <c r="L98" s="8"/>
       <c r="M98" s="11" t="s">
         <v>362</v>
@@ -21455,9 +21404,7 @@
       <c r="J99" s="159">
         <v>5</v>
       </c>
-      <c r="K99" s="21">
-        <v>97</v>
-      </c>
+      <c r="K99" s="21"/>
       <c r="L99" s="8"/>
       <c r="M99" s="11" t="s">
         <v>362</v>
@@ -21494,9 +21441,7 @@
       <c r="J100" s="159">
         <v>5</v>
       </c>
-      <c r="K100" s="21">
-        <v>98</v>
-      </c>
+      <c r="K100" s="21"/>
       <c r="L100" s="8"/>
       <c r="M100" s="11" t="s">
         <v>362</v>
@@ -21533,9 +21478,7 @@
       <c r="J101" s="159">
         <v>5</v>
       </c>
-      <c r="K101" s="21">
-        <v>99</v>
-      </c>
+      <c r="K101" s="21"/>
       <c r="L101" s="8"/>
       <c r="M101" s="11" t="s">
         <v>362</v>
@@ -21572,9 +21515,7 @@
       <c r="J102" s="159">
         <v>3</v>
       </c>
-      <c r="K102" s="21">
-        <v>100</v>
-      </c>
+      <c r="K102" s="21"/>
       <c r="L102" s="8"/>
       <c r="M102" s="11" t="s">
         <v>362</v>
@@ -21611,9 +21552,7 @@
       <c r="J103" s="159">
         <v>3</v>
       </c>
-      <c r="K103" s="21">
-        <v>101</v>
-      </c>
+      <c r="K103" s="21"/>
       <c r="L103" s="8"/>
       <c r="M103" s="11" t="s">
         <v>362</v>
@@ -21650,9 +21589,7 @@
       <c r="J104" s="159">
         <v>3</v>
       </c>
-      <c r="K104" s="21">
-        <v>102</v>
-      </c>
+      <c r="K104" s="21"/>
       <c r="L104" s="8"/>
       <c r="M104" s="11" t="s">
         <v>362</v>
@@ -21689,9 +21626,7 @@
       <c r="J105" s="159">
         <v>3</v>
       </c>
-      <c r="K105" s="21">
-        <v>103</v>
-      </c>
+      <c r="K105" s="21"/>
       <c r="L105" s="8"/>
       <c r="M105" s="11" t="s">
         <v>362</v>
@@ -21728,9 +21663,7 @@
       <c r="J106" s="159">
         <v>1</v>
       </c>
-      <c r="K106" s="21">
-        <v>104</v>
-      </c>
+      <c r="K106" s="21"/>
       <c r="L106" s="8"/>
       <c r="M106" s="11" t="s">
         <v>362</v>
@@ -21767,9 +21700,7 @@
       <c r="J107" s="8">
         <v>3</v>
       </c>
-      <c r="K107" s="21">
-        <v>105</v>
-      </c>
+      <c r="K107" s="21"/>
       <c r="L107" s="8" t="s">
         <v>269</v>
       </c>
@@ -21808,9 +21739,7 @@
       <c r="J108" s="8">
         <v>3</v>
       </c>
-      <c r="K108" s="21">
-        <v>106</v>
-      </c>
+      <c r="K108" s="21"/>
       <c r="L108" s="8" t="s">
         <v>269</v>
       </c>
@@ -21849,9 +21778,7 @@
       <c r="J109" s="8">
         <v>12</v>
       </c>
-      <c r="K109" s="21">
-        <v>107</v>
-      </c>
+      <c r="K109" s="21"/>
       <c r="L109" s="8" t="s">
         <v>269</v>
       </c>
@@ -21890,9 +21817,7 @@
       <c r="J110" s="8">
         <v>11</v>
       </c>
-      <c r="K110" s="21">
-        <v>108</v>
-      </c>
+      <c r="K110" s="21"/>
       <c r="L110" s="8" t="s">
         <v>269</v>
       </c>
@@ -21929,9 +21854,7 @@
       <c r="J111" s="159">
         <v>11</v>
       </c>
-      <c r="K111" s="21">
-        <v>109</v>
-      </c>
+      <c r="K111" s="21"/>
       <c r="L111" s="8" t="s">
         <v>269</v>
       </c>
@@ -21968,9 +21891,7 @@
       <c r="J112" s="159">
         <v>7</v>
       </c>
-      <c r="K112" s="21">
-        <v>110</v>
-      </c>
+      <c r="K112" s="21"/>
       <c r="L112" s="8" t="s">
         <v>269</v>
       </c>
@@ -22007,9 +21928,7 @@
       <c r="J113" s="159">
         <v>7</v>
       </c>
-      <c r="K113" s="21">
-        <v>111</v>
-      </c>
+      <c r="K113" s="21"/>
       <c r="L113" s="8" t="s">
         <v>269</v>
       </c>
@@ -22046,9 +21965,7 @@
       <c r="J114" s="159">
         <v>7</v>
       </c>
-      <c r="K114" s="21">
-        <v>112</v>
-      </c>
+      <c r="K114" s="21"/>
       <c r="L114" s="8" t="s">
         <v>269</v>
       </c>
@@ -22085,9 +22002,7 @@
       <c r="J115" s="159">
         <v>7</v>
       </c>
-      <c r="K115" s="21">
-        <v>113</v>
-      </c>
+      <c r="K115" s="21"/>
       <c r="L115" s="8" t="s">
         <v>269</v>
       </c>
@@ -22124,9 +22039,7 @@
       <c r="J116" s="159">
         <v>7</v>
       </c>
-      <c r="K116" s="21">
-        <v>114</v>
-      </c>
+      <c r="K116" s="21"/>
       <c r="L116" s="8" t="s">
         <v>269</v>
       </c>
@@ -22163,9 +22076,7 @@
       <c r="J117" s="159">
         <v>7</v>
       </c>
-      <c r="K117" s="21">
-        <v>115</v>
-      </c>
+      <c r="K117" s="21"/>
       <c r="L117" s="8" t="s">
         <v>269</v>
       </c>
@@ -22202,9 +22113,7 @@
       <c r="J118" s="159">
         <v>7</v>
       </c>
-      <c r="K118" s="21">
-        <v>116</v>
-      </c>
+      <c r="K118" s="21"/>
       <c r="L118" s="8" t="s">
         <v>269</v>
       </c>
@@ -22241,9 +22150,7 @@
       <c r="J119" s="159">
         <v>7</v>
       </c>
-      <c r="K119" s="21">
-        <v>117</v>
-      </c>
+      <c r="K119" s="21"/>
       <c r="L119" s="8" t="s">
         <v>269</v>
       </c>
@@ -22280,9 +22187,7 @@
       <c r="J120" s="159">
         <v>7</v>
       </c>
-      <c r="K120" s="21">
-        <v>118</v>
-      </c>
+      <c r="K120" s="21"/>
       <c r="L120" s="8" t="s">
         <v>269</v>
       </c>
@@ -22319,9 +22224,7 @@
       <c r="J121" s="159">
         <v>5</v>
       </c>
-      <c r="K121" s="21">
-        <v>119</v>
-      </c>
+      <c r="K121" s="21"/>
       <c r="L121" s="8" t="s">
         <v>269</v>
       </c>
@@ -22358,9 +22261,7 @@
       <c r="J122" s="159">
         <v>4</v>
       </c>
-      <c r="K122" s="21">
-        <v>120</v>
-      </c>
+      <c r="K122" s="21"/>
       <c r="L122" s="8" t="s">
         <v>269</v>
       </c>
@@ -22397,9 +22298,7 @@
       <c r="J123" s="159">
         <v>4</v>
       </c>
-      <c r="K123" s="21">
-        <v>121</v>
-      </c>
+      <c r="K123" s="21"/>
       <c r="L123" s="8" t="s">
         <v>269</v>
       </c>
@@ -22436,9 +22335,7 @@
       <c r="J124" s="159">
         <v>4</v>
       </c>
-      <c r="K124" s="21">
-        <v>122</v>
-      </c>
+      <c r="K124" s="21"/>
       <c r="L124" s="8" t="s">
         <v>269</v>
       </c>
@@ -22477,9 +22374,7 @@
       <c r="J125" s="8">
         <v>11</v>
       </c>
-      <c r="K125" s="21">
-        <v>123</v>
-      </c>
+      <c r="K125" s="21"/>
       <c r="L125" s="8" t="s">
         <v>271</v>
       </c>
@@ -22518,9 +22413,7 @@
       <c r="J126" s="8">
         <v>3</v>
       </c>
-      <c r="K126" s="21">
-        <v>124</v>
-      </c>
+      <c r="K126" s="21"/>
       <c r="L126" s="8" t="s">
         <v>271</v>
       </c>
@@ -22559,9 +22452,7 @@
       <c r="J127" s="8">
         <v>3</v>
       </c>
-      <c r="K127" s="21">
-        <v>125</v>
-      </c>
+      <c r="K127" s="21"/>
       <c r="L127" s="8" t="s">
         <v>271</v>
       </c>
@@ -22600,9 +22491,7 @@
       <c r="J128" s="159">
         <v>7</v>
       </c>
-      <c r="K128" s="21">
-        <v>126</v>
-      </c>
+      <c r="K128" s="21"/>
       <c r="L128" s="8" t="s">
         <v>271</v>
       </c>
@@ -22641,9 +22530,7 @@
       <c r="J129" s="159">
         <v>7</v>
       </c>
-      <c r="K129" s="21">
-        <v>127</v>
-      </c>
+      <c r="K129" s="21"/>
       <c r="L129" s="8" t="s">
         <v>271</v>
       </c>
@@ -22682,9 +22569,7 @@
       <c r="J130" s="159">
         <v>4</v>
       </c>
-      <c r="K130" s="21">
-        <v>128</v>
-      </c>
+      <c r="K130" s="21"/>
       <c r="L130" s="8" t="s">
         <v>271</v>
       </c>
@@ -22723,9 +22608,7 @@
       <c r="J131" s="159">
         <v>1</v>
       </c>
-      <c r="K131" s="21">
-        <v>129</v>
-      </c>
+      <c r="K131" s="21"/>
       <c r="L131" s="8" t="s">
         <v>271</v>
       </c>
@@ -22764,9 +22647,7 @@
       <c r="J132" s="8">
         <v>11</v>
       </c>
-      <c r="K132" s="21">
-        <v>130</v>
-      </c>
+      <c r="K132" s="21"/>
       <c r="L132" s="8" t="s">
         <v>273</v>
       </c>
@@ -22805,9 +22686,7 @@
       <c r="J133" s="159">
         <v>3</v>
       </c>
-      <c r="K133" s="21">
-        <v>131</v>
-      </c>
+      <c r="K133" s="21"/>
       <c r="L133" s="8" t="s">
         <v>273</v>
       </c>
@@ -22846,9 +22725,7 @@
       <c r="J134" s="159">
         <v>7</v>
       </c>
-      <c r="K134" s="21">
-        <v>132</v>
-      </c>
+      <c r="K134" s="21"/>
       <c r="L134" s="8" t="s">
         <v>273</v>
       </c>
@@ -22887,9 +22764,7 @@
       <c r="J135" s="159">
         <v>7</v>
       </c>
-      <c r="K135" s="21">
-        <v>133</v>
-      </c>
+      <c r="K135" s="21"/>
       <c r="L135" s="8" t="s">
         <v>273</v>
       </c>
@@ -22928,9 +22803,7 @@
       <c r="J136" s="159">
         <v>5</v>
       </c>
-      <c r="K136" s="21">
-        <v>134</v>
-      </c>
+      <c r="K136" s="21"/>
       <c r="L136" s="8" t="s">
         <v>273</v>
       </c>
@@ -22969,9 +22842,7 @@
       <c r="J137" s="159">
         <v>5</v>
       </c>
-      <c r="K137" s="21">
-        <v>135</v>
-      </c>
+      <c r="K137" s="21"/>
       <c r="L137" s="8" t="s">
         <v>273</v>
       </c>
@@ -23010,9 +22881,7 @@
       <c r="J138" s="159">
         <v>5</v>
       </c>
-      <c r="K138" s="21">
-        <v>136</v>
-      </c>
+      <c r="K138" s="21"/>
       <c r="L138" s="8" t="s">
         <v>273</v>
       </c>
@@ -23051,9 +22920,7 @@
       <c r="J139" s="159">
         <v>4</v>
       </c>
-      <c r="K139" s="21">
-        <v>137</v>
-      </c>
+      <c r="K139" s="21"/>
       <c r="L139" s="8" t="s">
         <v>273</v>
       </c>
@@ -23092,9 +22959,7 @@
       <c r="J140" s="159">
         <v>1</v>
       </c>
-      <c r="K140" s="21">
-        <v>138</v>
-      </c>
+      <c r="K140" s="21"/>
       <c r="L140" s="8" t="s">
         <v>273</v>
       </c>
@@ -23133,9 +22998,7 @@
       <c r="J141" s="159">
         <v>11</v>
       </c>
-      <c r="K141" s="21">
-        <v>139</v>
-      </c>
+      <c r="K141" s="21"/>
       <c r="L141" s="8" t="s">
         <v>275</v>
       </c>
@@ -23174,9 +23037,7 @@
       <c r="J142" s="159">
         <v>7</v>
       </c>
-      <c r="K142" s="21">
-        <v>140</v>
-      </c>
+      <c r="K142" s="21"/>
       <c r="L142" s="8" t="s">
         <v>275</v>
       </c>
@@ -23215,9 +23076,7 @@
       <c r="J143" s="159">
         <v>7</v>
       </c>
-      <c r="K143" s="21">
-        <v>141</v>
-      </c>
+      <c r="K143" s="21"/>
       <c r="L143" s="8" t="s">
         <v>275</v>
       </c>
@@ -23256,9 +23115,7 @@
       <c r="J144" s="159">
         <v>7</v>
       </c>
-      <c r="K144" s="21">
-        <v>142</v>
-      </c>
+      <c r="K144" s="21"/>
       <c r="L144" s="8" t="s">
         <v>275</v>
       </c>
@@ -23297,9 +23154,7 @@
       <c r="J145" s="75">
         <v>7</v>
       </c>
-      <c r="K145" s="21">
-        <v>143</v>
-      </c>
+      <c r="K145" s="21"/>
       <c r="L145" s="75" t="s">
         <v>275</v>
       </c>
@@ -23338,9 +23193,7 @@
       <c r="J146" s="75">
         <v>3</v>
       </c>
-      <c r="K146" s="21">
-        <v>144</v>
-      </c>
+      <c r="K146" s="21"/>
       <c r="L146" s="75" t="s">
         <v>275</v>
       </c>
@@ -23380,9 +23233,7 @@
       <c r="J147" s="75">
         <v>3</v>
       </c>
-      <c r="K147" s="21">
-        <v>145</v>
-      </c>
+      <c r="K147" s="21"/>
       <c r="L147" s="75" t="s">
         <v>275</v>
       </c>
@@ -23422,9 +23273,7 @@
       <c r="J148" s="21">
         <v>4</v>
       </c>
-      <c r="K148" s="21">
-        <v>146</v>
-      </c>
+      <c r="K148" s="21"/>
       <c r="L148" s="75" t="s">
         <v>275</v>
       </c>
@@ -23464,9 +23313,7 @@
       <c r="J149" s="21">
         <v>5</v>
       </c>
-      <c r="K149" s="21">
-        <v>147</v>
-      </c>
+      <c r="K149" s="21"/>
       <c r="L149" s="75" t="s">
         <v>275</v>
       </c>
@@ -23506,9 +23353,7 @@
       <c r="J150" s="21">
         <v>5</v>
       </c>
-      <c r="K150" s="21">
-        <v>148</v>
-      </c>
+      <c r="K150" s="21"/>
       <c r="L150" s="8" t="s">
         <v>275</v>
       </c>
@@ -23518,46 +23363,6133 @@
       <c r="N150" s="19"/>
     </row>
     <row r="151" spans="1:14" ht="36">
-      <c r="A151" s="167" t="s">
+      <c r="A151" s="75" t="s">
         <v>574</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="75">
         <v>11</v>
       </c>
-      <c r="E151" s="21">
+      <c r="E151" s="75">
         <v>347.64</v>
       </c>
-      <c r="F151" s="21">
+      <c r="F151" s="75">
         <v>0.17</v>
       </c>
-      <c r="G151" s="21">
+      <c r="G151" s="75">
         <v>0.54</v>
       </c>
-      <c r="H151" s="8" t="s">
+      <c r="H151" s="75" t="s">
         <v>576</v>
       </c>
-      <c r="I151" s="21" t="s">
+      <c r="I151" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="J151" s="21">
+      <c r="J151" s="75">
         <v>15</v>
       </c>
-      <c r="K151" s="21">
+      <c r="K151" s="75"/>
+      <c r="L151" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="M151" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="N151" s="19"/>
+    </row>
+    <row r="152" spans="1:14" ht="36">
+      <c r="A152" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B152" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="75">
+        <v>9.42</v>
+      </c>
+      <c r="E152" s="75">
+        <v>237.21</v>
+      </c>
+      <c r="F152" s="75">
+        <v>1</v>
+      </c>
+      <c r="G152" s="75">
+        <v>1</v>
+      </c>
+      <c r="H152" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I152" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" s="75">
+        <v>10</v>
+      </c>
+      <c r="K152" s="75"/>
+      <c r="L152" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M152" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="36">
+      <c r="A153" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="75">
+        <v>7</v>
+      </c>
+      <c r="E153" s="75">
+        <v>149.29</v>
+      </c>
+      <c r="F153" s="75">
+        <v>1</v>
+      </c>
+      <c r="G153" s="75">
+        <v>1</v>
+      </c>
+      <c r="H153" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I153" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" s="75">
+        <v>10</v>
+      </c>
+      <c r="K153" s="75"/>
+      <c r="L153" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M153" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="36">
+      <c r="A154" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="75">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E154" s="75">
+        <v>732.6</v>
+      </c>
+      <c r="F154" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="G154" s="75">
+        <v>1</v>
+      </c>
+      <c r="H154" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I154" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" s="75">
+        <v>8</v>
+      </c>
+      <c r="K154" s="75"/>
+      <c r="L154" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M154" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="36">
+      <c r="A155" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C155" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="75">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="E155" s="75">
+        <v>99.9</v>
+      </c>
+      <c r="F155" s="75">
+        <v>1</v>
+      </c>
+      <c r="G155" s="75">
+        <v>1</v>
+      </c>
+      <c r="H155" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I155" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" s="75">
+        <v>8</v>
+      </c>
+      <c r="K155" s="75"/>
+      <c r="L155" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M155" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="36">
+      <c r="A156" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B156" s="75" t="s">
+        <v>583</v>
+      </c>
+      <c r="C156" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D156" s="75">
+        <v>1</v>
+      </c>
+      <c r="E156" s="75">
+        <v>69.47</v>
+      </c>
+      <c r="F156" s="75">
+        <v>0</v>
+      </c>
+      <c r="G156" s="75">
+        <v>1</v>
+      </c>
+      <c r="H156" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I156" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" s="75">
+        <v>3</v>
+      </c>
+      <c r="K156" s="75"/>
+      <c r="L156" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M156" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="36">
+      <c r="A157" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="C157" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D157" s="75">
+        <v>1</v>
+      </c>
+      <c r="E157" s="75">
+        <v>247.53</v>
+      </c>
+      <c r="F157" s="75">
+        <v>0</v>
+      </c>
+      <c r="G157" s="75">
+        <v>1</v>
+      </c>
+      <c r="H157" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I157" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" s="75">
+        <v>5</v>
+      </c>
+      <c r="K157" s="75"/>
+      <c r="L157" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="M157" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="36">
+      <c r="A158" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="75">
+        <v>5.7</v>
+      </c>
+      <c r="E158" s="75">
+        <v>287.52999999999997</v>
+      </c>
+      <c r="F158" s="75">
+        <v>1</v>
+      </c>
+      <c r="G158" s="75">
+        <v>1</v>
+      </c>
+      <c r="H158" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I158" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="75">
+        <v>10</v>
+      </c>
+      <c r="K158" s="75"/>
+      <c r="L158" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M158" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="36">
+      <c r="A159" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="75">
+        <v>16.02</v>
+      </c>
+      <c r="E159" s="75">
+        <v>377.59</v>
+      </c>
+      <c r="F159" s="75">
+        <v>1</v>
+      </c>
+      <c r="G159" s="75">
+        <v>1</v>
+      </c>
+      <c r="H159" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I159" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" s="75">
+        <v>10</v>
+      </c>
+      <c r="K159" s="75"/>
+      <c r="L159" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M159" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="36">
+      <c r="A160" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="75">
+        <v>9.42</v>
+      </c>
+      <c r="E160" s="75">
+        <v>304.02999999999997</v>
+      </c>
+      <c r="F160" s="75">
+        <v>1</v>
+      </c>
+      <c r="G160" s="75">
+        <v>1</v>
+      </c>
+      <c r="H160" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I160" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J160" s="75">
+        <v>10</v>
+      </c>
+      <c r="K160" s="75"/>
+      <c r="L160" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M160" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="36">
+      <c r="A161" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B161" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="75">
+        <v>1.79</v>
+      </c>
+      <c r="E161" s="75">
+        <v>53.047480929999999</v>
+      </c>
+      <c r="F161" s="75">
+        <v>1</v>
+      </c>
+      <c r="G161" s="75">
+        <v>1</v>
+      </c>
+      <c r="H161" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I161" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" s="75">
+        <v>8</v>
+      </c>
+      <c r="K161" s="75"/>
+      <c r="L161" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M161" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="36">
+      <c r="A162" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="C162" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="75">
+        <v>2.72</v>
+      </c>
+      <c r="E162" s="75">
+        <v>29.974988280000002</v>
+      </c>
+      <c r="F162" s="75">
+        <v>1</v>
+      </c>
+      <c r="G162" s="75">
+        <v>1</v>
+      </c>
+      <c r="H162" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I162" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" s="75">
+        <v>8</v>
+      </c>
+      <c r="K162" s="75"/>
+      <c r="L162" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M162" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="36">
+      <c r="A163" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="C163" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D163" s="75">
+        <v>1</v>
+      </c>
+      <c r="E163" s="75">
+        <v>244.2</v>
+      </c>
+      <c r="F163" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="G163" s="75">
+        <v>1</v>
+      </c>
+      <c r="H163" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I163" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" s="75">
+        <v>5</v>
+      </c>
+      <c r="K163" s="75"/>
+      <c r="L163" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M163" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="36">
+      <c r="A164" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="75" t="s">
+        <v>586</v>
+      </c>
+      <c r="C164" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D164" s="75">
+        <v>1</v>
+      </c>
+      <c r="E164" s="75">
+        <v>210.95</v>
+      </c>
+      <c r="F164" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="G164" s="75">
+        <v>1</v>
+      </c>
+      <c r="H164" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="I164" s="75"/>
+      <c r="J164" s="75">
+        <v>5</v>
+      </c>
+      <c r="K164" s="75"/>
+      <c r="L164" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M164" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="36">
+      <c r="A165" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="75">
+        <v>23.815000000000001</v>
+      </c>
+      <c r="E165" s="75">
+        <v>638.85</v>
+      </c>
+      <c r="F165" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G165" s="75">
+        <v>1</v>
+      </c>
+      <c r="H165" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I165" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J165" s="75">
+        <v>11</v>
+      </c>
+      <c r="K165" s="75"/>
+      <c r="L165" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M165" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="36">
+      <c r="A166" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="75">
+        <v>2</v>
+      </c>
+      <c r="E166" s="75">
+        <v>507.95</v>
+      </c>
+      <c r="F166" s="75">
+        <v>0.78</v>
+      </c>
+      <c r="G166" s="75">
+        <v>1</v>
+      </c>
+      <c r="H166" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I166" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J166" s="75">
+        <v>11</v>
+      </c>
+      <c r="K166" s="75"/>
+      <c r="L166" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M166" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="36">
+      <c r="A167" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C167" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D167" s="75">
+        <v>1</v>
+      </c>
+      <c r="E167" s="75">
+        <v>141.3235316</v>
+      </c>
+      <c r="F167" s="75">
+        <v>0</v>
+      </c>
+      <c r="G167" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="H167" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I167" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J167" s="75">
+        <v>3</v>
+      </c>
+      <c r="K167" s="75"/>
+      <c r="L167" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M167" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="36">
+      <c r="A168" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C168" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D168" s="75">
+        <v>1</v>
+      </c>
+      <c r="E168" s="75">
+        <v>154.0745714</v>
+      </c>
+      <c r="F168" s="75">
+        <v>0</v>
+      </c>
+      <c r="G168" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="H168" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I168" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J168" s="75">
+        <v>3</v>
+      </c>
+      <c r="K168" s="75"/>
+      <c r="L168" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M168" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="36">
+      <c r="A169" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C169" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D169" s="75">
+        <v>1</v>
+      </c>
+      <c r="E169" s="75">
+        <v>151.0703345</v>
+      </c>
+      <c r="F169" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="G169" s="75">
+        <v>1</v>
+      </c>
+      <c r="H169" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I169" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J169" s="75">
+        <v>3</v>
+      </c>
+      <c r="K169" s="75"/>
+      <c r="L169" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M169" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="36">
+      <c r="A170" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="L151" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="M151" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="N151" s="19"/>
+      <c r="C170" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D170" s="75">
+        <v>1</v>
+      </c>
+      <c r="E170" s="75">
+        <v>143.81093200000001</v>
+      </c>
+      <c r="F170" s="75">
+        <v>0.1</v>
+      </c>
+      <c r="G170" s="75">
+        <v>0.7</v>
+      </c>
+      <c r="H170" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I170" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J170" s="75">
+        <v>3</v>
+      </c>
+      <c r="K170" s="75"/>
+      <c r="L170" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M170" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="36">
+      <c r="A171" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D171" s="75">
+        <v>1</v>
+      </c>
+      <c r="E171" s="75">
+        <v>155.69327179999999</v>
+      </c>
+      <c r="F171" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="G171" s="75">
+        <v>1</v>
+      </c>
+      <c r="H171" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I171" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J171" s="75">
+        <v>3</v>
+      </c>
+      <c r="K171" s="75"/>
+      <c r="L171" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M171" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="36">
+      <c r="A172" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C172" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D172" s="75">
+        <v>1</v>
+      </c>
+      <c r="E172" s="75">
+        <v>216.75147200000001</v>
+      </c>
+      <c r="F172" s="75">
+        <v>0</v>
+      </c>
+      <c r="G172" s="75">
+        <v>0.7</v>
+      </c>
+      <c r="H172" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I172" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J172" s="75">
+        <v>3</v>
+      </c>
+      <c r="K172" s="75"/>
+      <c r="L172" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M172" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="36">
+      <c r="A173" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B173" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="75">
+        <v>1</v>
+      </c>
+      <c r="E173" s="75">
+        <v>353.8204149</v>
+      </c>
+      <c r="F173" s="75">
+        <v>1</v>
+      </c>
+      <c r="G173" s="75">
+        <v>1</v>
+      </c>
+      <c r="H173" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I173" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J173" s="75">
+        <v>3</v>
+      </c>
+      <c r="K173" s="75"/>
+      <c r="L173" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M173" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="36">
+      <c r="A174" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B174" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D174" s="75">
+        <v>1</v>
+      </c>
+      <c r="E174" s="75">
+        <v>415.5317</v>
+      </c>
+      <c r="F174" s="75">
+        <v>1</v>
+      </c>
+      <c r="G174" s="75">
+        <v>1</v>
+      </c>
+      <c r="H174" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I174" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J174" s="75">
+        <v>5</v>
+      </c>
+      <c r="K174" s="75"/>
+      <c r="L174" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M174" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="36">
+      <c r="A175" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B175" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D175" s="75">
+        <v>1</v>
+      </c>
+      <c r="E175" s="75">
+        <v>373.34588300000001</v>
+      </c>
+      <c r="F175" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G175" s="75">
+        <v>1</v>
+      </c>
+      <c r="H175" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I175" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J175" s="75">
+        <v>5</v>
+      </c>
+      <c r="K175" s="75"/>
+      <c r="L175" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M175" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="36">
+      <c r="A176" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B176" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C176" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D176" s="75">
+        <v>1</v>
+      </c>
+      <c r="E176" s="75">
+        <v>143.16040000000001</v>
+      </c>
+      <c r="F176" s="75">
+        <v>1</v>
+      </c>
+      <c r="G176" s="75">
+        <v>1</v>
+      </c>
+      <c r="H176" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I176" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J176" s="75">
+        <v>5</v>
+      </c>
+      <c r="K176" s="75"/>
+      <c r="L176" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M176" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="36">
+      <c r="A177" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C177" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D177" s="75">
+        <v>1</v>
+      </c>
+      <c r="E177" s="75">
+        <v>165.18307999999999</v>
+      </c>
+      <c r="F177" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G177" s="75">
+        <v>1</v>
+      </c>
+      <c r="H177" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I177" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J177" s="75">
+        <v>5</v>
+      </c>
+      <c r="K177" s="75"/>
+      <c r="L177" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M177" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="36">
+      <c r="A178" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B178" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C178" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D178" s="75">
+        <v>1</v>
+      </c>
+      <c r="E178" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F178" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G178" s="75">
+        <v>1</v>
+      </c>
+      <c r="H178" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I178" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J178" s="75">
+        <v>4</v>
+      </c>
+      <c r="K178" s="75"/>
+      <c r="L178" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M178" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="36">
+      <c r="A179" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C179" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D179" s="75">
+        <v>1</v>
+      </c>
+      <c r="E179" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F179" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G179" s="75">
+        <v>1</v>
+      </c>
+      <c r="H179" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I179" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J179" s="75">
+        <v>4</v>
+      </c>
+      <c r="K179" s="75"/>
+      <c r="L179" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M179" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="36">
+      <c r="A180" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B180" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="C180" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D180" s="75">
+        <v>1</v>
+      </c>
+      <c r="E180" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F180" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G180" s="75">
+        <v>1</v>
+      </c>
+      <c r="H180" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I180" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J180" s="75">
+        <v>4</v>
+      </c>
+      <c r="K180" s="75"/>
+      <c r="L180" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M180" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="36">
+      <c r="A181" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B181" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C181" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D181" s="75">
+        <v>1</v>
+      </c>
+      <c r="E181" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F181" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G181" s="75">
+        <v>1</v>
+      </c>
+      <c r="H181" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I181" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J181" s="75">
+        <v>4</v>
+      </c>
+      <c r="K181" s="75"/>
+      <c r="L181" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M181" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="36">
+      <c r="A182" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="75">
+        <v>1</v>
+      </c>
+      <c r="E182" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F182" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G182" s="75">
+        <v>1</v>
+      </c>
+      <c r="H182" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I182" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J182" s="75">
+        <v>4</v>
+      </c>
+      <c r="K182" s="75"/>
+      <c r="L182" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M182" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="36">
+      <c r="A183" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C183" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D183" s="75">
+        <v>1</v>
+      </c>
+      <c r="E183" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F183" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G183" s="75">
+        <v>1</v>
+      </c>
+      <c r="H183" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I183" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J183" s="75">
+        <v>4</v>
+      </c>
+      <c r="K183" s="75"/>
+      <c r="L183" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M183" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="36">
+      <c r="A184" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B184" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C184" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="75">
+        <v>1</v>
+      </c>
+      <c r="E184" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F184" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G184" s="75">
+        <v>1</v>
+      </c>
+      <c r="H184" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I184" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J184" s="75">
+        <v>4</v>
+      </c>
+      <c r="K184" s="75"/>
+      <c r="L184" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M184" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="36">
+      <c r="A185" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B185" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C185" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D185" s="75">
+        <v>1</v>
+      </c>
+      <c r="E185" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F185" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G185" s="75">
+        <v>1</v>
+      </c>
+      <c r="H185" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I185" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J185" s="75">
+        <v>4</v>
+      </c>
+      <c r="K185" s="75"/>
+      <c r="L185" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M185" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="36">
+      <c r="A186" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C186" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="75">
+        <v>1</v>
+      </c>
+      <c r="E186" s="75">
+        <v>37.083282497250011</v>
+      </c>
+      <c r="F186" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="G186" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="H186" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I186" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J186" s="75">
+        <v>4</v>
+      </c>
+      <c r="K186" s="75"/>
+      <c r="L186" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M186" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="36">
+      <c r="A187" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D187" s="75">
+        <v>15</v>
+      </c>
+      <c r="E187" s="75">
+        <v>150.75812082989998</v>
+      </c>
+      <c r="F187" s="75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G187" s="75">
+        <v>1</v>
+      </c>
+      <c r="H187" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="I187" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J187" s="75">
+        <v>1</v>
+      </c>
+      <c r="K187" s="75"/>
+      <c r="L187" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M187" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="36">
+      <c r="A188" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B188" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C188" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="75">
+        <v>3.036</v>
+      </c>
+      <c r="E188" s="75">
+        <v>45.420945379999999</v>
+      </c>
+      <c r="F188" s="75">
+        <v>1</v>
+      </c>
+      <c r="G188" s="75">
+        <v>1</v>
+      </c>
+      <c r="H188" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I188" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J188" s="75">
+        <v>7</v>
+      </c>
+      <c r="K188" s="75"/>
+      <c r="L188" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M188" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="36">
+      <c r="A189" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B189" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="C189" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="75">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="E189" s="75">
+        <v>61.408012210000003</v>
+      </c>
+      <c r="F189" s="75">
+        <v>1</v>
+      </c>
+      <c r="G189" s="75">
+        <v>1</v>
+      </c>
+      <c r="H189" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I189" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" s="75">
+        <v>7</v>
+      </c>
+      <c r="K189" s="75"/>
+      <c r="L189" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M189" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="36">
+      <c r="A190" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="C190" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" s="75">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="E190" s="75">
+        <v>67.666316499999994</v>
+      </c>
+      <c r="F190" s="75">
+        <v>1</v>
+      </c>
+      <c r="G190" s="75">
+        <v>1</v>
+      </c>
+      <c r="H190" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I190" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J190" s="75">
+        <v>7</v>
+      </c>
+      <c r="K190" s="75"/>
+      <c r="L190" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M190" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="36">
+      <c r="A191" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C191" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="75">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E191" s="75">
+        <v>25.706503519999998</v>
+      </c>
+      <c r="F191" s="75">
+        <v>0</v>
+      </c>
+      <c r="G191" s="75">
+        <v>0</v>
+      </c>
+      <c r="H191" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I191" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J191" s="75">
+        <v>7</v>
+      </c>
+      <c r="K191" s="75"/>
+      <c r="L191" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M191" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="36">
+      <c r="A192" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C192" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="75">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="E192" s="75">
+        <v>139.5950848</v>
+      </c>
+      <c r="F192" s="75">
+        <v>1</v>
+      </c>
+      <c r="G192" s="75">
+        <v>1</v>
+      </c>
+      <c r="H192" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I192" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J192" s="75">
+        <v>7</v>
+      </c>
+      <c r="K192" s="75"/>
+      <c r="L192" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M192" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="36">
+      <c r="A193" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B193" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C193" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="75">
+        <v>5.2176</v>
+      </c>
+      <c r="E193" s="75">
+        <v>103.1260091</v>
+      </c>
+      <c r="F193" s="75">
+        <v>0</v>
+      </c>
+      <c r="G193" s="75">
+        <v>0</v>
+      </c>
+      <c r="H193" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I193" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J193" s="75">
+        <v>7</v>
+      </c>
+      <c r="K193" s="75"/>
+      <c r="L193" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M193" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="36">
+      <c r="A194" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B194" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C194" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="75">
+        <v>4.327</v>
+      </c>
+      <c r="E194" s="75">
+        <v>115.1915241</v>
+      </c>
+      <c r="F194" s="75">
+        <v>0.45</v>
+      </c>
+      <c r="G194" s="75">
+        <v>1</v>
+      </c>
+      <c r="H194" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I194" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J194" s="75">
+        <v>7</v>
+      </c>
+      <c r="K194" s="75"/>
+      <c r="L194" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M194" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="36">
+      <c r="A195" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B195" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C195" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="75">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="E195" s="75">
+        <v>65.549040759999997</v>
+      </c>
+      <c r="F195" s="75">
+        <v>1</v>
+      </c>
+      <c r="G195" s="75">
+        <v>1</v>
+      </c>
+      <c r="H195" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I195" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J195" s="75">
+        <v>7</v>
+      </c>
+      <c r="K195" s="75"/>
+      <c r="L195" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M195" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="36">
+      <c r="A196" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C196" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="75">
+        <v>4.5</v>
+      </c>
+      <c r="E196" s="75">
+        <v>145.97701989999999</v>
+      </c>
+      <c r="F196" s="75">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G196" s="75">
+        <v>1</v>
+      </c>
+      <c r="H196" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I196" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J196" s="75">
+        <v>7</v>
+      </c>
+      <c r="K196" s="75"/>
+      <c r="L196" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M196" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="36">
+      <c r="A197" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="B197" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C197" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="75">
+        <v>7.51</v>
+      </c>
+      <c r="E197" s="75">
+        <v>137.49720149999999</v>
+      </c>
+      <c r="F197" s="75">
+        <v>0.53</v>
+      </c>
+      <c r="G197" s="75">
+        <v>1</v>
+      </c>
+      <c r="H197" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="I197" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J197" s="75">
+        <v>7</v>
+      </c>
+      <c r="K197" s="75"/>
+      <c r="L197" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="M197" s="75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="36">
+      <c r="A198" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D198" s="8">
+        <v>6</v>
+      </c>
+      <c r="E198" s="8">
+        <v>189.48</v>
+      </c>
+      <c r="F198" s="8">
+        <v>0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J198" s="8">
+        <v>15</v>
+      </c>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M198" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="36">
+      <c r="A199" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199" s="75">
+        <v>35.828000000000003</v>
+      </c>
+      <c r="E199" s="75">
+        <v>1263.9000000000001</v>
+      </c>
+      <c r="F199" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G199" s="75">
+        <v>1</v>
+      </c>
+      <c r="H199" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" s="75">
+        <v>9</v>
+      </c>
+      <c r="K199" s="75"/>
+      <c r="L199" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="M199" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N199" s="75"/>
+    </row>
+    <row r="200" spans="1:14" ht="36">
+      <c r="A200" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="75">
+        <v>10.69</v>
+      </c>
+      <c r="E200" s="75">
+        <v>200.45</v>
+      </c>
+      <c r="F200" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G200" s="75">
+        <v>1</v>
+      </c>
+      <c r="H200" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" s="75">
+        <v>9</v>
+      </c>
+      <c r="K200" s="75"/>
+      <c r="L200" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M200" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N200" s="75"/>
+    </row>
+    <row r="201" spans="1:14" ht="54">
+      <c r="A201" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B201" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201" s="75">
+        <v>7.37</v>
+      </c>
+      <c r="E201" s="75">
+        <v>68.311339590000003</v>
+      </c>
+      <c r="F201" s="75">
+        <v>0</v>
+      </c>
+      <c r="G201" s="75">
+        <v>1</v>
+      </c>
+      <c r="H201" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" s="75">
+        <v>8</v>
+      </c>
+      <c r="K201" s="75"/>
+      <c r="L201" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="M201" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N201" s="75"/>
+    </row>
+    <row r="202" spans="1:14" ht="54">
+      <c r="A202" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" s="75">
+        <v>5.8959999999999999</v>
+      </c>
+      <c r="E202" s="75">
+        <v>107.2236656</v>
+      </c>
+      <c r="F202" s="75">
+        <v>0.23</v>
+      </c>
+      <c r="G202" s="75">
+        <v>1</v>
+      </c>
+      <c r="H202" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I202" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="75">
+        <v>8</v>
+      </c>
+      <c r="K202" s="75"/>
+      <c r="L202" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="M202" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N202" s="75"/>
+    </row>
+    <row r="203" spans="1:14" ht="54">
+      <c r="A203" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B203" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203" s="75">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="E203" s="75">
+        <v>215.68431884647907</v>
+      </c>
+      <c r="F203" s="75">
+        <v>1</v>
+      </c>
+      <c r="G203" s="75">
+        <v>1</v>
+      </c>
+      <c r="H203" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I203" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="75">
+        <v>8</v>
+      </c>
+      <c r="K203" s="75"/>
+      <c r="L203" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M203" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N203" s="75"/>
+    </row>
+    <row r="204" spans="1:14" ht="54">
+      <c r="A204" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="75">
+        <v>3.66</v>
+      </c>
+      <c r="E204" s="75">
+        <v>106.6825267</v>
+      </c>
+      <c r="F204" s="75">
+        <v>1</v>
+      </c>
+      <c r="G204" s="75">
+        <v>1</v>
+      </c>
+      <c r="H204" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I204" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" s="75">
+        <v>8</v>
+      </c>
+      <c r="K204" s="75"/>
+      <c r="L204" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M204" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N204" s="75"/>
+    </row>
+    <row r="205" spans="1:14" ht="54">
+      <c r="A205" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B205" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C205" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205" s="75">
+        <v>5.0570000000000004</v>
+      </c>
+      <c r="E205" s="75">
+        <v>112.01917659999999</v>
+      </c>
+      <c r="F205" s="75">
+        <v>1</v>
+      </c>
+      <c r="G205" s="75">
+        <v>1</v>
+      </c>
+      <c r="H205" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I205" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="75">
+        <v>8</v>
+      </c>
+      <c r="K205" s="75"/>
+      <c r="L205" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N205" s="75"/>
+    </row>
+    <row r="206" spans="1:14" ht="54">
+      <c r="A206" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" s="75">
+        <v>5.4</v>
+      </c>
+      <c r="E206" s="75">
+        <v>57.684434760000002</v>
+      </c>
+      <c r="F206" s="75">
+        <v>1</v>
+      </c>
+      <c r="G206" s="75">
+        <v>1</v>
+      </c>
+      <c r="H206" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206" s="75">
+        <v>8</v>
+      </c>
+      <c r="K206" s="75"/>
+      <c r="L206" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M206" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N206" s="75"/>
+    </row>
+    <row r="207" spans="1:14" ht="54">
+      <c r="A207" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207" s="75">
+        <v>1.903</v>
+      </c>
+      <c r="E207" s="75">
+        <v>48.574001809999999</v>
+      </c>
+      <c r="F207" s="75">
+        <v>1</v>
+      </c>
+      <c r="G207" s="75">
+        <v>1</v>
+      </c>
+      <c r="H207" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I207" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" s="75">
+        <v>8</v>
+      </c>
+      <c r="K207" s="75"/>
+      <c r="L207" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M207" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N207" s="75"/>
+    </row>
+    <row r="208" spans="1:14" ht="54">
+      <c r="A208" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208" s="75">
+        <v>4.32</v>
+      </c>
+      <c r="E208" s="75">
+        <v>102.82893199999999</v>
+      </c>
+      <c r="F208" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="G208" s="75">
+        <v>1</v>
+      </c>
+      <c r="H208" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I208" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="75">
+        <v>8</v>
+      </c>
+      <c r="K208" s="75"/>
+      <c r="L208" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N208" s="75"/>
+    </row>
+    <row r="209" spans="1:14" ht="54">
+      <c r="A209" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B209" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="75">
+        <v>3.15</v>
+      </c>
+      <c r="E209" s="75">
+        <v>37.926277570000003</v>
+      </c>
+      <c r="F209" s="75">
+        <v>0</v>
+      </c>
+      <c r="G209" s="75">
+        <v>0</v>
+      </c>
+      <c r="H209" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" s="75">
+        <v>8</v>
+      </c>
+      <c r="K209" s="75"/>
+      <c r="L209" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M209" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N209" s="75"/>
+    </row>
+    <row r="210" spans="1:14" ht="54">
+      <c r="A210" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B210" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="75">
+        <v>2.98</v>
+      </c>
+      <c r="E210" s="75">
+        <v>91.955522869999996</v>
+      </c>
+      <c r="F210" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="G210" s="75">
+        <v>1</v>
+      </c>
+      <c r="H210" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I210" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" s="75">
+        <v>8</v>
+      </c>
+      <c r="K210" s="75"/>
+      <c r="L210" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M210" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N210" s="75"/>
+    </row>
+    <row r="211" spans="1:14" ht="54">
+      <c r="A211" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="75">
+        <v>20.9</v>
+      </c>
+      <c r="E211" s="75">
+        <v>522.9</v>
+      </c>
+      <c r="F211" s="75">
+        <v>1</v>
+      </c>
+      <c r="G211" s="75">
+        <v>1</v>
+      </c>
+      <c r="H211" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="75">
+        <v>9</v>
+      </c>
+      <c r="K211" s="75"/>
+      <c r="L211" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N211" s="75"/>
+    </row>
+    <row r="212" spans="1:14" ht="54">
+      <c r="A212" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B212" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C212" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="75">
+        <v>3.56</v>
+      </c>
+      <c r="E212" s="75">
+        <v>30.07</v>
+      </c>
+      <c r="F212" s="75">
+        <v>1</v>
+      </c>
+      <c r="G212" s="75">
+        <v>1</v>
+      </c>
+      <c r="H212" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I212" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" s="75">
+        <v>10</v>
+      </c>
+      <c r="K212" s="75"/>
+      <c r="L212" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="M212" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N212" s="75"/>
+    </row>
+    <row r="213" spans="1:14" ht="54">
+      <c r="A213" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D213" s="75">
+        <v>1</v>
+      </c>
+      <c r="E213" s="75">
+        <v>374.43</v>
+      </c>
+      <c r="F213" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="G213" s="75">
+        <v>1</v>
+      </c>
+      <c r="H213" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I213" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="75">
+        <v>2</v>
+      </c>
+      <c r="K213" s="75"/>
+      <c r="L213" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="M213" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N213" s="75"/>
+    </row>
+    <row r="214" spans="1:14" ht="36">
+      <c r="A214" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B214" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C214" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="75">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="E214" s="75">
+        <v>335.3397243</v>
+      </c>
+      <c r="F214" s="75">
+        <v>0.78</v>
+      </c>
+      <c r="G214" s="75">
+        <v>1</v>
+      </c>
+      <c r="H214" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I214" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" s="75">
+        <v>8</v>
+      </c>
+      <c r="K214" s="75"/>
+      <c r="L214" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M214" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N214" s="75"/>
+    </row>
+    <row r="215" spans="1:14" ht="36">
+      <c r="A215" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C215" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" s="75">
+        <v>7.5650000000000004</v>
+      </c>
+      <c r="E215" s="75">
+        <v>158.05900270000001</v>
+      </c>
+      <c r="F215" s="75">
+        <v>1</v>
+      </c>
+      <c r="G215" s="75">
+        <v>1</v>
+      </c>
+      <c r="H215" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I215" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" s="75">
+        <v>8</v>
+      </c>
+      <c r="K215" s="75"/>
+      <c r="L215" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="M215" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N215" s="75"/>
+    </row>
+    <row r="216" spans="1:14" ht="36">
+      <c r="A216" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C216" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216" s="75">
+        <v>1.903</v>
+      </c>
+      <c r="E216" s="75">
+        <v>16.063565189999998</v>
+      </c>
+      <c r="F216" s="75">
+        <v>0</v>
+      </c>
+      <c r="G216" s="75">
+        <v>0</v>
+      </c>
+      <c r="H216" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I216" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" s="75">
+        <v>8</v>
+      </c>
+      <c r="K216" s="75"/>
+      <c r="L216" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M216" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N216" s="75"/>
+    </row>
+    <row r="217" spans="1:14" ht="36">
+      <c r="A217" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B217" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217" s="75">
+        <v>6.76</v>
+      </c>
+      <c r="E217" s="75">
+        <v>282.4936586</v>
+      </c>
+      <c r="F217" s="75">
+        <v>1</v>
+      </c>
+      <c r="G217" s="75">
+        <v>1</v>
+      </c>
+      <c r="H217" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I217" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" s="75">
+        <v>8</v>
+      </c>
+      <c r="K217" s="75"/>
+      <c r="L217" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M217" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N217" s="75"/>
+    </row>
+    <row r="218" spans="1:14" ht="36">
+      <c r="A218" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B218" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218" s="75">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="E218" s="75">
+        <v>313.34954199999999</v>
+      </c>
+      <c r="F218" s="75">
+        <v>1</v>
+      </c>
+      <c r="G218" s="75">
+        <v>1</v>
+      </c>
+      <c r="H218" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I218" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="75">
+        <v>8</v>
+      </c>
+      <c r="K218" s="75"/>
+      <c r="L218" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M218" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N218" s="75"/>
+    </row>
+    <row r="219" spans="1:14" ht="36">
+      <c r="A219" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B219" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="75">
+        <v>9.75</v>
+      </c>
+      <c r="E219" s="75">
+        <v>395.62</v>
+      </c>
+      <c r="F219" s="75">
+        <v>0.82</v>
+      </c>
+      <c r="G219" s="75">
+        <v>1</v>
+      </c>
+      <c r="H219" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="I219" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" s="75">
+        <v>10</v>
+      </c>
+      <c r="K219" s="75"/>
+      <c r="L219" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="M219" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N219" s="75"/>
+    </row>
+    <row r="220" spans="1:14" ht="36">
+      <c r="A220" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B220" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220" s="75">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="E220" s="75">
+        <v>57.25</v>
+      </c>
+      <c r="F220" s="75">
+        <v>0</v>
+      </c>
+      <c r="G220" s="75">
+        <v>1</v>
+      </c>
+      <c r="H220" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I220" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J220" s="75">
+        <v>10</v>
+      </c>
+      <c r="K220" s="75"/>
+      <c r="L220" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M220" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N220" s="75"/>
+    </row>
+    <row r="221" spans="1:14" ht="36">
+      <c r="A221" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B221" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D221" s="75">
+        <v>1</v>
+      </c>
+      <c r="E221" s="75">
+        <v>242.75</v>
+      </c>
+      <c r="F221" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="G221" s="75">
+        <v>1</v>
+      </c>
+      <c r="H221" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I221" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J221" s="75">
+        <v>3</v>
+      </c>
+      <c r="K221" s="75"/>
+      <c r="L221" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M221" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N221" s="75"/>
+    </row>
+    <row r="222" spans="1:14" ht="36">
+      <c r="A222" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C222" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D222" s="75">
+        <v>1</v>
+      </c>
+      <c r="E222" s="75">
+        <v>286.86</v>
+      </c>
+      <c r="F222" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G222" s="75">
+        <v>1</v>
+      </c>
+      <c r="H222" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I222" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J222" s="75">
+        <v>3</v>
+      </c>
+      <c r="K222" s="75"/>
+      <c r="L222" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M222" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N222" s="75"/>
+    </row>
+    <row r="223" spans="1:14" ht="36">
+      <c r="A223" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B223" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C223" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D223" s="75">
+        <v>1</v>
+      </c>
+      <c r="E223" s="75">
+        <v>182.66</v>
+      </c>
+      <c r="F223" s="75">
+        <v>0.85</v>
+      </c>
+      <c r="G223" s="75">
+        <v>1</v>
+      </c>
+      <c r="H223" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I223" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J223" s="75">
+        <v>3</v>
+      </c>
+      <c r="K223" s="75"/>
+      <c r="L223" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M223" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N223" s="75"/>
+    </row>
+    <row r="224" spans="1:14" ht="36">
+      <c r="A224" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C224" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D224" s="75">
+        <v>1</v>
+      </c>
+      <c r="E224" s="75">
+        <v>419.66</v>
+      </c>
+      <c r="F224" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="G224" s="75">
+        <v>1</v>
+      </c>
+      <c r="H224" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="I224" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J224" s="75">
+        <v>3</v>
+      </c>
+      <c r="K224" s="75"/>
+      <c r="L224" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M224" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N224" s="75"/>
+    </row>
+    <row r="225" spans="1:14" ht="36">
+      <c r="A225" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B225" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C225" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="75">
+        <v>6.226</v>
+      </c>
+      <c r="E225" s="75">
+        <v>224.4495987</v>
+      </c>
+      <c r="F225" s="75">
+        <v>1</v>
+      </c>
+      <c r="G225" s="75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H225" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I225" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J225" s="75">
+        <v>7</v>
+      </c>
+      <c r="K225" s="75"/>
+      <c r="L225" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M225" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N225" s="75"/>
+    </row>
+    <row r="226" spans="1:14" ht="36">
+      <c r="A226" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B226" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226" s="75">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="E226" s="75">
+        <v>118.7745324</v>
+      </c>
+      <c r="F226" s="75">
+        <v>1</v>
+      </c>
+      <c r="G226" s="75">
+        <v>1</v>
+      </c>
+      <c r="H226" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I226" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J226" s="75">
+        <v>7</v>
+      </c>
+      <c r="K226" s="75"/>
+      <c r="L226" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M226" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N226" s="75"/>
+    </row>
+    <row r="227" spans="1:14" ht="36">
+      <c r="A227" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B227" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C227" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="75">
+        <v>2.31</v>
+      </c>
+      <c r="E227" s="75">
+        <v>88.151549259999996</v>
+      </c>
+      <c r="F227" s="75">
+        <v>1</v>
+      </c>
+      <c r="G227" s="75">
+        <v>1</v>
+      </c>
+      <c r="H227" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I227" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J227" s="75">
+        <v>7</v>
+      </c>
+      <c r="K227" s="75"/>
+      <c r="L227" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M227" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N227" s="75"/>
+    </row>
+    <row r="228" spans="1:14" ht="36">
+      <c r="A228" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B228" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C228" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" s="75">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="E228" s="75">
+        <v>51.057474249999999</v>
+      </c>
+      <c r="F228" s="75">
+        <v>1</v>
+      </c>
+      <c r="G228" s="75">
+        <v>1</v>
+      </c>
+      <c r="H228" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I228" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J228" s="75">
+        <v>7</v>
+      </c>
+      <c r="K228" s="75"/>
+      <c r="L228" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M228" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N228" s="75"/>
+    </row>
+    <row r="229" spans="1:14" ht="36">
+      <c r="A229" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B229" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="75">
+        <v>0.35</v>
+      </c>
+      <c r="E229" s="75">
+        <v>28.037593059999999</v>
+      </c>
+      <c r="F229" s="75">
+        <v>0</v>
+      </c>
+      <c r="G229" s="75">
+        <v>0</v>
+      </c>
+      <c r="H229" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I229" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J229" s="75">
+        <v>7</v>
+      </c>
+      <c r="K229" s="75"/>
+      <c r="L229" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M229" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N229" s="75"/>
+    </row>
+    <row r="230" spans="1:14" ht="36">
+      <c r="A230" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B230" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230" s="75">
+        <v>1</v>
+      </c>
+      <c r="E230" s="75">
+        <v>42.25</v>
+      </c>
+      <c r="F230" s="75">
+        <v>1</v>
+      </c>
+      <c r="G230" s="75">
+        <v>1</v>
+      </c>
+      <c r="H230" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I230" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J230" s="75">
+        <v>4</v>
+      </c>
+      <c r="K230" s="75"/>
+      <c r="L230" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M230" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N230" s="75"/>
+    </row>
+    <row r="231" spans="1:14" ht="36">
+      <c r="A231" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B231" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" s="75">
+        <v>1</v>
+      </c>
+      <c r="E231" s="75">
+        <v>42.25</v>
+      </c>
+      <c r="F231" s="75">
+        <v>1</v>
+      </c>
+      <c r="G231" s="75">
+        <v>1</v>
+      </c>
+      <c r="H231" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I231" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J231" s="75">
+        <v>4</v>
+      </c>
+      <c r="K231" s="75"/>
+      <c r="L231" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M231" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N231" s="75"/>
+    </row>
+    <row r="232" spans="1:14" ht="36">
+      <c r="A232" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B232" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C232" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D232" s="75">
+        <v>2</v>
+      </c>
+      <c r="E232" s="75">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="F232" s="75">
+        <v>0</v>
+      </c>
+      <c r="G232" s="75">
+        <v>0</v>
+      </c>
+      <c r="H232" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I232" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J232" s="75">
+        <v>1</v>
+      </c>
+      <c r="K232" s="75"/>
+      <c r="L232" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M232" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N232" s="75"/>
+    </row>
+    <row r="233" spans="1:14" ht="36">
+      <c r="A233" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B233" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" s="75">
+        <v>1</v>
+      </c>
+      <c r="E233" s="75">
+        <v>19.43</v>
+      </c>
+      <c r="F233" s="75">
+        <v>1</v>
+      </c>
+      <c r="G233" s="75">
+        <v>1</v>
+      </c>
+      <c r="H233" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="I233" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J233" s="75">
+        <v>12</v>
+      </c>
+      <c r="K233" s="75"/>
+      <c r="L233" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M233" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N233" s="75"/>
+    </row>
+    <row r="234" spans="1:14" ht="36">
+      <c r="A234" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B234" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C234" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="75">
+        <v>10</v>
+      </c>
+      <c r="E234" s="75">
+        <v>522.74</v>
+      </c>
+      <c r="F234" s="75">
+        <v>1</v>
+      </c>
+      <c r="G234" s="75">
+        <v>1</v>
+      </c>
+      <c r="H234" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J234" s="75">
+        <v>7</v>
+      </c>
+      <c r="K234" s="75"/>
+      <c r="L234" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M234" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N234" s="75"/>
+    </row>
+    <row r="235" spans="1:14" ht="36">
+      <c r="A235" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B235" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C235" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="75">
+        <v>11.44</v>
+      </c>
+      <c r="E235" s="75">
+        <v>460.9</v>
+      </c>
+      <c r="F235" s="75">
+        <v>1</v>
+      </c>
+      <c r="G235" s="75">
+        <v>1</v>
+      </c>
+      <c r="H235" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J235" s="75">
+        <v>7</v>
+      </c>
+      <c r="K235" s="75"/>
+      <c r="L235" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="M235" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N235" s="75"/>
+    </row>
+    <row r="236" spans="1:14" ht="36">
+      <c r="A236" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B236" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="C236" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D236" s="75">
+        <v>1</v>
+      </c>
+      <c r="E236" s="75">
+        <v>289.74</v>
+      </c>
+      <c r="F236" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="G236" s="75">
+        <v>1</v>
+      </c>
+      <c r="H236" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I236" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J236" s="75">
+        <v>3</v>
+      </c>
+      <c r="K236" s="75"/>
+      <c r="L236" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M236" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N236" s="75"/>
+    </row>
+    <row r="237" spans="1:14" ht="36">
+      <c r="A237" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B237" s="75" t="s">
+        <v>589</v>
+      </c>
+      <c r="C237" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" s="75">
+        <v>1</v>
+      </c>
+      <c r="E237" s="75">
+        <v>239.88</v>
+      </c>
+      <c r="F237" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="G237" s="75">
+        <v>1</v>
+      </c>
+      <c r="H237" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I237" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J237" s="75">
+        <v>3</v>
+      </c>
+      <c r="K237" s="75"/>
+      <c r="L237" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M237" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N237" s="75"/>
+    </row>
+    <row r="238" spans="1:14" ht="36">
+      <c r="A238" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B238" s="75" t="s">
+        <v>590</v>
+      </c>
+      <c r="C238" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D238" s="75">
+        <v>1</v>
+      </c>
+      <c r="E238" s="75">
+        <v>62.22</v>
+      </c>
+      <c r="F238" s="75">
+        <v>0</v>
+      </c>
+      <c r="G238" s="75">
+        <v>1</v>
+      </c>
+      <c r="H238" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I238" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J238" s="75">
+        <v>4</v>
+      </c>
+      <c r="K238" s="75"/>
+      <c r="L238" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M238" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N238" s="75"/>
+    </row>
+    <row r="239" spans="1:14" ht="36">
+      <c r="A239" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B239" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="C239" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D239" s="75">
+        <v>1</v>
+      </c>
+      <c r="E239" s="75">
+        <v>62.22</v>
+      </c>
+      <c r="F239" s="75">
+        <v>0</v>
+      </c>
+      <c r="G239" s="75">
+        <v>1</v>
+      </c>
+      <c r="H239" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I239" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J239" s="75">
+        <v>4</v>
+      </c>
+      <c r="K239" s="75"/>
+      <c r="L239" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M239" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N239" s="75"/>
+    </row>
+    <row r="240" spans="1:14" ht="36">
+      <c r="A240" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B240" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="C240" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D240" s="75">
+        <v>1</v>
+      </c>
+      <c r="E240" s="75">
+        <v>62.22</v>
+      </c>
+      <c r="F240" s="75">
+        <v>0</v>
+      </c>
+      <c r="G240" s="75">
+        <v>1</v>
+      </c>
+      <c r="H240" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I240" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J240" s="75">
+        <v>4</v>
+      </c>
+      <c r="K240" s="75"/>
+      <c r="L240" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M240" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N240" s="75"/>
+    </row>
+    <row r="241" spans="1:14" ht="36">
+      <c r="A241" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B241" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="C241" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D241" s="75">
+        <v>1</v>
+      </c>
+      <c r="E241" s="75">
+        <v>62.22</v>
+      </c>
+      <c r="F241" s="75">
+        <v>0</v>
+      </c>
+      <c r="G241" s="75">
+        <v>1</v>
+      </c>
+      <c r="H241" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I241" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J241" s="75">
+        <v>4</v>
+      </c>
+      <c r="K241" s="75"/>
+      <c r="L241" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M241" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N241" s="75"/>
+    </row>
+    <row r="242" spans="1:14" ht="36">
+      <c r="A242" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B242" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="C242" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="75">
+        <v>1</v>
+      </c>
+      <c r="E242" s="75">
+        <v>62.22</v>
+      </c>
+      <c r="F242" s="75">
+        <v>0</v>
+      </c>
+      <c r="G242" s="75">
+        <v>1</v>
+      </c>
+      <c r="H242" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I242" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J242" s="75">
+        <v>4</v>
+      </c>
+      <c r="K242" s="75"/>
+      <c r="L242" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M242" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N242" s="75"/>
+    </row>
+    <row r="243" spans="1:14" ht="36">
+      <c r="A243" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B243" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="C243" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="75">
+        <v>1</v>
+      </c>
+      <c r="E243" s="75">
+        <v>12.18</v>
+      </c>
+      <c r="F243" s="75">
+        <v>0</v>
+      </c>
+      <c r="G243" s="75">
+        <v>1</v>
+      </c>
+      <c r="H243" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I243" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J243" s="75">
+        <v>1</v>
+      </c>
+      <c r="K243" s="75"/>
+      <c r="L243" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M243" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N243" s="75"/>
+    </row>
+    <row r="244" spans="1:14" ht="36">
+      <c r="A244" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B244" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C244" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" s="75">
+        <v>1</v>
+      </c>
+      <c r="E244" s="75">
+        <v>12.18</v>
+      </c>
+      <c r="F244" s="75">
+        <v>0</v>
+      </c>
+      <c r="G244" s="75">
+        <v>1</v>
+      </c>
+      <c r="H244" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I244" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J244" s="75">
+        <v>1</v>
+      </c>
+      <c r="K244" s="75"/>
+      <c r="L244" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M244" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N244" s="75"/>
+    </row>
+    <row r="245" spans="1:14" ht="36">
+      <c r="A245" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="B245" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C245" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="D245" s="75">
+        <v>1</v>
+      </c>
+      <c r="E245" s="75">
+        <v>12.18</v>
+      </c>
+      <c r="F245" s="75">
+        <v>0</v>
+      </c>
+      <c r="G245" s="75">
+        <v>1</v>
+      </c>
+      <c r="H245" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="I245" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J245" s="75">
+        <v>1</v>
+      </c>
+      <c r="K245" s="75"/>
+      <c r="L245" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M245" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N245" s="75"/>
+    </row>
+    <row r="246" spans="1:14" ht="36">
+      <c r="A246" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="B246" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="C246" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D246" s="75">
+        <v>7</v>
+      </c>
+      <c r="E246" s="75">
+        <v>226.12</v>
+      </c>
+      <c r="F246" s="75">
+        <v>0</v>
+      </c>
+      <c r="G246" s="75">
+        <v>0.4</v>
+      </c>
+      <c r="H246" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="I246" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="J246" s="75">
+        <v>15</v>
+      </c>
+      <c r="K246" s="75"/>
+      <c r="L246" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="M246" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="N246" s="75"/>
+    </row>
+    <row r="247" spans="1:14" ht="36">
+      <c r="A247" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="162">
+        <v>33.848999999999997</v>
+      </c>
+      <c r="E247" s="162">
+        <v>867.33</v>
+      </c>
+      <c r="F247" s="52">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G247" s="52">
+        <v>1</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I247" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J247" s="197">
+        <v>11</v>
+      </c>
+      <c r="K247" s="13"/>
+      <c r="L247" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M247" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="36">
+      <c r="A248" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" s="162">
+        <v>1.48</v>
+      </c>
+      <c r="E248" s="162">
+        <v>18.828721420000001</v>
+      </c>
+      <c r="F248" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="G248" s="52">
+        <v>1</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I248" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J248" s="197">
+        <v>7</v>
+      </c>
+      <c r="K248" s="13"/>
+      <c r="L248" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M248" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="36">
+      <c r="A249" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="162">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="E249" s="162">
+        <v>32.028825480000002</v>
+      </c>
+      <c r="F249" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="G249" s="52">
+        <v>1</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I249" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J249" s="197">
+        <v>7</v>
+      </c>
+      <c r="K249" s="13"/>
+      <c r="L249" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M249" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="36">
+      <c r="A250" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="162">
+        <v>1.56</v>
+      </c>
+      <c r="E250" s="162">
+        <v>41.048906299999999</v>
+      </c>
+      <c r="F250" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="G250" s="52">
+        <v>1</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I250" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J250" s="197">
+        <v>7</v>
+      </c>
+      <c r="K250" s="13"/>
+      <c r="L250" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M250" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="36">
+      <c r="A251" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D251" s="162">
+        <v>3.2</v>
+      </c>
+      <c r="E251" s="162">
+        <v>176.47453530000001</v>
+      </c>
+      <c r="F251" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="G251" s="52">
+        <v>1</v>
+      </c>
+      <c r="H251" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I251" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J251" s="197">
+        <v>7</v>
+      </c>
+      <c r="K251" s="13"/>
+      <c r="L251" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M251" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="36">
+      <c r="A252" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D252" s="162">
+        <v>1</v>
+      </c>
+      <c r="E252" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F252" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G252" s="52">
+        <v>1</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I252" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J252" s="197">
+        <v>4</v>
+      </c>
+      <c r="K252" s="13"/>
+      <c r="L252" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M252" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="36">
+      <c r="A253" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" s="162">
+        <v>1</v>
+      </c>
+      <c r="E253" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F253" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G253" s="52">
+        <v>1</v>
+      </c>
+      <c r="H253" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I253" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J253" s="197">
+        <v>4</v>
+      </c>
+      <c r="K253" s="13"/>
+      <c r="L253" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M253" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="36">
+      <c r="A254" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D254" s="162">
+        <v>1</v>
+      </c>
+      <c r="E254" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F254" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G254" s="52">
+        <v>1</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I254" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J254" s="197">
+        <v>4</v>
+      </c>
+      <c r="K254" s="13"/>
+      <c r="L254" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M254" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="36">
+      <c r="A255" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D255" s="162">
+        <v>1</v>
+      </c>
+      <c r="E255" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F255" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G255" s="52">
+        <v>1</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I255" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J255" s="197">
+        <v>4</v>
+      </c>
+      <c r="K255" s="13"/>
+      <c r="L255" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M255" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="36">
+      <c r="A256" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D256" s="162">
+        <v>1</v>
+      </c>
+      <c r="E256" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F256" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G256" s="52">
+        <v>1</v>
+      </c>
+      <c r="H256" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I256" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J256" s="197">
+        <v>4</v>
+      </c>
+      <c r="K256" s="13"/>
+      <c r="L256" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M256" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="36">
+      <c r="A257" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" s="162">
+        <v>1</v>
+      </c>
+      <c r="E257" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F257" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G257" s="52">
+        <v>1</v>
+      </c>
+      <c r="H257" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I257" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J257" s="197">
+        <v>4</v>
+      </c>
+      <c r="K257" s="13"/>
+      <c r="L257" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M257" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="36">
+      <c r="A258" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" s="162">
+        <v>1</v>
+      </c>
+      <c r="E258" s="162">
+        <v>45.09</v>
+      </c>
+      <c r="F258" s="52">
+        <v>0.54</v>
+      </c>
+      <c r="G258" s="52">
+        <v>1</v>
+      </c>
+      <c r="H258" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I258" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J258" s="197">
+        <v>4</v>
+      </c>
+      <c r="K258" s="13"/>
+      <c r="L258" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M258" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="36">
+      <c r="A259" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D259" s="162">
+        <v>9</v>
+      </c>
+      <c r="E259" s="162">
+        <v>10.66</v>
+      </c>
+      <c r="F259" s="52">
+        <v>0</v>
+      </c>
+      <c r="G259" s="52">
+        <v>1</v>
+      </c>
+      <c r="H259" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I259" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J259" s="197">
+        <v>1</v>
+      </c>
+      <c r="K259" s="13"/>
+      <c r="L259" s="11"/>
+      <c r="M259" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="36">
+      <c r="A260" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" s="162">
+        <v>36.575000000000003</v>
+      </c>
+      <c r="E260" s="162">
+        <v>1193.75</v>
+      </c>
+      <c r="F260" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G260" s="52">
+        <v>1</v>
+      </c>
+      <c r="H260" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I260" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J260" s="197">
+        <v>7</v>
+      </c>
+      <c r="K260" s="13"/>
+      <c r="L260" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M260" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="36">
+      <c r="A261" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D261" s="162">
+        <v>1</v>
+      </c>
+      <c r="E261" s="162">
+        <v>183.3461227</v>
+      </c>
+      <c r="F261" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="G261" s="52">
+        <v>1</v>
+      </c>
+      <c r="H261" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I261" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J261" s="197">
+        <v>3</v>
+      </c>
+      <c r="K261" s="13"/>
+      <c r="L261" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M261" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="36">
+      <c r="A262" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D262" s="162">
+        <v>1</v>
+      </c>
+      <c r="E262" s="162">
+        <v>308.00184510000003</v>
+      </c>
+      <c r="F262" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="G262" s="52">
+        <v>1</v>
+      </c>
+      <c r="H262" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I262" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J262" s="197">
+        <v>3</v>
+      </c>
+      <c r="K262" s="13"/>
+      <c r="L262" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M262" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="36">
+      <c r="A263" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D263" s="162">
+        <v>1</v>
+      </c>
+      <c r="E263" s="162">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="F263" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G263" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H263" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I263" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J263" s="197">
+        <v>5</v>
+      </c>
+      <c r="K263" s="13"/>
+      <c r="L263" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M263" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="36">
+      <c r="A264" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D264" s="162">
+        <v>1</v>
+      </c>
+      <c r="E264" s="162">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="F264" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G264" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H264" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I264" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J264" s="197">
+        <v>5</v>
+      </c>
+      <c r="K264" s="13"/>
+      <c r="L264" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M264" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="36">
+      <c r="A265" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D265" s="162">
+        <v>1</v>
+      </c>
+      <c r="E265" s="162">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="F265" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G265" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H265" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I265" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J265" s="197">
+        <v>5</v>
+      </c>
+      <c r="K265" s="13"/>
+      <c r="L265" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M265" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="36">
+      <c r="A266" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" s="162">
+        <v>1</v>
+      </c>
+      <c r="E266" s="162">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="F266" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G266" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H266" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I266" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J266" s="197">
+        <v>5</v>
+      </c>
+      <c r="K266" s="13"/>
+      <c r="L266" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M266" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="36">
+      <c r="A267" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" s="162">
+        <v>1</v>
+      </c>
+      <c r="E267" s="162">
+        <v>182.28597360000001</v>
+      </c>
+      <c r="F267" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G267" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H267" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I267" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J267" s="197">
+        <v>5</v>
+      </c>
+      <c r="K267" s="13"/>
+      <c r="L267" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M267" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="36">
+      <c r="A268" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" s="162">
+        <v>1</v>
+      </c>
+      <c r="E268" s="162">
+        <v>279.35073799999998</v>
+      </c>
+      <c r="F268" s="198">
+        <v>0.27</v>
+      </c>
+      <c r="G268" s="198">
+        <v>0.67</v>
+      </c>
+      <c r="H268" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I268" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J268" s="197">
+        <v>5</v>
+      </c>
+      <c r="K268" s="13"/>
+      <c r="L268" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="M268" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="36">
+      <c r="A269" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D269" s="162">
+        <v>34.94</v>
+      </c>
+      <c r="E269" s="162">
+        <v>1564.32</v>
+      </c>
+      <c r="F269" s="162">
+        <v>0.98</v>
+      </c>
+      <c r="G269" s="162">
+        <v>1</v>
+      </c>
+      <c r="H269" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I269" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J269" s="197">
+        <v>11</v>
+      </c>
+      <c r="K269" s="13"/>
+      <c r="L269" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M269" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="36">
+      <c r="A270" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" s="162">
+        <v>1</v>
+      </c>
+      <c r="E270" s="162">
+        <v>283.3851262</v>
+      </c>
+      <c r="F270" s="162">
+        <v>0.5</v>
+      </c>
+      <c r="G270" s="162">
+        <v>1</v>
+      </c>
+      <c r="H270" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I270" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J270" s="197">
+        <v>3</v>
+      </c>
+      <c r="K270" s="13"/>
+      <c r="L270" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M270" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="36">
+      <c r="A271" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D271" s="162">
+        <v>1</v>
+      </c>
+      <c r="E271" s="162">
+        <v>267.87028529999998</v>
+      </c>
+      <c r="F271" s="162">
+        <v>0.4</v>
+      </c>
+      <c r="G271" s="162">
+        <v>1</v>
+      </c>
+      <c r="H271" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I271" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J271" s="197">
+        <v>3</v>
+      </c>
+      <c r="K271" s="13"/>
+      <c r="L271" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M271" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="36">
+      <c r="A272" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D272" s="162">
+        <v>1</v>
+      </c>
+      <c r="E272" s="162">
+        <v>225.81</v>
+      </c>
+      <c r="F272" s="162">
+        <v>0</v>
+      </c>
+      <c r="G272" s="162">
+        <v>1</v>
+      </c>
+      <c r="H272" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I272" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J272" s="197">
+        <v>5</v>
+      </c>
+      <c r="K272" s="13"/>
+      <c r="L272" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M272" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="36">
+      <c r="A273" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D273" s="162">
+        <v>1</v>
+      </c>
+      <c r="E273" s="162">
+        <v>301.6651</v>
+      </c>
+      <c r="F273" s="162">
+        <v>0.4</v>
+      </c>
+      <c r="G273" s="162">
+        <v>1</v>
+      </c>
+      <c r="H273" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I273" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J273" s="197">
+        <v>5</v>
+      </c>
+      <c r="K273" s="13"/>
+      <c r="L273" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M273" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="36">
+      <c r="A274" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D274" s="162">
+        <v>1</v>
+      </c>
+      <c r="E274" s="162">
+        <v>187.8663</v>
+      </c>
+      <c r="F274" s="162">
+        <v>0.8</v>
+      </c>
+      <c r="G274" s="162">
+        <v>1</v>
+      </c>
+      <c r="H274" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I274" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J274" s="197">
+        <v>5</v>
+      </c>
+      <c r="K274" s="13"/>
+      <c r="L274" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M274" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="36">
+      <c r="A275" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D275" s="162">
+        <v>1</v>
+      </c>
+      <c r="E275" s="162">
+        <v>191.39009999999999</v>
+      </c>
+      <c r="F275" s="162">
+        <v>0.8</v>
+      </c>
+      <c r="G275" s="162">
+        <v>1</v>
+      </c>
+      <c r="H275" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="I275" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J275" s="197">
+        <v>5</v>
+      </c>
+      <c r="K275" s="13"/>
+      <c r="L275" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M275" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="36">
+      <c r="A276" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C276" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="162">
+        <v>7.18</v>
+      </c>
+      <c r="E276" s="162">
+        <v>36.088865039381254</v>
+      </c>
+      <c r="F276" s="162">
+        <v>1</v>
+      </c>
+      <c r="G276" s="162">
+        <v>1</v>
+      </c>
+      <c r="H276" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I276" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J276" s="197">
+        <v>7</v>
+      </c>
+      <c r="K276" s="13"/>
+      <c r="L276" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M276" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="36">
+      <c r="A277" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C277" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D277" s="162">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="E277" s="162">
+        <v>54.376977932306822</v>
+      </c>
+      <c r="F277" s="162">
+        <v>1</v>
+      </c>
+      <c r="G277" s="162">
+        <v>1</v>
+      </c>
+      <c r="H277" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I277" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J277" s="197">
+        <v>7</v>
+      </c>
+      <c r="K277" s="13"/>
+      <c r="L277" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M277" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="36">
+      <c r="A278" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C278" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D278" s="162">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="E278" s="162">
+        <v>70.108245228127444</v>
+      </c>
+      <c r="F278" s="162">
+        <v>1</v>
+      </c>
+      <c r="G278" s="162">
+        <v>1</v>
+      </c>
+      <c r="H278" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I278" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J278" s="197">
+        <v>7</v>
+      </c>
+      <c r="K278" s="13"/>
+      <c r="L278" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M278" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="36">
+      <c r="A279" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C279" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D279" s="162">
+        <v>13.8</v>
+      </c>
+      <c r="E279" s="162">
+        <v>565.05490314340454</v>
+      </c>
+      <c r="F279" s="162">
+        <v>1</v>
+      </c>
+      <c r="G279" s="162">
+        <v>1</v>
+      </c>
+      <c r="H279" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I279" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J279" s="197">
+        <v>7</v>
+      </c>
+      <c r="K279" s="13"/>
+      <c r="L279" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M279" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="36">
+      <c r="A280" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C280" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D280" s="162">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="E280" s="162">
+        <v>36.350741502873767</v>
+      </c>
+      <c r="F280" s="162">
+        <v>1</v>
+      </c>
+      <c r="G280" s="162">
+        <v>1</v>
+      </c>
+      <c r="H280" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I280" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J280" s="197">
+        <v>7</v>
+      </c>
+      <c r="K280" s="13"/>
+      <c r="L280" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M280" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="36">
+      <c r="A281" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C281" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="162">
+        <v>3.4140000000000001</v>
+      </c>
+      <c r="E281" s="162">
+        <v>62.730761725679422</v>
+      </c>
+      <c r="F281" s="162">
+        <v>1</v>
+      </c>
+      <c r="G281" s="162">
+        <v>1</v>
+      </c>
+      <c r="H281" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I281" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J281" s="197">
+        <v>7</v>
+      </c>
+      <c r="K281" s="13"/>
+      <c r="L281" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M281" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="36">
+      <c r="A282" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C282" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D282" s="162">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="E282" s="162">
+        <v>176.76293195203294</v>
+      </c>
+      <c r="F282" s="162">
+        <v>1</v>
+      </c>
+      <c r="G282" s="162">
+        <v>1</v>
+      </c>
+      <c r="H282" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I282" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J282" s="197">
+        <v>7</v>
+      </c>
+      <c r="K282" s="13"/>
+      <c r="L282" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M282" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="36">
+      <c r="A283" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C283" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D283" s="162">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="E283" s="162">
+        <v>45.673286383310867</v>
+      </c>
+      <c r="F283" s="162">
+        <v>1</v>
+      </c>
+      <c r="G283" s="162">
+        <v>1</v>
+      </c>
+      <c r="H283" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I283" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J283" s="197">
+        <v>7</v>
+      </c>
+      <c r="K283" s="13"/>
+      <c r="L283" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M283" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="36">
+      <c r="A284" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C284" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D284" s="162">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="E284" s="162">
+        <v>39.889138224650537</v>
+      </c>
+      <c r="F284" s="162">
+        <v>1</v>
+      </c>
+      <c r="G284" s="162">
+        <v>1</v>
+      </c>
+      <c r="H284" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I284" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J284" s="197">
+        <v>7</v>
+      </c>
+      <c r="K284" s="13"/>
+      <c r="L284" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M284" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="36">
+      <c r="A285" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C285" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D285" s="162">
+        <v>2.665</v>
+      </c>
+      <c r="E285" s="162">
+        <v>15.511636982899311</v>
+      </c>
+      <c r="F285" s="162">
+        <v>1</v>
+      </c>
+      <c r="G285" s="162">
+        <v>1</v>
+      </c>
+      <c r="H285" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I285" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J285" s="197">
+        <v>7</v>
+      </c>
+      <c r="K285" s="13"/>
+      <c r="L285" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M285" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="36">
+      <c r="A286" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C286" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" s="162">
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="E286" s="162">
+        <v>37.856219399701978</v>
+      </c>
+      <c r="F286" s="162">
+        <v>1</v>
+      </c>
+      <c r="G286" s="162">
+        <v>1</v>
+      </c>
+      <c r="H286" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I286" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J286" s="197">
+        <v>7</v>
+      </c>
+      <c r="K286" s="13"/>
+      <c r="L286" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M286" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="36">
+      <c r="A287" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C287" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D287" s="162">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="E287" s="162">
+        <v>17.696879656567088</v>
+      </c>
+      <c r="F287" s="162">
+        <v>1</v>
+      </c>
+      <c r="G287" s="162">
+        <v>1</v>
+      </c>
+      <c r="H287" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I287" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J287" s="197">
+        <v>7</v>
+      </c>
+      <c r="K287" s="13"/>
+      <c r="L287" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M287" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="36">
+      <c r="A288" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C288" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D288" s="162">
+        <v>7.6109999999999998</v>
+      </c>
+      <c r="E288" s="162">
+        <v>157.1547044632087</v>
+      </c>
+      <c r="F288" s="162">
+        <v>1</v>
+      </c>
+      <c r="G288" s="162">
+        <v>1</v>
+      </c>
+      <c r="H288" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I288" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J288" s="197">
+        <v>7</v>
+      </c>
+      <c r="K288" s="13"/>
+      <c r="L288" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M288" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="36">
+      <c r="A289" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C289" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="162">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E289" s="162">
+        <v>32.572846448591505</v>
+      </c>
+      <c r="F289" s="162">
+        <v>1</v>
+      </c>
+      <c r="G289" s="162">
+        <v>1</v>
+      </c>
+      <c r="H289" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I289" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J289" s="197">
+        <v>7</v>
+      </c>
+      <c r="K289" s="13"/>
+      <c r="L289" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M289" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="36">
+      <c r="A290" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C290" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D290" s="162">
+        <v>1.105</v>
+      </c>
+      <c r="E290" s="162">
+        <v>37.708401333995596</v>
+      </c>
+      <c r="F290" s="162">
+        <v>1</v>
+      </c>
+      <c r="G290" s="162">
+        <v>1</v>
+      </c>
+      <c r="H290" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I290" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J290" s="197">
+        <v>7</v>
+      </c>
+      <c r="K290" s="13"/>
+      <c r="L290" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M290" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="36">
+      <c r="A291" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C291" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D291" s="162">
+        <v>2.11</v>
+      </c>
+      <c r="E291" s="162">
+        <v>14.60007627900376</v>
+      </c>
+      <c r="F291" s="162">
+        <v>1</v>
+      </c>
+      <c r="G291" s="162">
+        <v>1</v>
+      </c>
+      <c r="H291" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I291" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J291" s="197">
+        <v>7</v>
+      </c>
+      <c r="K291" s="13"/>
+      <c r="L291" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M291" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="36">
+      <c r="A292" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C292" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D292" s="162">
+        <v>1</v>
+      </c>
+      <c r="E292" s="162">
+        <v>45.13</v>
+      </c>
+      <c r="F292" s="162">
+        <v>0</v>
+      </c>
+      <c r="G292" s="162">
+        <v>1</v>
+      </c>
+      <c r="H292" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I292" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J292" s="197">
+        <v>4</v>
+      </c>
+      <c r="K292" s="13"/>
+      <c r="L292" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M292" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="36">
+      <c r="A293" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C293" s="162" t="s">
+        <v>57</v>
+      </c>
+      <c r="D293" s="162">
+        <v>12</v>
+      </c>
+      <c r="E293" s="162">
+        <v>131.38</v>
+      </c>
+      <c r="F293" s="162">
+        <v>0</v>
+      </c>
+      <c r="G293" s="162">
+        <v>1</v>
+      </c>
+      <c r="H293" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I293" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="J293" s="197">
+        <v>1</v>
+      </c>
+      <c r="K293" s="13"/>
+      <c r="L293" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M293" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="18">
+      <c r="A294" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C294" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D294" s="22">
+        <v>11</v>
+      </c>
+      <c r="E294" s="21">
+        <v>347.64</v>
+      </c>
+      <c r="F294" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G294" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="H294" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="I294" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J294" s="21">
+        <v>15</v>
+      </c>
+      <c r="K294" s="21"/>
+      <c r="L294" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="M294" s="167" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="36">
+      <c r="A295" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B295" s="199" t="s">
+        <v>599</v>
+      </c>
+      <c r="C295" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="201">
+        <v>0.24</v>
+      </c>
+      <c r="E295" s="202">
+        <v>335.53</v>
+      </c>
+      <c r="F295" s="203">
+        <v>0</v>
+      </c>
+      <c r="G295" s="203">
+        <v>0</v>
+      </c>
+      <c r="H295" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I295" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J295" s="204">
+        <v>11</v>
+      </c>
+      <c r="K295" s="185"/>
+      <c r="L295" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M295" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="36">
+      <c r="A296" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B296" s="199" t="s">
+        <v>600</v>
+      </c>
+      <c r="C296" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" s="201">
+        <v>0.05</v>
+      </c>
+      <c r="E296" s="202">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="F296" s="203">
+        <v>0</v>
+      </c>
+      <c r="G296" s="203">
+        <v>0</v>
+      </c>
+      <c r="H296" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I296" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J296" s="204">
+        <v>11</v>
+      </c>
+      <c r="K296" s="185"/>
+      <c r="L296" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M296" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="36">
+      <c r="A297" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B297" s="199" t="s">
+        <v>601</v>
+      </c>
+      <c r="C297" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D297" s="201">
+        <v>0.04</v>
+      </c>
+      <c r="E297" s="202">
+        <v>39.06</v>
+      </c>
+      <c r="F297" s="203">
+        <v>0</v>
+      </c>
+      <c r="G297" s="203">
+        <v>0</v>
+      </c>
+      <c r="H297" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I297" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J297" s="204">
+        <v>11</v>
+      </c>
+      <c r="K297" s="185"/>
+      <c r="L297" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M297" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="36">
+      <c r="A298" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="199" t="s">
+        <v>602</v>
+      </c>
+      <c r="C298" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="201">
+        <v>0.04</v>
+      </c>
+      <c r="E298" s="202">
+        <v>39.06</v>
+      </c>
+      <c r="F298" s="203">
+        <v>0</v>
+      </c>
+      <c r="G298" s="203">
+        <v>0</v>
+      </c>
+      <c r="H298" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I298" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J298" s="204">
+        <v>11</v>
+      </c>
+      <c r="K298" s="185"/>
+      <c r="L298" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M298" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="36">
+      <c r="A299" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B299" s="205" t="s">
+        <v>603</v>
+      </c>
+      <c r="C299" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" s="201">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="E299" s="202">
+        <v>50.48</v>
+      </c>
+      <c r="F299" s="203">
+        <v>0</v>
+      </c>
+      <c r="G299" s="203">
+        <v>0</v>
+      </c>
+      <c r="H299" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I299" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J299" s="204">
+        <v>11</v>
+      </c>
+      <c r="K299" s="185"/>
+      <c r="L299" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M299" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="36">
+      <c r="A300" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="205" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D300" s="201">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="E300" s="202">
+        <v>84.63</v>
+      </c>
+      <c r="F300" s="203">
+        <v>0</v>
+      </c>
+      <c r="G300" s="203">
+        <v>0</v>
+      </c>
+      <c r="H300" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I300" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J300" s="204">
+        <v>11</v>
+      </c>
+      <c r="K300" s="185"/>
+      <c r="L300" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M300" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="36">
+      <c r="A301" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B301" s="205" t="s">
+        <v>604</v>
+      </c>
+      <c r="C301" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D301" s="201">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E301" s="202">
+        <v>83.54</v>
+      </c>
+      <c r="F301" s="203">
+        <v>0</v>
+      </c>
+      <c r="G301" s="203">
+        <v>0</v>
+      </c>
+      <c r="H301" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I301" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J301" s="204">
+        <v>11</v>
+      </c>
+      <c r="K301" s="185"/>
+      <c r="L301" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M301" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="36">
+      <c r="A302" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" s="206" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D302" s="201">
+        <v>0.85</v>
+      </c>
+      <c r="E302" s="202">
+        <v>10.64</v>
+      </c>
+      <c r="F302" s="203">
+        <v>0</v>
+      </c>
+      <c r="G302" s="203">
+        <v>0</v>
+      </c>
+      <c r="H302" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I302" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J302" s="204">
+        <v>11</v>
+      </c>
+      <c r="K302" s="185"/>
+      <c r="L302" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M302" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="36">
+      <c r="A303" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B303" s="206" t="s">
+        <v>605</v>
+      </c>
+      <c r="C303" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D303" s="201">
+        <v>3.85</v>
+      </c>
+      <c r="E303" s="202">
+        <v>47.95</v>
+      </c>
+      <c r="F303" s="203">
+        <v>0</v>
+      </c>
+      <c r="G303" s="203">
+        <v>0</v>
+      </c>
+      <c r="H303" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I303" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J303" s="204">
+        <v>11</v>
+      </c>
+      <c r="K303" s="185"/>
+      <c r="L303" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M303" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="36">
+      <c r="A304" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B304" s="207" t="s">
+        <v>606</v>
+      </c>
+      <c r="C304" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D304" s="201">
+        <v>0.03</v>
+      </c>
+      <c r="E304" s="202">
+        <v>246.39</v>
+      </c>
+      <c r="F304" s="203">
+        <v>0</v>
+      </c>
+      <c r="G304" s="203">
+        <v>1</v>
+      </c>
+      <c r="H304" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I304" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J304" s="204">
+        <v>11</v>
+      </c>
+      <c r="K304" s="185"/>
+      <c r="L304" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M304" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="36">
+      <c r="A305" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" s="207" t="s">
+        <v>607</v>
+      </c>
+      <c r="C305" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D305" s="201">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E305" s="202">
+        <v>152.31</v>
+      </c>
+      <c r="F305" s="203">
+        <v>0</v>
+      </c>
+      <c r="G305" s="203">
+        <v>1</v>
+      </c>
+      <c r="H305" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I305" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J305" s="204">
+        <v>11</v>
+      </c>
+      <c r="K305" s="185"/>
+      <c r="L305" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M305" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="36">
+      <c r="A306" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B306" s="207" t="s">
+        <v>608</v>
+      </c>
+      <c r="C306" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D306" s="201">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E306" s="202">
+        <v>138.18</v>
+      </c>
+      <c r="F306" s="203">
+        <v>0</v>
+      </c>
+      <c r="G306" s="203">
+        <v>1</v>
+      </c>
+      <c r="H306" s="203" t="s">
+        <v>582</v>
+      </c>
+      <c r="I306" s="203" t="s">
+        <v>54</v>
+      </c>
+      <c r="J306" s="204">
+        <v>11</v>
+      </c>
+      <c r="K306" s="185"/>
+      <c r="L306" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="M306" s="67" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:M142">
@@ -25438,13 +31370,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="197" t="s">
+      <c r="A43" s="208" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="199"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="210"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -30775,12 +36707,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="200" t="s">
+      <c r="A43" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="200"/>
-      <c r="C43" s="200"/>
-      <c r="D43" s="200"/>
+      <c r="B43" s="211"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="211"/>
       <c r="E43" s="19"/>
       <c r="F43" s="142">
         <f>SUM(F2:F42)</f>
